--- a/QuantLibXL/Data2/XLS/SEK_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK_Market.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="205">
   <si>
     <t>Currency</t>
   </si>
@@ -627,12 +627,6 @@
     <t>ICAA</t>
   </si>
   <si>
-    <t>3BR</t>
-  </si>
-  <si>
-    <t>6BR</t>
-  </si>
-  <si>
     <t>ICAP AUST</t>
   </si>
   <si>
@@ -643,9 +637,6 @@
   </si>
   <si>
     <t>GENERAL SETTINGS</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>The record could not be found</t>
@@ -2133,573 +2124,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFG5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V6" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFF5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFK5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V9" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFJ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V8" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V29" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V25" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH3_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V45" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V41" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V37" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V33" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFH7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V21" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFH6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V17" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFH5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V7" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFN5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V11" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V30" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V26" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM3_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V46" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V42" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V38" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V34" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFM7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V22" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFM6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V18" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFM5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V10" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFQ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V12" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFV5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V14" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V31" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V27" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V43" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V39" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V35" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFU7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V23" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFU6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V19" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFU5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V13" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V32" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V28" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V44" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V40" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V36" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V24" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V20" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V16" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFX5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V15" s="18"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 12:16:06</v>
-        <stp/>
-        <stp>{8F5089A0-9DBE-4175-ADD7-A8364BBC83F2}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:52:05</v>
-        <stp/>
-        <stp>{FE00B554-29DF-4A1A-AF97-7E095ED723AA}</stp>
-        <tr r="O4" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:08:56</v>
-        <stp/>
-        <stp>{AAC37584-478B-4434-81B8-7179C8CB4AD3}</stp>
-        <tr r="N4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:16:15</v>
-        <stp/>
-        <stp>{109693F0-2A8A-4AEF-B24D-DF2BC1CF56E9}</stp>
-        <tr r="M4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:12:47</v>
-        <stp/>
-        <stp>{26024183-2A5F-4825-8D4C-EFDA9DBC56CC}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:17:48</v>
-        <stp/>
-        <stp>{E5F560D6-DFA3-4B0A-A84A-1CAC7F92217C}</stp>
-        <tr r="Q4" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:12:47</v>
-        <stp/>
-        <stp>{CB4DB8F1-D9B1-4861-827D-C41B55E07806}</stp>
-        <tr r="P4" s="12"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rhistoryrtdserver">
-      <tp t="s">
-        <v>Updated at 12:10:29</v>
-        <stp/>
-        <stp>{59B14BE6-B81B-4FC0-A4E8-B6883E47D3DC}_x0000_</stp>
-        <tr r="D2" s="65"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W44" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W36" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W40" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W20" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W24" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W16" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W28" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFZ9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W32" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFX5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W15" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFV5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W14" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W43" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W35" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W39" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFU6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W19" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFU7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W23" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFU5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W13" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W27" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFU9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W31" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFQ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W12" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFN5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W11" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W42" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM3_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W46" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W34" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W38" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFM6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W18" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFM7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W22" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFM5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W10" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W26" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFM9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W30" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFK5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W9" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFJ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W8" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W41" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH3_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W45" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W33" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W37" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFH6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W17" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFH7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W21" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-        <stp/>
-        <stp>_x0007_SE3MFH5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W7" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W25" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFH9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W29" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFG5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W6" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0007_SE3MFF5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W5" s="18"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3015,7 +2439,7 @@
     </row>
     <row r="2" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="260" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="234"/>
       <c r="D2" s="234"/>
@@ -3043,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="269" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E4" s="7"/>
       <c r="G4" s="106"/>
@@ -3061,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="243">
-        <v>41991.410798611112</v>
+        <v>41991.534733796296</v>
       </c>
       <c r="E5" s="7"/>
       <c r="G5" s="106"/>
@@ -3098,7 +2522,7 @@
       </c>
       <c r="D7" s="245">
         <f>_xll.ohTrigger(Deposits!R3,FRA3M!W3,Futures3M!AB3,Swap3M!Z3,BasisSwap3M6M!X3,OIS!X3)</f>
-        <v>309</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="106"/>
@@ -3115,7 +2539,7 @@
       </c>
       <c r="D8" s="245">
         <f>_xll.ohTrigger(Stibor!U5:U10)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7"/>
       <c r="G8" s="106"/>
@@ -3175,7 +2599,7 @@
         <v>170</v>
       </c>
       <c r="I11" s="240" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J11" s="163"/>
     </row>
@@ -3295,7 +2719,7 @@
     <row r="19" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="106"/>
       <c r="C19" s="252" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="253" t="s">
         <v>171</v>
@@ -3306,7 +2730,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="256" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J19" s="241"/>
     </row>
@@ -3338,7 +2762,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="258" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J21" s="241"/>
     </row>
@@ -3361,8 +2785,8 @@
       <c r="C23" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="171" t="s">
-        <v>178</v>
+      <c r="D23" s="171" t="b">
+        <v>1</v>
       </c>
       <c r="E23" s="7"/>
     </row>
@@ -3450,40 +2874,40 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="279" t="str">
-        <f>_xll.RHistory("STISEK3MDFI=",B9:B10,B5,,"CH:In;Fd TSREPEAT:N SORT:"&amp;B7,D3)</f>
-        <v>Updated at 12:10:29</v>
+      <c r="D2" s="279" t="e">
+        <f ca="1">_xll.RHistory("STISEK3MDFI=",B9:B10,B5,,"CH:In;Fd TSREPEAT:N SORT:"&amp;B7,D3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="279"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="276" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="280">
         <f>_xll.qlCalendarAdvance("TARGET",B4,"-12M","f",FALSE,Trigger)</f>
         <v>41626</v>
       </c>
       <c r="D3" s="281" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E3" s="281" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="276" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="277">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
         <v>41991</v>
       </c>
       <c r="D4" s="282" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" s="282" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F4" s="283" t="s">
         <v>149</v>
@@ -3491,7 +2915,7 @@
     </row>
     <row r="5" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="276" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B5" s="284" t="str">
         <f>"START:"&amp;B3&amp; " END:"&amp;B4&amp;" INTERVAL:1D"</f>
@@ -3522,10 +2946,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="276" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B7" s="277" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="287">
         <v>41989</v>
@@ -3552,10 +2976,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="276" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B9" s="277" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D9" s="287">
         <v>41985</v>
@@ -3571,7 +2995,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="289" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D10" s="287">
         <v>41984</v>
@@ -9930,9 +9354,9 @@
       <c r="P4" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="187" t="str">
-        <f>_xll.RData(Q5:Q10,R4:S4,"RTFEED:IDN",,,R5)</f>
-        <v>Updated at 12:17:48</v>
+      <c r="Q4" s="187" t="e">
+        <f ca="1">_xll.RData(Q5:Q10,R4:S4,"RTFEED:IDN",,,R5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R4" s="187" t="s">
         <v>151</v>
@@ -9964,7 +9388,7 @@
         <v>Sweden</v>
       </c>
       <c r="F5" s="206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G5" s="206" t="b">
         <v>1</v>
@@ -9978,15 +9402,15 @@
       </c>
       <c r="J5" s="183" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKON#0001</v>
+        <v>SEKON#0000</v>
       </c>
       <c r="K5" s="183" t="str">
         <f>_xll.qlOvernightIndex(I5,,D5,Currency,Calendar,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborON#0001</v>
+        <v>SekiborON#0000</v>
       </c>
       <c r="L5" s="183" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C5&amp;"LastFixing_Quote",K5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborONLastFixing_Quote#0001</v>
+        <v>SekiborONLastFixing_Quote#0000</v>
       </c>
       <c r="M5" s="183"/>
       <c r="N5" s="184"/>
@@ -9996,17 +9420,17 @@
       </c>
       <c r="P5" s="271" t="str">
         <f>K5</f>
-        <v>SekiborON#0001</v>
+        <v>SekiborON#0000</v>
       </c>
       <c r="Q5" s="272" t="str">
         <f t="shared" ref="Q5:Q10" si="3">"STI"&amp;Currency&amp;O5&amp;"DFI="</f>
         <v>STISEKONDFI=</v>
       </c>
       <c r="R5" s="272" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S5" s="275" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T5" s="272" t="b">
         <f>IF(AND(ISNUMBER($S5),$S5&lt;&gt;0%),TRUE,FALSE)</f>
@@ -10016,16 +9440,16 @@
         <f>IF(S5,_xll.qlIndexAddFixings(P5,R5,S5/100,TRUE),NA())</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V5" s="273">
+      <c r="V5" s="273" t="e">
         <f>_xll.qlQuoteValue(L5)</f>
-        <v>7.7999999999999999E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="W5" s="185"/>
     </row>
     <row r="6" spans="2:27" s="176" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="181"/>
       <c r="C6" s="189" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" s="206">
         <v>2</v>
@@ -10035,7 +9459,7 @@
         <v>Sweden</v>
       </c>
       <c r="F6" s="206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G6" s="206" t="b">
         <v>1</v>
@@ -10089,7 +9513,7 @@
       </c>
       <c r="V6" s="274">
         <f>_xll.qlQuoteValue(L6)</f>
-        <v>1.0600000000000002E-3</v>
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="W6" s="185"/>
     </row>
@@ -10106,7 +9530,7 @@
         <v>Sweden</v>
       </c>
       <c r="F7" s="206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G7" s="206" t="b">
         <v>1</v>
@@ -10163,7 +9587,7 @@
       </c>
       <c r="V7" s="274">
         <f>_xll.qlQuoteValue(L7)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="W7" s="185"/>
     </row>
@@ -10180,7 +9604,7 @@
         <v>Sweden</v>
       </c>
       <c r="F8" s="206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="206" t="b">
         <v>1</v>
@@ -10232,9 +9656,9 @@
         <f>IF(S8,_xll.qlIndexAddFixings(P8,R8,S8/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="V8" s="274" t="e">
+      <c r="V8" s="274">
         <f>_xll.qlQuoteValue(L8)</f>
-        <v>#NUM!</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="W8" s="185"/>
     </row>
@@ -10251,7 +9675,7 @@
         <v>Sweden</v>
       </c>
       <c r="F9" s="206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" s="206" t="b">
         <v>1</v>
@@ -10308,7 +9732,7 @@
       </c>
       <c r="V9" s="274">
         <f>_xll.qlQuoteValue(L9)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5800000000000003E-3</v>
       </c>
       <c r="W9" s="185"/>
     </row>
@@ -10325,7 +9749,7 @@
         <v>Sweden</v>
       </c>
       <c r="F10" s="206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G10" s="206" t="b">
         <v>1</v>
@@ -10382,7 +9806,7 @@
       </c>
       <c r="V10" s="274">
         <f>_xll.qlQuoteValue(L10)</f>
-        <v>3.3900000000000002E-3</v>
+        <v>3.4100000000000003E-3</v>
       </c>
       <c r="W10" s="185"/>
     </row>
@@ -10507,10 +9931,10 @@
         <v>59</v>
       </c>
       <c r="E3" s="305" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F3" s="305" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G3" s="199"/>
       <c r="H3" s="185"/>
@@ -10529,7 +9953,7 @@
       </c>
       <c r="F4" s="295" t="str">
         <f>_xll.qlSwapIndex($E4,FixingType,C4,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc3M#0037</v>
+        <v>SekiborSwapForBasisCalc3M#0000</v>
       </c>
       <c r="G4" s="296" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -10551,7 +9975,7 @@
       </c>
       <c r="F5" s="299" t="str">
         <f>_xll.qlSwapIndex($E5,FixingType,C5,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc6M#0002</v>
+        <v>SekiborSwapForBasisCalc6M#0000</v>
       </c>
       <c r="G5" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -10573,7 +9997,7 @@
       </c>
       <c r="F6" s="299" t="str">
         <f>_xll.qlSwapIndex($E6,FixingType,C6,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc9M#0002</v>
+        <v>SekiborSwapForBasisCalc9M#0000</v>
       </c>
       <c r="G6" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -10595,7 +10019,7 @@
       </c>
       <c r="F7" s="299" t="str">
         <f>_xll.qlSwapIndex($E7,FixingType,C7,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc1Y#0002</v>
+        <v>SekiborSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="G7" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -10617,7 +10041,7 @@
       </c>
       <c r="F8" s="299" t="str">
         <f>_xll.qlSwapIndex($E8,FixingType,C8,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc15M#0002</v>
+        <v>SekiborSwapForBasisCalc15M#0000</v>
       </c>
       <c r="G8" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -10639,7 +10063,7 @@
       </c>
       <c r="F9" s="299" t="str">
         <f>_xll.qlSwapIndex($E9,FixingType,C9,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc18M#0002</v>
+        <v>SekiborSwapForBasisCalc18M#0000</v>
       </c>
       <c r="G9" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -10661,7 +10085,7 @@
       </c>
       <c r="F10" s="299" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc2Y#0002</v>
+        <v>SekiborSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="G10" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -10683,7 +10107,7 @@
       </c>
       <c r="F11" s="299" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc3Y#0002</v>
+        <v>SekiborSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="G11" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -10705,7 +10129,7 @@
       </c>
       <c r="F12" s="299" t="str">
         <f>_xll.qlSwapIndex($E12,FixingType,C12,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc4Y#0002</v>
+        <v>SekiborSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="G12" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -10727,7 +10151,7 @@
       </c>
       <c r="F13" s="299" t="str">
         <f>_xll.qlSwapIndex($E13,FixingType,C13,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc5Y#0002</v>
+        <v>SekiborSwapForBasisCalc5Y#0000</v>
       </c>
       <c r="G13" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -10749,7 +10173,7 @@
       </c>
       <c r="F14" s="299" t="str">
         <f>_xll.qlSwapIndex($E14,FixingType,C14,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc6Y#0002</v>
+        <v>SekiborSwapForBasisCalc6Y#0000</v>
       </c>
       <c r="G14" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -10771,7 +10195,7 @@
       </c>
       <c r="F15" s="299" t="str">
         <f>_xll.qlSwapIndex($E15,FixingType,C15,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc7Y#0002</v>
+        <v>SekiborSwapForBasisCalc7Y#0000</v>
       </c>
       <c r="G15" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -10793,7 +10217,7 @@
       </c>
       <c r="F16" s="299" t="str">
         <f>_xll.qlSwapIndex($E16,FixingType,C16,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc8Y#0002</v>
+        <v>SekiborSwapForBasisCalc8Y#0000</v>
       </c>
       <c r="G16" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -10815,7 +10239,7 @@
       </c>
       <c r="F17" s="299" t="str">
         <f>_xll.qlSwapIndex($E17,FixingType,C17,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc9Y#0002</v>
+        <v>SekiborSwapForBasisCalc9Y#0000</v>
       </c>
       <c r="G17" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -10837,7 +10261,7 @@
       </c>
       <c r="F18" s="299" t="str">
         <f>_xll.qlSwapIndex($E18,FixingType,C18,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc10Y#0002</v>
+        <v>SekiborSwapForBasisCalc10Y#0000</v>
       </c>
       <c r="G18" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -10859,7 +10283,7 @@
       </c>
       <c r="F19" s="299" t="str">
         <f>_xll.qlSwapIndex($E19,FixingType,C19,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc11Y#0002</v>
+        <v>SekiborSwapForBasisCalc11Y#0000</v>
       </c>
       <c r="G19" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -10881,7 +10305,7 @@
       </c>
       <c r="F20" s="299" t="str">
         <f>_xll.qlSwapIndex($E20,FixingType,C20,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc12Y#0002</v>
+        <v>SekiborSwapForBasisCalc12Y#0000</v>
       </c>
       <c r="G20" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -10903,7 +10327,7 @@
       </c>
       <c r="F21" s="299" t="str">
         <f>_xll.qlSwapIndex($E21,FixingType,C21,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc13Y#0002</v>
+        <v>SekiborSwapForBasisCalc13Y#0000</v>
       </c>
       <c r="G21" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -10925,7 +10349,7 @@
       </c>
       <c r="F22" s="299" t="str">
         <f>_xll.qlSwapIndex($E22,FixingType,C22,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc14Y#0002</v>
+        <v>SekiborSwapForBasisCalc14Y#0000</v>
       </c>
       <c r="G22" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -10947,7 +10371,7 @@
       </c>
       <c r="F23" s="299" t="str">
         <f>_xll.qlSwapIndex($E23,FixingType,C23,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc15Y#0002</v>
+        <v>SekiborSwapForBasisCalc15Y#0000</v>
       </c>
       <c r="G23" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -10969,7 +10393,7 @@
       </c>
       <c r="F24" s="299" t="str">
         <f>_xll.qlSwapIndex($E24,FixingType,C24,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc16Y#0002</v>
+        <v>SekiborSwapForBasisCalc16Y#0000</v>
       </c>
       <c r="G24" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -10991,7 +10415,7 @@
       </c>
       <c r="F25" s="299" t="str">
         <f>_xll.qlSwapIndex($E25,FixingType,C25,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc17Y#0002</v>
+        <v>SekiborSwapForBasisCalc17Y#0000</v>
       </c>
       <c r="G25" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -11013,7 +10437,7 @@
       </c>
       <c r="F26" s="299" t="str">
         <f>_xll.qlSwapIndex($E26,FixingType,C26,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc18Y#0002</v>
+        <v>SekiborSwapForBasisCalc18Y#0000</v>
       </c>
       <c r="G26" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -11035,7 +10459,7 @@
       </c>
       <c r="F27" s="299" t="str">
         <f>_xll.qlSwapIndex($E27,FixingType,C27,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc19Y#0002</v>
+        <v>SekiborSwapForBasisCalc19Y#0000</v>
       </c>
       <c r="G27" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -11057,7 +10481,7 @@
       </c>
       <c r="F28" s="299" t="str">
         <f>_xll.qlSwapIndex($E28,FixingType,C28,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc20Y#0002</v>
+        <v>SekiborSwapForBasisCalc20Y#0000</v>
       </c>
       <c r="G28" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -11079,7 +10503,7 @@
       </c>
       <c r="F29" s="299" t="str">
         <f>_xll.qlSwapIndex($E29,FixingType,C29,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc21Y#0002</v>
+        <v>SekiborSwapForBasisCalc21Y#0000</v>
       </c>
       <c r="G29" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -11101,7 +10525,7 @@
       </c>
       <c r="F30" s="299" t="str">
         <f>_xll.qlSwapIndex($E30,FixingType,C30,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc22Y#0002</v>
+        <v>SekiborSwapForBasisCalc22Y#0000</v>
       </c>
       <c r="G30" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -11123,7 +10547,7 @@
       </c>
       <c r="F31" s="299" t="str">
         <f>_xll.qlSwapIndex($E31,FixingType,C31,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc23Y#0002</v>
+        <v>SekiborSwapForBasisCalc23Y#0000</v>
       </c>
       <c r="G31" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -11145,7 +10569,7 @@
       </c>
       <c r="F32" s="299" t="str">
         <f>_xll.qlSwapIndex($E32,FixingType,C32,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc24Y#0002</v>
+        <v>SekiborSwapForBasisCalc24Y#0000</v>
       </c>
       <c r="G32" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -11167,7 +10591,7 @@
       </c>
       <c r="F33" s="299" t="str">
         <f>_xll.qlSwapIndex($E33,FixingType,C33,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc25Y#0002</v>
+        <v>SekiborSwapForBasisCalc25Y#0000</v>
       </c>
       <c r="G33" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -11189,7 +10613,7 @@
       </c>
       <c r="F34" s="299" t="str">
         <f>_xll.qlSwapIndex($E34,FixingType,C34,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc26Y#0002</v>
+        <v>SekiborSwapForBasisCalc26Y#0000</v>
       </c>
       <c r="G34" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -11211,7 +10635,7 @@
       </c>
       <c r="F35" s="299" t="str">
         <f>_xll.qlSwapIndex($E35,FixingType,C35,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc27Y#0002</v>
+        <v>SekiborSwapForBasisCalc27Y#0000</v>
       </c>
       <c r="G35" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -11233,7 +10657,7 @@
       </c>
       <c r="F36" s="299" t="str">
         <f>_xll.qlSwapIndex($E36,FixingType,C36,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc28Y#0002</v>
+        <v>SekiborSwapForBasisCalc28Y#0000</v>
       </c>
       <c r="G36" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -11255,7 +10679,7 @@
       </c>
       <c r="F37" s="299" t="str">
         <f>_xll.qlSwapIndex($E37,FixingType,C37,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc29Y#0002</v>
+        <v>SekiborSwapForBasisCalc29Y#0000</v>
       </c>
       <c r="G37" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -11277,7 +10701,7 @@
       </c>
       <c r="F38" s="299" t="str">
         <f>_xll.qlSwapIndex($E38,FixingType,C38,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc30Y#0002</v>
+        <v>SekiborSwapForBasisCalc30Y#0000</v>
       </c>
       <c r="G38" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -11299,7 +10723,7 @@
       </c>
       <c r="F39" s="299" t="str">
         <f>_xll.qlSwapIndex($E39,FixingType,C39,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc35Y#0002</v>
+        <v>SekiborSwapForBasisCalc35Y#0000</v>
       </c>
       <c r="G39" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -11321,7 +10745,7 @@
       </c>
       <c r="F40" s="299" t="str">
         <f>_xll.qlSwapIndex($E40,FixingType,C40,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc40Y#0002</v>
+        <v>SekiborSwapForBasisCalc40Y#0000</v>
       </c>
       <c r="G40" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -11343,7 +10767,7 @@
       </c>
       <c r="F41" s="299" t="str">
         <f>_xll.qlSwapIndex($E41,FixingType,C41,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc50Y#0002</v>
+        <v>SekiborSwapForBasisCalc50Y#0000</v>
       </c>
       <c r="G41" s="300" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -11365,7 +10789,7 @@
       </c>
       <c r="F42" s="303" t="str">
         <f>_xll.qlSwapIndex($E42,FixingType,C42,2,Currency,Calendar,"3M","mf","30/360 (Bond Basis)",Stibor!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborSwapForBasisCalc60Y#0002</v>
+        <v>SekiborSwapForBasisCalc60Y#0000</v>
       </c>
       <c r="G42" s="304" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -11785,7 +11209,7 @@
       <c r="Q3" s="104"/>
       <c r="R3" s="103">
         <f>_xll.ohTrigger(R5:R21)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S3" s="72"/>
       <c r="T3" s="2"/>
@@ -11813,9 +11237,9 @@
       <c r="F4" s="72"/>
       <c r="H4" s="40"/>
       <c r="I4" s="100"/>
-      <c r="J4" s="79" t="str">
-        <f>_xll.RData(J5:J21,K4:L4,,ReutersRtMode,,K5)</f>
-        <v>Updated at 12:16:06</v>
+      <c r="J4" s="79" t="e">
+        <f ca="1">_xll.RData(J5:J21,K4:L4,,ReutersRtMode,,K5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="79" t="s">
         <v>115</v>
@@ -11856,7 +11280,7 @@
       </c>
       <c r="D5" s="31" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKTND_Quote#0001</v>
+        <v>SEKTND_Quote#0000</v>
       </c>
       <c r="E5" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -11890,9 +11314,9 @@
         <f t="array" ref="Q5:Q21">QuoteLive</f>
         <v>0.09</v>
       </c>
-      <c r="R5" s="93">
+      <c r="R5" s="93" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,Q5/100,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="S5" s="72"/>
       <c r="T5" s="2"/>
@@ -11913,7 +11337,7 @@
       </c>
       <c r="D6" s="31" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKSND_Quote#0001</v>
+        <v>SEKSND_Quote#0000</v>
       </c>
       <c r="E6" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -11928,10 +11352,10 @@
         <v>SEKSND=ICAP</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M6" s="85" t="e">
         <f>_xll.qlMidSafe(K6,L6)</f>
@@ -11945,9 +11369,9 @@
       <c r="Q6" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R6" s="81" t="e">
+      <c r="R6" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D6,Q6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="2"/>
@@ -11968,7 +11392,7 @@
       </c>
       <c r="D7" s="31" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKSWD_Quote#0001</v>
+        <v>SEKSWD_Quote#0000</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -12000,9 +11424,9 @@
       <c r="Q7" s="133">
         <v>0.09</v>
       </c>
-      <c r="R7" s="81">
+      <c r="R7" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,Q7/100,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="2"/>
@@ -12023,7 +11447,7 @@
       </c>
       <c r="D8" s="31" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK2WD_Quote#0001</v>
+        <v>SEK2WD_Quote#0000</v>
       </c>
       <c r="E8" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -12055,9 +11479,9 @@
       <c r="Q8" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R8" s="81" t="e">
+      <c r="R8" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="2"/>
@@ -12078,7 +11502,7 @@
       </c>
       <c r="D9" s="31" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3WD_Quote#0001</v>
+        <v>SEK3WD_Quote#0000</v>
       </c>
       <c r="E9" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -12093,10 +11517,10 @@
         <v>SEK3WD=ICAP</v>
       </c>
       <c r="K9" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M9" s="85" t="e">
         <f>_xll.qlMidSafe(K9,L9)</f>
@@ -12110,9 +11534,9 @@
       <c r="Q9" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R9" s="81" t="e">
+      <c r="R9" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="2"/>
@@ -12133,7 +11557,7 @@
       </c>
       <c r="D10" s="31" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK1MD_Quote#0001</v>
+        <v>SEK1MD_Quote#0000</v>
       </c>
       <c r="E10" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -12165,9 +11589,9 @@
       <c r="Q10" s="133">
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="R10" s="81">
+      <c r="R10" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>6.9999999999999988E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="2"/>
@@ -12188,7 +11612,7 @@
       </c>
       <c r="D11" s="31" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK2MD_Quote#0001</v>
+        <v>SEK2MD_Quote#0000</v>
       </c>
       <c r="E11" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -12220,9 +11644,9 @@
       <c r="Q11" s="133">
         <v>0.11</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="2"/>
@@ -12243,7 +11667,7 @@
       </c>
       <c r="D12" s="31" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3MD_Quote#0001</v>
+        <v>SEK3MD_Quote#0000</v>
       </c>
       <c r="E12" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -12275,9 +11699,9 @@
       <c r="Q12" s="133">
         <v>0.16000000000000003</v>
       </c>
-      <c r="R12" s="81">
+      <c r="R12" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
-        <v>1.6000000000000003E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="2"/>
@@ -12298,7 +11722,7 @@
       </c>
       <c r="D13" s="31" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK4MD_Quote#0001</v>
+        <v>SEK4MD_Quote#0000</v>
       </c>
       <c r="E13" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -12313,10 +11737,10 @@
         <v>SEK4MD=ICAP</v>
       </c>
       <c r="K13" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L13" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M13" s="85" t="e">
         <f>_xll.qlMidSafe(K13,L13)</f>
@@ -12330,9 +11754,9 @@
       <c r="Q13" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R13" s="81" t="e">
+      <c r="R13" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S13" s="72"/>
       <c r="T13" s="2"/>
@@ -12353,7 +11777,7 @@
       </c>
       <c r="D14" s="31" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK5MD_Quote#0001</v>
+        <v>SEK5MD_Quote#0000</v>
       </c>
       <c r="E14" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -12368,10 +11792,10 @@
         <v>SEK5MD=ICAP</v>
       </c>
       <c r="K14" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M14" s="85" t="e">
         <f>_xll.qlMidSafe(K14,L14)</f>
@@ -12385,9 +11809,9 @@
       <c r="Q14" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R14" s="81" t="e">
+      <c r="R14" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S14" s="72"/>
       <c r="T14" s="2"/>
@@ -12408,7 +11832,7 @@
       </c>
       <c r="D15" s="31" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK6MD_Quote#0001</v>
+        <v>SEK6MD_Quote#0000</v>
       </c>
       <c r="E15" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -12440,9 +11864,9 @@
       <c r="Q15" s="133">
         <v>0.22999999999999998</v>
       </c>
-      <c r="R15" s="81">
+      <c r="R15" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
-        <v>2.3E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="S15" s="72"/>
       <c r="T15" s="2"/>
@@ -12463,7 +11887,7 @@
       </c>
       <c r="D16" s="31" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK7MD_Quote#0001</v>
+        <v>SEK7MD_Quote#0000</v>
       </c>
       <c r="E16" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -12478,10 +11902,10 @@
         <v>SEK7MD=ICAP</v>
       </c>
       <c r="K16" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L16" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M16" s="85" t="e">
         <f>_xll.qlMidSafe(K16,L16)</f>
@@ -12495,9 +11919,9 @@
       <c r="Q16" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R16" s="81" t="e">
+      <c r="R16" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S16" s="72"/>
       <c r="T16" s="2"/>
@@ -12518,7 +11942,7 @@
       </c>
       <c r="D17" s="31" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK8MD_Quote#0001</v>
+        <v>SEK8MD_Quote#0000</v>
       </c>
       <c r="E17" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -12533,10 +11957,10 @@
         <v>SEK8MD=ICAP</v>
       </c>
       <c r="K17" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M17" s="85" t="e">
         <f>_xll.qlMidSafe(K17,L17)</f>
@@ -12550,9 +11974,9 @@
       <c r="Q17" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R17" s="81" t="e">
+      <c r="R17" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S17" s="72"/>
       <c r="T17" s="2"/>
@@ -12573,7 +11997,7 @@
       </c>
       <c r="D18" s="31" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK9MD_Quote#0001</v>
+        <v>SEK9MD_Quote#0000</v>
       </c>
       <c r="E18" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -12605,9 +12029,9 @@
       <c r="Q18" s="133">
         <v>0.32</v>
       </c>
-      <c r="R18" s="81">
+      <c r="R18" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
-        <v>3.2000000000000002E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="S18" s="72"/>
       <c r="T18" s="2"/>
@@ -12628,7 +12052,7 @@
       </c>
       <c r="D19" s="31" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK10MD_Quote#0001</v>
+        <v>SEK10MD_Quote#0000</v>
       </c>
       <c r="E19" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -12643,10 +12067,10 @@
         <v>SEK10MD=ICAP</v>
       </c>
       <c r="K19" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L19" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M19" s="85" t="e">
         <f>_xll.qlMidSafe(K19,L19)</f>
@@ -12660,9 +12084,9 @@
       <c r="Q19" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R19" s="81" t="e">
+      <c r="R19" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S19" s="72"/>
       <c r="T19" s="2"/>
@@ -12683,7 +12107,7 @@
       </c>
       <c r="D20" s="31" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK11MD_Quote#0001</v>
+        <v>SEK11MD_Quote#0000</v>
       </c>
       <c r="E20" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -12698,10 +12122,10 @@
         <v>SEK11MD=ICAP</v>
       </c>
       <c r="K20" s="115" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L20" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M20" s="85" t="e">
         <f>_xll.qlMidSafe(K20,L20)</f>
@@ -12715,9 +12139,9 @@
       <c r="Q20" s="133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R20" s="81" t="e">
+      <c r="R20" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S20" s="72"/>
       <c r="T20" s="2"/>
@@ -12738,7 +12162,7 @@
       </c>
       <c r="D21" s="31" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK1YD_Quote#0001</v>
+        <v>SEK1YD_Quote#0000</v>
       </c>
       <c r="E21" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -12770,9 +12194,9 @@
       <c r="Q21" s="126">
         <v>0.36</v>
       </c>
-      <c r="R21" s="88">
+      <c r="R21" s="88" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>3.5999999999999999E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="S21" s="72"/>
       <c r="T21" s="2"/>
@@ -13024,7 +12448,7 @@
       <c r="V3" s="43"/>
       <c r="W3" s="103">
         <f>_xll.ohTrigger(W5:W19)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="X3" s="72"/>
       <c r="Y3" s="2"/>
@@ -13048,9 +12472,9 @@
       <c r="J4" s="218"/>
       <c r="K4" s="65"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="216" t="str">
-        <f>_xll.RData(M5:M19,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 12:16:15</v>
+      <c r="M4" s="216" t="e">
+        <f ca="1">_xll.RData(M5:M19,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="101" t="s">
         <v>115</v>
@@ -13085,7 +12509,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="310" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="311">
         <v>1</v>
@@ -13145,9 +12569,9 @@
         <f t="array" ref="V5:V19">QuoteLive</f>
         <v>0.23500000000000001</v>
       </c>
-      <c r="W5" s="93">
+      <c r="W5" s="93" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X5" s="72"/>
       <c r="Y5" s="2"/>
@@ -13156,7 +12580,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="313">
         <v>2</v>
@@ -13214,9 +12638,9 @@
       <c r="V6" s="133">
         <v>0.215</v>
       </c>
-      <c r="W6" s="81">
+      <c r="W6" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,V6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X6" s="72"/>
       <c r="Y6" s="2"/>
@@ -13225,7 +12649,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="313">
         <v>3</v>
@@ -13283,9 +12707,9 @@
       <c r="V7" s="133">
         <v>0.215</v>
       </c>
-      <c r="W7" s="81">
+      <c r="W7" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,V7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X7" s="72"/>
       <c r="Y7" s="2"/>
@@ -13294,7 +12718,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" s="313">
         <v>4</v>
@@ -13352,9 +12776,9 @@
       <c r="V8" s="133">
         <v>0.22500000000000001</v>
       </c>
-      <c r="W8" s="81">
+      <c r="W8" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X8" s="72"/>
       <c r="Y8" s="2"/>
@@ -13363,7 +12787,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="313">
         <v>5</v>
@@ -13421,9 +12845,9 @@
       <c r="V9" s="133">
         <v>0.255</v>
       </c>
-      <c r="W9" s="81">
+      <c r="W9" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="72"/>
       <c r="Y9" s="2"/>
@@ -13432,7 +12856,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" s="313">
         <v>6</v>
@@ -13490,9 +12914,9 @@
       <c r="V10" s="133">
         <v>0.29000000000000004</v>
       </c>
-      <c r="W10" s="81">
+      <c r="W10" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="72"/>
       <c r="Y10" s="2"/>
@@ -13501,7 +12925,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="313">
         <v>7</v>
@@ -13559,9 +12983,9 @@
       <c r="V11" s="133">
         <v>0.33499999999999996</v>
       </c>
-      <c r="W11" s="81">
+      <c r="W11" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="2"/>
@@ -13570,7 +12994,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="313">
         <v>8</v>
@@ -13628,9 +13052,9 @@
       <c r="V12" s="133">
         <v>0.39</v>
       </c>
-      <c r="W12" s="81">
+      <c r="W12" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="2"/>
@@ -13639,7 +13063,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13" s="313">
         <v>9</v>
@@ -13697,9 +13121,9 @@
       <c r="V13" s="133">
         <v>0.48499999999999999</v>
       </c>
-      <c r="W13" s="81">
+      <c r="W13" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="72"/>
       <c r="Y13" s="2"/>
@@ -13708,7 +13132,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C14" s="313">
         <v>10</v>
@@ -13766,9 +13190,9 @@
       <c r="V14" s="133">
         <v>0.55899999999999994</v>
       </c>
-      <c r="W14" s="81">
+      <c r="W14" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,V14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" s="72"/>
       <c r="Y14" s="2"/>
@@ -13777,7 +13201,7 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C15" s="313">
         <v>11</v>
@@ -13835,9 +13259,9 @@
       <c r="V15" s="133">
         <v>0.629</v>
       </c>
-      <c r="W15" s="81">
+      <c r="W15" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" s="72"/>
       <c r="Y15" s="2"/>
@@ -13846,7 +13270,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" s="313">
         <v>12</v>
@@ -13904,9 +13328,9 @@
       <c r="V16" s="133">
         <v>0.69799999999999995</v>
       </c>
-      <c r="W16" s="81">
+      <c r="W16" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" s="72"/>
       <c r="Y16" s="2"/>
@@ -13915,7 +13339,7 @@
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" s="313">
         <v>13</v>
@@ -13950,16 +13374,16 @@
         <v>SEK3F13=</v>
       </c>
       <c r="N17" s="330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O17" s="330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P17" s="328" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R17" s="330" t="e">
         <f>_xll.qlMidSafe($N17,$O17)</f>
@@ -13984,7 +13408,7 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="313">
         <v>14</v>
@@ -14019,16 +13443,16 @@
         <v>SEK3F14=</v>
       </c>
       <c r="N18" s="330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O18" s="330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P18" s="328" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R18" s="330" t="e">
         <f>_xll.qlMidSafe($N18,$O18)</f>
@@ -14053,7 +13477,7 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="316" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" s="16">
         <v>15</v>
@@ -14088,16 +13512,16 @@
         <v>SEK3F15=</v>
       </c>
       <c r="N19" s="333" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O19" s="333" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P19" s="331" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="333" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R19" s="333" t="e">
         <f>_xll.qlMidSafe($N19,$O19)</f>
@@ -14330,7 +13754,7 @@
       <c r="AA3" s="43"/>
       <c r="AB3" s="103">
         <f>_xll.ohTrigger(AB5:AB46)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="146"/>
       <c r="AD3" s="2"/>
@@ -14387,9 +13811,9 @@
       <c r="N4" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="152" t="str">
-        <f>_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:52:05</v>
+      <c r="O4" s="152" t="e">
+        <f ca="1">_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="149" t="s">
         <v>134</v>
@@ -14410,10 +13834,10 @@
         <v>132</v>
       </c>
       <c r="V4" s="122" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="W4" s="102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="X4" s="83"/>
       <c r="Y4" s="150" t="s">
@@ -14497,34 +13921,34 @@
         <v>SE3MFF5</v>
       </c>
       <c r="P5" s="142" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U5" s="94" t="e">
         <f>_xll.qlMidSafe($Q5,$R5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V5" s="262" t="str">
-        <f>_xll.RtGet("IDN",O5,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W5" s="267" t="str">
-        <f>_xll.RtGet("IDN",O5,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V5" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O5,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W5" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O5,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X5" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y5" s="141">
         <v>97.335000000000008</v>
@@ -14606,34 +14030,34 @@
         <v>SE3MFG5</v>
       </c>
       <c r="P6" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U6" s="82" t="e">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V6" s="262" t="str">
-        <f>_xll.RtGet("IDN",O6,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W6" s="267" t="str">
-        <f>_xll.RtGet("IDN",O6,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V6" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O6,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W6" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O6,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X6" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y6" s="139" t="e">
         <v>#NUM!</v>
@@ -14713,34 +14137,34 @@
         <v>SE3MFH5</v>
       </c>
       <c r="P7" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T7" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U7" s="82" t="e">
         <f>_xll.qlMidSafe($Q7,$R7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V7" s="262" t="str">
-        <f>_xll.RtGet("IDN",O7,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W7" s="267" t="str">
-        <f>_xll.RtGet("IDN",O7,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V7" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O7,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W7" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O7,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X7" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y7" s="139" t="e">
         <v>#NUM!</v>
@@ -14820,34 +14244,34 @@
         <v>SE3MFJ5</v>
       </c>
       <c r="P8" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U8" s="82" t="e">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V8" s="262" t="str">
-        <f>_xll.RtGet("IDN",O8,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W8" s="267" t="str">
-        <f>_xll.RtGet("IDN",O8,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V8" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O8,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W8" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O8,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X8" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y8" s="139">
         <v>97.35499999999999</v>
@@ -14928,34 +14352,34 @@
         <v>SE3MFK5</v>
       </c>
       <c r="P9" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U9" s="82" t="e">
         <f>_xll.qlMidSafe($Q9,$R9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V9" s="262" t="str">
-        <f>_xll.RtGet("IDN",O9,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W9" s="267" t="str">
-        <f>_xll.RtGet("IDN",O9,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V9" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O9,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W9" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O9,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X9" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y9" s="134" t="e">
         <v>#NUM!</v>
@@ -15035,34 +14459,34 @@
         <v>SE3MFM5</v>
       </c>
       <c r="P10" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R10" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S10" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T10" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U10" s="82" t="e">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V10" s="262" t="str">
-        <f>_xll.RtGet("IDN",O10,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W10" s="267" t="str">
-        <f>_xll.RtGet("IDN",O10,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V10" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O10,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W10" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O10,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X10" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y10" s="134" t="e">
         <v>#NUM!</v>
@@ -15142,34 +14566,34 @@
         <v>SE3MFN5</v>
       </c>
       <c r="P11" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U11" s="82" t="e">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V11" s="262" t="str">
-        <f>_xll.RtGet("IDN",O11,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W11" s="267" t="str">
-        <f>_xll.RtGet("IDN",O11,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V11" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O11,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W11" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O11,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X11" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y11" s="134">
         <v>97.314999999999998</v>
@@ -15249,34 +14673,34 @@
         <v>SE3MFQ5</v>
       </c>
       <c r="P12" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U12" s="82" t="e">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V12" s="262" t="str">
-        <f>_xll.RtGet("IDN",O12,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W12" s="267" t="str">
-        <f>_xll.RtGet("IDN",O12,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V12" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O12,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W12" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O12,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X12" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y12" s="134" t="e">
         <v>#NUM!</v>
@@ -15356,34 +14780,34 @@
         <v>SE3MFU5</v>
       </c>
       <c r="P13" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R13" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S13" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T13" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U13" s="82" t="e">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V13" s="262" t="str">
-        <f>_xll.RtGet("IDN",O13,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W13" s="267" t="str">
-        <f>_xll.RtGet("IDN",O13,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V13" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O13,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W13" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O13,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X13" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y13" s="134" t="e">
         <v>#NUM!</v>
@@ -15463,34 +14887,34 @@
         <v>SE3MFV5</v>
       </c>
       <c r="P14" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U14" s="82" t="e">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V14" s="262" t="str">
-        <f>_xll.RtGet("IDN",O14,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W14" s="267" t="str">
-        <f>_xll.RtGet("IDN",O14,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V14" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O14,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W14" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O14,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X14" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y14" s="134">
         <v>97.265000000000001</v>
@@ -15570,34 +14994,34 @@
         <v>SE3MFX5</v>
       </c>
       <c r="P15" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U15" s="82" t="e">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V15" s="262" t="str">
-        <f>_xll.RtGet("IDN",O15,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W15" s="267" t="str">
-        <f>_xll.RtGet("IDN",O15,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V15" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O15,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W15" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O15,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X15" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y15" s="134" t="e">
         <v>#NUM!</v>
@@ -15677,34 +15101,34 @@
         <v>SE3MFZ5</v>
       </c>
       <c r="P16" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S16" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T16" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U16" s="82" t="e">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V16" s="262" t="str">
-        <f>_xll.RtGet("IDN",O16,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W16" s="267" t="str">
-        <f>_xll.RtGet("IDN",O16,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V16" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O16,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W16" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O16,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X16" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y16" s="134" t="e">
         <v>#NUM!</v>
@@ -15784,34 +15208,34 @@
         <v>SE3MFH6</v>
       </c>
       <c r="P17" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R17" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S17" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T17" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U17" s="82" t="e">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V17" s="262" t="str">
-        <f>_xll.RtGet("IDN",O17,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W17" s="267" t="str">
-        <f>_xll.RtGet("IDN",O17,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V17" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O17,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W17" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O17,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X17" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y17" s="134">
         <v>97.164999999999992</v>
@@ -15891,34 +15315,34 @@
         <v>SE3MFM6</v>
       </c>
       <c r="P18" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q18" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R18" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S18" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T18" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U18" s="82" t="e">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V18" s="262" t="str">
-        <f>_xll.RtGet("IDN",O18,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W18" s="267" t="str">
-        <f>_xll.RtGet("IDN",O18,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V18" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O18,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W18" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O18,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X18" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y18" s="134">
         <v>97.055000000000007</v>
@@ -15998,34 +15422,34 @@
         <v>SE3MFU6</v>
       </c>
       <c r="P19" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S19" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T19" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U19" s="82" t="e">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V19" s="262" t="str">
-        <f>_xll.RtGet("IDN",O19,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W19" s="267" t="str">
-        <f>_xll.RtGet("IDN",O19,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V19" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O19,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W19" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O19,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X19" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y19" s="134">
         <v>96.954999999999998</v>
@@ -16105,34 +15529,34 @@
         <v>SE3MFZ6</v>
       </c>
       <c r="P20" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S20" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T20" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U20" s="82" t="e">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V20" s="262" t="str">
-        <f>_xll.RtGet("IDN",O20,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W20" s="267" t="str">
-        <f>_xll.RtGet("IDN",O20,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V20" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O20,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W20" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O20,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X20" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y20" s="134">
         <v>96.85</v>
@@ -16212,34 +15636,34 @@
         <v>SE3MFH7</v>
       </c>
       <c r="P21" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q21" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S21" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T21" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U21" s="82" t="e">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V21" s="262" t="str">
-        <f>_xll.RtGet("IDN",O21,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W21" s="267" t="str">
-        <f>_xll.RtGet("IDN",O21,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V21" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O21,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W21" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O21,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X21" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y21" s="134">
         <v>96.759999999999991</v>
@@ -16319,34 +15743,34 @@
         <v>SE3MFM7</v>
       </c>
       <c r="P22" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R22" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S22" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T22" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U22" s="82" t="e">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V22" s="262" t="str">
-        <f>_xll.RtGet("IDN",O22,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W22" s="267" t="str">
-        <f>_xll.RtGet("IDN",O22,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V22" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O22,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W22" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O22,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X22" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y22" s="134">
         <v>96.67</v>
@@ -16426,34 +15850,34 @@
         <v>SE3MFU7</v>
       </c>
       <c r="P23" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R23" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S23" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T23" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U23" s="82" t="e">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V23" s="262" t="str">
-        <f>_xll.RtGet("IDN",O23,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W23" s="267" t="str">
-        <f>_xll.RtGet("IDN",O23,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V23" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O23,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W23" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O23,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X23" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y23" s="134">
         <v>96.57</v>
@@ -16533,34 +15957,34 @@
         <v>SE3MFZ7</v>
       </c>
       <c r="P24" s="135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q24" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R24" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S24" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T24" s="82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U24" s="82" t="e">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V24" s="262" t="str">
-        <f>_xll.RtGet("IDN",O24,"TRDVOL_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
-      </c>
-      <c r="W24" s="267" t="str">
-        <f>_xll.RtGet("IDN",O24,"OPINT_1")</f>
-        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      <c r="V24" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O24,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W24" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O24,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X24" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y24" s="134">
         <v>96.47</v>
@@ -16640,34 +16064,34 @@
         <v>SE3MFH8</v>
       </c>
       <c r="P25" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U25" s="82" t="e">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V25" s="262" t="str">
-        <f>_xll.RtGet("IDN",O25,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W25" s="267" t="str">
-        <f>_xll.RtGet("IDN",O25,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V25" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O25,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W25" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O25,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X25" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y25" s="134">
         <v>96.385000000000005</v>
@@ -16747,34 +16171,34 @@
         <v>SE3MFM8</v>
       </c>
       <c r="P26" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U26" s="82" t="e">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V26" s="262" t="str">
-        <f>_xll.RtGet("IDN",O26,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W26" s="267" t="str">
-        <f>_xll.RtGet("IDN",O26,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V26" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O26,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W26" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O26,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X26" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y26" s="134">
         <v>96.3</v>
@@ -16854,34 +16278,34 @@
         <v>SE3MFU8</v>
       </c>
       <c r="P27" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U27" s="82" t="e">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V27" s="262" t="str">
-        <f>_xll.RtGet("IDN",O27,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W27" s="267" t="str">
-        <f>_xll.RtGet("IDN",O27,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V27" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O27,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W27" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O27,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X27" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y27" s="134" t="e">
         <v>#NUM!</v>
@@ -16961,34 +16385,34 @@
         <v>SE3MFZ8</v>
       </c>
       <c r="P28" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U28" s="82" t="e">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V28" s="262" t="str">
-        <f>_xll.RtGet("IDN",O28,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W28" s="267" t="str">
-        <f>_xll.RtGet("IDN",O28,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V28" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O28,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W28" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O28,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X28" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y28" s="134" t="e">
         <v>#NUM!</v>
@@ -17068,34 +16492,34 @@
         <v>SE3MFH9</v>
       </c>
       <c r="P29" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U29" s="82" t="e">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V29" s="262" t="str">
-        <f>_xll.RtGet("IDN",O29,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W29" s="267" t="str">
-        <f>_xll.RtGet("IDN",O29,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V29" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O29,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W29" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O29,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X29" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y29" s="134" t="e">
         <v>#NUM!</v>
@@ -17175,34 +16599,34 @@
         <v>SE3MFM9</v>
       </c>
       <c r="P30" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U30" s="82" t="e">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V30" s="262" t="str">
-        <f>_xll.RtGet("IDN",O30,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W30" s="267" t="str">
-        <f>_xll.RtGet("IDN",O30,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V30" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O30,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W30" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O30,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X30" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y30" s="134" t="e">
         <v>#NUM!</v>
@@ -17282,34 +16706,34 @@
         <v>SE3MFU9</v>
       </c>
       <c r="P31" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U31" s="82" t="e">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V31" s="262" t="str">
-        <f>_xll.RtGet("IDN",O31,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W31" s="267" t="str">
-        <f>_xll.RtGet("IDN",O31,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V31" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O31,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W31" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O31,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X31" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y31" s="134" t="e">
         <v>#NUM!</v>
@@ -17389,34 +16813,34 @@
         <v>SE3MFZ9</v>
       </c>
       <c r="P32" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U32" s="82" t="e">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V32" s="262" t="str">
-        <f>_xll.RtGet("IDN",O32,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W32" s="267" t="str">
-        <f>_xll.RtGet("IDN",O32,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V32" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O32,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W32" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O32,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X32" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y32" s="134" t="e">
         <v>#NUM!</v>
@@ -17496,31 +16920,31 @@
         <v>SE3MFH0</v>
       </c>
       <c r="P33" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U33" s="82" t="e">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V33" s="262" t="str">
-        <f>_xll.RtGet("IDN",O33,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W33" s="267" t="str">
-        <f>_xll.RtGet("IDN",O33,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V33" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O33,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W33" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O33,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X33" s="83"/>
       <c r="Y33" s="134" t="e">
@@ -17601,34 +17025,34 @@
         <v>SE3MFM0</v>
       </c>
       <c r="P34" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U34" s="82" t="e">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V34" s="262" t="str">
-        <f>_xll.RtGet("IDN",O34,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W34" s="267" t="str">
-        <f>_xll.RtGet("IDN",O34,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V34" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O34,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W34" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O34,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X34" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y34" s="134" t="e">
         <v>#NUM!</v>
@@ -17708,34 +17132,34 @@
         <v>SE3MFU0</v>
       </c>
       <c r="P35" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U35" s="82" t="e">
         <f>_xll.qlMidSafe($Q35,$R35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V35" s="262" t="str">
-        <f>_xll.RtGet("IDN",O35,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W35" s="267" t="str">
-        <f>_xll.RtGet("IDN",O35,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V35" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O35,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W35" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O35,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X35" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y35" s="134" t="e">
         <v>#NUM!</v>
@@ -17815,34 +17239,34 @@
         <v>SE3MFZ0</v>
       </c>
       <c r="P36" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U36" s="82" t="e">
         <f>_xll.qlMidSafe($Q36,$R36)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V36" s="262" t="str">
-        <f>_xll.RtGet("IDN",O36,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W36" s="267" t="str">
-        <f>_xll.RtGet("IDN",O36,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V36" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O36,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W36" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O36,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X36" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y36" s="134" t="e">
         <v>#NUM!</v>
@@ -17922,34 +17346,34 @@
         <v>SE3MFH1</v>
       </c>
       <c r="P37" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U37" s="82" t="e">
         <f>_xll.qlMidSafe($Q37,$R37)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V37" s="262" t="str">
-        <f>_xll.RtGet("IDN",O37,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W37" s="267" t="str">
-        <f>_xll.RtGet("IDN",O37,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V37" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O37,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W37" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O37,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X37" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y37" s="134" t="e">
         <v>#NUM!</v>
@@ -18029,34 +17453,34 @@
         <v>SE3MFM1</v>
       </c>
       <c r="P38" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U38" s="82" t="e">
         <f>_xll.qlMidSafe($Q38,$R38)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V38" s="262" t="str">
-        <f>_xll.RtGet("IDN",O38,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W38" s="267" t="str">
-        <f>_xll.RtGet("IDN",O38,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V38" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O38,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W38" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O38,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X38" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y38" s="134" t="e">
         <v>#NUM!</v>
@@ -18136,34 +17560,34 @@
         <v>SE3MFU1</v>
       </c>
       <c r="P39" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U39" s="82" t="e">
         <f>_xll.qlMidSafe($Q39,$R39)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V39" s="262" t="str">
-        <f>_xll.RtGet("IDN",O39,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W39" s="267" t="str">
-        <f>_xll.RtGet("IDN",O39,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V39" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O39,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W39" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O39,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X39" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y39" s="134" t="e">
         <v>#NUM!</v>
@@ -18243,34 +17667,34 @@
         <v>SE3MFZ1</v>
       </c>
       <c r="P40" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U40" s="82" t="e">
         <f>_xll.qlMidSafe($Q40,$R40)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V40" s="262" t="str">
-        <f>_xll.RtGet("IDN",O40,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W40" s="267" t="str">
-        <f>_xll.RtGet("IDN",O40,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V40" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O40,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W40" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O40,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X40" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y40" s="134" t="e">
         <v>#NUM!</v>
@@ -18350,34 +17774,34 @@
         <v>SE3MFH2</v>
       </c>
       <c r="P41" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U41" s="82" t="e">
         <f>_xll.qlMidSafe($Q41,$R41)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V41" s="262" t="str">
-        <f>_xll.RtGet("IDN",O41,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W41" s="267" t="str">
-        <f>_xll.RtGet("IDN",O41,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V41" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O41,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W41" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O41,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y41" s="134" t="e">
         <v>#NUM!</v>
@@ -18457,34 +17881,34 @@
         <v>SE3MFM2</v>
       </c>
       <c r="P42" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U42" s="82" t="e">
         <f>_xll.qlMidSafe($Q42,$R42)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V42" s="262" t="str">
-        <f>_xll.RtGet("IDN",O42,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W42" s="267" t="str">
-        <f>_xll.RtGet("IDN",O42,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V42" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O42,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W42" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O42,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X42" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y42" s="134" t="e">
         <v>#NUM!</v>
@@ -18564,34 +17988,34 @@
         <v>SE3MFU2</v>
       </c>
       <c r="P43" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q43" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R43" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S43" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T43" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U43" s="82" t="e">
         <f>_xll.qlMidSafe($Q43,$R43)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V43" s="262" t="str">
-        <f>_xll.RtGet("IDN",O43,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W43" s="267" t="str">
-        <f>_xll.RtGet("IDN",O43,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V43" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O43,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W43" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O43,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X43" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y43" s="134" t="e">
         <v>#NUM!</v>
@@ -18671,34 +18095,34 @@
         <v>SE3MFZ2</v>
       </c>
       <c r="P44" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q44" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R44" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S44" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T44" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U44" s="82" t="e">
         <f>_xll.qlMidSafe($Q44,$R44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V44" s="262" t="str">
-        <f>_xll.RtGet("IDN",O44,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W44" s="267" t="str">
-        <f>_xll.RtGet("IDN",O44,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V44" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O44,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W44" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O44,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X44" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y44" s="134" t="e">
         <v>#NUM!</v>
@@ -18778,34 +18202,34 @@
         <v>SE3MFH3</v>
       </c>
       <c r="P45" s="135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q45" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R45" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S45" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T45" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U45" s="82" t="e">
         <f>_xll.qlMidSafe($Q45,$R45)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V45" s="262" t="str">
-        <f>_xll.RtGet("IDN",O45,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W45" s="267" t="str">
-        <f>_xll.RtGet("IDN",O45,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V45" s="262" t="e">
+        <f ca="1">_xll.RtGet("IDN",O45,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W45" s="267" t="e">
+        <f ca="1">_xll.RtGet("IDN",O45,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X45" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y45" s="134" t="e">
         <v>#NUM!</v>
@@ -18885,34 +18309,34 @@
         <v>SE3MFM3</v>
       </c>
       <c r="P46" s="128" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q46" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R46" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S46" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T46" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U46" s="89" t="e">
         <f>_xll.qlMidSafe($Q46,$R46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V46" s="265" t="str">
-        <f>_xll.RtGet("IDN",O46,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W46" s="268" t="str">
-        <f>_xll.RtGet("IDN",O46,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+      <c r="V46" s="265" t="e">
+        <f ca="1">_xll.RtGet("IDN",O46,"TRDVOL_1")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W46" s="268" t="e">
+        <f ca="1">_xll.RtGet("IDN",O46,"OPINT_1")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X46" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y46" s="127" t="e">
         <v>#NUM!</v>
@@ -18975,7 +18399,7 @@
       <c r="V47" s="263"/>
       <c r="W47" s="69"/>
       <c r="X47" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
@@ -19122,7 +18546,7 @@
       <c r="W3" s="43"/>
       <c r="X3" s="103">
         <f>_xll.ohTrigger(X5:X58)</f>
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="72"/>
     </row>
@@ -19130,7 +18554,7 @@
       <c r="A4" s="40"/>
       <c r="B4" s="24"/>
       <c r="C4" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="172" t="str">
         <f>Currency&amp;"_010_"&amp;"OIS.xml"</f>
@@ -19150,9 +18574,9 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
-      <c r="N4" s="152" t="str">
-        <f>_xll.RData(N5:N58,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 12:08:56</v>
+      <c r="N4" s="152" t="e">
+        <f ca="1">_xll.RData(N5:N58,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="149" t="s">
         <v>115</v>
@@ -19196,7 +18620,7 @@
       </c>
       <c r="E5" s="73" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOISSW_Quote#0002</v>
+        <v>SEKOISSW_Quote#0000</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -19208,10 +18632,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="120" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L5" s="120" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M5" s="118" t="str">
         <f t="shared" ref="M5:M36" si="1">Currency&amp;K5&amp;L5&amp;J5</f>
@@ -19222,16 +18646,16 @@
         <v>SEKAMTNSSW=</v>
       </c>
       <c r="O5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R5" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S5" s="96" t="e">
         <f>_xll.qlMidEquivalent($O5,$P5,$Q5,$R5)</f>
@@ -19266,7 +18690,7 @@
       </c>
       <c r="E6" s="73" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2W_Quote#0002</v>
+        <v>SEKOIS2W_Quote#0000</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -19278,10 +18702,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L6" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M6" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19291,16 +18715,16 @@
         <v>SEKAMTNS2W=</v>
       </c>
       <c r="O6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R6" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S6" s="85" t="e">
         <f>_xll.qlMidEquivalent($O6,$P6,$Q6,$R6)</f>
@@ -19334,7 +18758,7 @@
       </c>
       <c r="E7" s="73" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3W_Quote#0002</v>
+        <v>SEKOIS3W_Quote#0000</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -19346,10 +18770,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L7" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M7" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19359,16 +18783,16 @@
         <v>SEKAMTNS3W=</v>
       </c>
       <c r="O7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S7" s="85" t="e">
         <f>_xll.qlMidEquivalent($O7,$P7,$Q7,$R7)</f>
@@ -19402,7 +18826,7 @@
       </c>
       <c r="E8" s="73" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS1M_Quote#0002</v>
+        <v>SEKOIS1M_Quote#0000</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -19414,10 +18838,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L8" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M8" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19450,9 +18874,9 @@
       <c r="W8" s="133">
         <v>7.9999999999999988E-2</v>
       </c>
-      <c r="X8" s="81">
+      <c r="X8" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="72"/>
       <c r="AA8"/>
@@ -19471,7 +18895,7 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2M_Quote#0002</v>
+        <v>SEKOIS2M_Quote#0000</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -19483,10 +18907,10 @@
         <v>18</v>
       </c>
       <c r="K9" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L9" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M9" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19519,9 +18943,9 @@
       <c r="W9" s="133">
         <v>7.8E-2</v>
       </c>
-      <c r="X9" s="81">
+      <c r="X9" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="72"/>
     </row>
@@ -19539,7 +18963,7 @@
       </c>
       <c r="E10" s="73" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3M_Quote#0002</v>
+        <v>SEKOIS3M_Quote#0000</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -19551,10 +18975,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M10" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19587,9 +19011,9 @@
       <c r="W10" s="133">
         <v>7.3000000000000009E-2</v>
       </c>
-      <c r="X10" s="81">
+      <c r="X10" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="72"/>
     </row>
@@ -19607,7 +19031,7 @@
       </c>
       <c r="E11" s="73" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS4M_Quote#0002</v>
+        <v>SEKOIS4M_Quote#0000</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -19619,10 +19043,10 @@
         <v>16</v>
       </c>
       <c r="K11" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L11" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M11" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19632,16 +19056,16 @@
         <v>SEKAMTNS4M=</v>
       </c>
       <c r="O11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R11" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S11" s="85" t="e">
         <f>_xll.qlMidEquivalent($O11,$P11,$Q11,$R11)</f>
@@ -19675,7 +19099,7 @@
       </c>
       <c r="E12" s="73" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS5M_Quote#0002</v>
+        <v>SEKOIS5M_Quote#0000</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -19687,10 +19111,10 @@
         <v>15</v>
       </c>
       <c r="K12" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L12" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M12" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19700,16 +19124,16 @@
         <v>SEKAMTNS5M=</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S12" s="85" t="e">
         <f>_xll.qlMidEquivalent($O12,$P12,$Q12,$R12)</f>
@@ -19743,7 +19167,7 @@
       </c>
       <c r="E13" s="73" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS6M_Quote#0002</v>
+        <v>SEKOIS6M_Quote#0000</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -19755,10 +19179,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L13" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M13" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19791,9 +19215,9 @@
       <c r="W13" s="133">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="X13" s="81">
+      <c r="X13" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="72"/>
     </row>
@@ -19811,7 +19235,7 @@
       </c>
       <c r="E14" s="73" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS7M_Quote#0002</v>
+        <v>SEKOIS7M_Quote#0000</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -19823,10 +19247,10 @@
         <v>13</v>
       </c>
       <c r="K14" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L14" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M14" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19836,16 +19260,16 @@
         <v>SEKAMTNS7M=</v>
       </c>
       <c r="O14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R14" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S14" s="85" t="e">
         <f>_xll.qlMidEquivalent($O14,$P14,$Q14,$R14)</f>
@@ -19880,7 +19304,7 @@
       </c>
       <c r="E15" s="73" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS8M_Quote#0002</v>
+        <v>SEKOIS8M_Quote#0000</v>
       </c>
       <c r="F15" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -19892,10 +19316,10 @@
         <v>12</v>
       </c>
       <c r="K15" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L15" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M15" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19905,16 +19329,16 @@
         <v>SEKAMTNS8M=</v>
       </c>
       <c r="O15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R15" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S15" s="85" t="e">
         <f>_xll.qlMidEquivalent($O15,$P15,$Q15,$R15)</f>
@@ -19948,7 +19372,7 @@
       </c>
       <c r="E16" s="73" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS9M_Quote#0002</v>
+        <v>SEKOIS9M_Quote#0000</v>
       </c>
       <c r="F16" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -19960,10 +19384,10 @@
         <v>11</v>
       </c>
       <c r="K16" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L16" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M16" s="114" t="str">
         <f t="shared" si="1"/>
@@ -19996,9 +19420,9 @@
       <c r="W16" s="133">
         <v>0.06</v>
       </c>
-      <c r="X16" s="81">
+      <c r="X16" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="72"/>
       <c r="AB16"/>
@@ -20017,7 +19441,7 @@
       </c>
       <c r="E17" s="73" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS10M_Quote#0002</v>
+        <v>SEKOIS10M_Quote#0000</v>
       </c>
       <c r="F17" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -20029,10 +19453,10 @@
         <v>10</v>
       </c>
       <c r="K17" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L17" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M17" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20042,16 +19466,16 @@
         <v>SEKAMTNS10M=</v>
       </c>
       <c r="O17" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P17" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R17" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S17" s="85" t="e">
         <f>_xll.qlMidEquivalent($O17,$P17,$Q17,$R17)</f>
@@ -20085,7 +19509,7 @@
       </c>
       <c r="E18" s="73" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS11M_Quote#0002</v>
+        <v>SEKOIS11M_Quote#0000</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -20097,10 +19521,10 @@
         <v>9</v>
       </c>
       <c r="K18" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L18" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20110,16 +19534,16 @@
         <v>SEKAMTNS11M=</v>
       </c>
       <c r="O18" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P18" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R18" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S18" s="85" t="e">
         <f>_xll.qlMidEquivalent($O18,$P18,$Q18,$R18)</f>
@@ -20153,7 +19577,7 @@
       </c>
       <c r="E19" s="73" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS1Y_Quote#0002</v>
+        <v>SEKOIS1Y_Quote#0000</v>
       </c>
       <c r="F19" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -20165,10 +19589,10 @@
         <v>8</v>
       </c>
       <c r="K19" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L19" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M19" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20201,9 +19625,9 @@
       <c r="W19" s="133">
         <v>3.95E-2</v>
       </c>
-      <c r="X19" s="81">
+      <c r="X19" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E19,W19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y19" s="72"/>
     </row>
@@ -20221,7 +19645,7 @@
       </c>
       <c r="E20" s="73" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS13M_Quote#0002</v>
+        <v>SEKOIS13M_Quote#0000</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -20233,10 +19657,10 @@
         <v>110</v>
       </c>
       <c r="K20" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L20" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M20" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20246,16 +19670,16 @@
         <v>SEKAMTNS13M=</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S20" s="85" t="e">
         <f>_xll.qlMidEquivalent($O20,$P20,$Q20,$R20)</f>
@@ -20289,7 +19713,7 @@
       </c>
       <c r="E21" s="73" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS14M_Quote#0002</v>
+        <v>SEKOIS14M_Quote#0000</v>
       </c>
       <c r="F21" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -20301,10 +19725,10 @@
         <v>109</v>
       </c>
       <c r="K21" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L21" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M21" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20314,16 +19738,16 @@
         <v>SEKAMTNS14M=</v>
       </c>
       <c r="O21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S21" s="85" t="e">
         <f>_xll.qlMidEquivalent($O21,$P21,$Q21,$R21)</f>
@@ -20357,7 +19781,7 @@
       </c>
       <c r="E22" s="73" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS15M_Quote#0002</v>
+        <v>SEKOIS15M_Quote#0000</v>
       </c>
       <c r="F22" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -20369,10 +19793,10 @@
         <v>65</v>
       </c>
       <c r="K22" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L22" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M22" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20382,16 +19806,16 @@
         <v>SEKAMTNS15M=</v>
       </c>
       <c r="O22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S22" s="85" t="e">
         <f>_xll.qlMidEquivalent($O22,$P22,$Q22,$R22)</f>
@@ -20425,7 +19849,7 @@
       </c>
       <c r="E23" s="73" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS16M_Quote#0002</v>
+        <v>SEKOIS16M_Quote#0000</v>
       </c>
       <c r="F23" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -20437,10 +19861,10 @@
         <v>108</v>
       </c>
       <c r="K23" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L23" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M23" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20450,16 +19874,16 @@
         <v>SEKAMTNS16M=</v>
       </c>
       <c r="O23" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P23" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R23" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S23" s="85" t="e">
         <f>_xll.qlMidEquivalent($O23,$P23,$Q23,$R23)</f>
@@ -20493,7 +19917,7 @@
       </c>
       <c r="E24" s="73" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS17M_Quote#0002</v>
+        <v>SEKOIS17M_Quote#0000</v>
       </c>
       <c r="F24" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -20505,10 +19929,10 @@
         <v>107</v>
       </c>
       <c r="K24" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L24" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M24" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20518,16 +19942,16 @@
         <v>SEKAMTNS17M=</v>
       </c>
       <c r="O24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S24" s="85" t="e">
         <f>_xll.qlMidEquivalent($O24,$P24,$Q24,$R24)</f>
@@ -20561,7 +19985,7 @@
       </c>
       <c r="E25" s="73" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS18M_Quote#0002</v>
+        <v>SEKOIS18M_Quote#0000</v>
       </c>
       <c r="F25" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -20573,10 +19997,10 @@
         <v>64</v>
       </c>
       <c r="K25" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L25" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M25" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20586,16 +20010,16 @@
         <v>SEKAMTNS18M=</v>
       </c>
       <c r="O25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S25" s="85" t="e">
         <f>_xll.qlMidEquivalent($O25,$P25,$Q25,$R25)</f>
@@ -20629,7 +20053,7 @@
       </c>
       <c r="E26" s="73" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS19M_Quote#0002</v>
+        <v>SEKOIS19M_Quote#0000</v>
       </c>
       <c r="F26" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -20641,10 +20065,10 @@
         <v>106</v>
       </c>
       <c r="K26" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L26" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M26" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20654,16 +20078,16 @@
         <v>SEKAMTNS19M=</v>
       </c>
       <c r="O26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S26" s="85" t="e">
         <f>_xll.qlMidEquivalent($O26,$P26,$Q26,$R26)</f>
@@ -20698,7 +20122,7 @@
       </c>
       <c r="E27" s="73" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS20M_Quote#0002</v>
+        <v>SEKOIS20M_Quote#0000</v>
       </c>
       <c r="F27" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -20710,10 +20134,10 @@
         <v>105</v>
       </c>
       <c r="K27" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L27" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M27" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20723,16 +20147,16 @@
         <v>SEKAMTNS20M=</v>
       </c>
       <c r="O27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S27" s="85" t="e">
         <f>_xll.qlMidEquivalent($O27,$P27,$Q27,$R27)</f>
@@ -20766,7 +20190,7 @@
       </c>
       <c r="E28" s="73" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS21M_Quote#0002</v>
+        <v>SEKOIS21M_Quote#0000</v>
       </c>
       <c r="F28" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -20778,10 +20202,10 @@
         <v>63</v>
       </c>
       <c r="K28" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L28" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M28" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20791,16 +20215,16 @@
         <v>SEKAMTNS21M=</v>
       </c>
       <c r="O28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R28" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S28" s="85" t="e">
         <f>_xll.qlMidEquivalent($O28,$P28,$Q28,$R28)</f>
@@ -20834,7 +20258,7 @@
       </c>
       <c r="E29" s="73" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS22M_Quote#0002</v>
+        <v>SEKOIS22M_Quote#0000</v>
       </c>
       <c r="F29" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -20846,10 +20270,10 @@
         <v>104</v>
       </c>
       <c r="K29" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L29" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M29" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20859,16 +20283,16 @@
         <v>SEKAMTNS22M=</v>
       </c>
       <c r="O29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S29" s="85" t="e">
         <f>_xll.qlMidEquivalent($O29,$P29,$Q29,$R29)</f>
@@ -20902,7 +20326,7 @@
       </c>
       <c r="E30" s="73" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS23M_Quote#0002</v>
+        <v>SEKOIS23M_Quote#0000</v>
       </c>
       <c r="F30" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -20914,10 +20338,10 @@
         <v>103</v>
       </c>
       <c r="K30" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L30" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M30" s="114" t="str">
         <f t="shared" si="1"/>
@@ -20927,16 +20351,16 @@
         <v>SEKAMTNS23M=</v>
       </c>
       <c r="O30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S30" s="85" t="e">
         <f>_xll.qlMidEquivalent($O30,$P30,$Q30,$R30)</f>
@@ -20970,7 +20394,7 @@
       </c>
       <c r="E31" s="73" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS2Y_Quote#0002</v>
+        <v>SEKOIS2Y_Quote#0000</v>
       </c>
       <c r="F31" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -20982,10 +20406,10 @@
         <v>58</v>
       </c>
       <c r="K31" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L31" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M31" s="114" t="str">
         <f t="shared" si="1"/>
@@ -21018,9 +20442,9 @@
       <c r="W31" s="133">
         <v>0.05</v>
       </c>
-      <c r="X31" s="81">
+      <c r="X31" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E31,W31/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y31" s="72"/>
     </row>
@@ -21038,7 +20462,7 @@
       </c>
       <c r="E32" s="73" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS27M_Quote#0002</v>
+        <v>SEKOIS27M_Quote#0000</v>
       </c>
       <c r="F32" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -21050,10 +20474,10 @@
         <v>102</v>
       </c>
       <c r="K32" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L32" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M32" s="114" t="str">
         <f t="shared" si="1"/>
@@ -21063,16 +20487,16 @@
         <v>SEKAMTNS27M=</v>
       </c>
       <c r="O32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S32" s="85" t="e">
         <f>_xll.qlMidEquivalent($O32,$P32,$Q32,$R32)</f>
@@ -21106,7 +20530,7 @@
       </c>
       <c r="E33" s="73" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS30M_Quote#0002</v>
+        <v>SEKOIS30M_Quote#0000</v>
       </c>
       <c r="F33" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -21118,10 +20542,10 @@
         <v>101</v>
       </c>
       <c r="K33" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L33" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M33" s="114" t="str">
         <f t="shared" si="1"/>
@@ -21131,16 +20555,16 @@
         <v>SEKAMTNS30M=</v>
       </c>
       <c r="O33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S33" s="85" t="e">
         <f>_xll.qlMidEquivalent($O33,$P33,$Q33,$R33)</f>
@@ -21174,7 +20598,7 @@
       </c>
       <c r="E34" s="73" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS33M_Quote#0002</v>
+        <v>SEKOIS33M_Quote#0000</v>
       </c>
       <c r="F34" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -21186,10 +20610,10 @@
         <v>100</v>
       </c>
       <c r="K34" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L34" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M34" s="114" t="str">
         <f t="shared" si="1"/>
@@ -21199,16 +20623,16 @@
         <v>SEKAMTNS33M=</v>
       </c>
       <c r="O34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S34" s="85" t="e">
         <f>_xll.qlMidEquivalent($O34,$P34,$Q34,$R34)</f>
@@ -21242,7 +20666,7 @@
       </c>
       <c r="E35" s="73" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS3Y_Quote#0002</v>
+        <v>SEKOIS3Y_Quote#0000</v>
       </c>
       <c r="F35" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -21254,10 +20678,10 @@
         <v>57</v>
       </c>
       <c r="K35" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L35" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" s="114" t="str">
         <f t="shared" si="1"/>
@@ -21290,9 +20714,9 @@
       <c r="W35" s="133">
         <v>0.13500000000000001</v>
       </c>
-      <c r="X35" s="81">
+      <c r="X35" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E35,W35/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y35" s="72"/>
     </row>
@@ -21310,7 +20734,7 @@
       </c>
       <c r="E36" s="73" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS39M_Quote#0002</v>
+        <v>SEKOIS39M_Quote#0000</v>
       </c>
       <c r="F36" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -21322,10 +20746,10 @@
         <v>99</v>
       </c>
       <c r="K36" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L36" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M36" s="114" t="str">
         <f t="shared" si="1"/>
@@ -21335,16 +20759,16 @@
         <v>SEKAMTNS39M=</v>
       </c>
       <c r="O36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S36" s="85" t="e">
         <f>_xll.qlMidEquivalent($O36,$P36,$Q36,$R36)</f>
@@ -21378,7 +20802,7 @@
       </c>
       <c r="E37" s="73" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS42M_Quote#0002</v>
+        <v>SEKOIS42M_Quote#0000</v>
       </c>
       <c r="F37" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -21390,10 +20814,10 @@
         <v>98</v>
       </c>
       <c r="K37" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L37" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M37" s="114" t="str">
         <f t="shared" ref="M37:M58" si="3">Currency&amp;K37&amp;L37&amp;J37</f>
@@ -21403,16 +20827,16 @@
         <v>SEKAMTNS42M=</v>
       </c>
       <c r="O37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S37" s="85" t="e">
         <f>_xll.qlMidEquivalent($O37,$P37,$Q37,$R37)</f>
@@ -21446,7 +20870,7 @@
       </c>
       <c r="E38" s="73" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS45M_Quote#0002</v>
+        <v>SEKOIS45M_Quote#0000</v>
       </c>
       <c r="F38" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -21458,10 +20882,10 @@
         <v>97</v>
       </c>
       <c r="K38" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L38" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M38" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21471,16 +20895,16 @@
         <v>SEKAMTNS45M=</v>
       </c>
       <c r="O38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R38" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S38" s="85" t="e">
         <f>_xll.qlMidEquivalent($O38,$P38,$Q38,$R38)</f>
@@ -21514,7 +20938,7 @@
       </c>
       <c r="E39" s="73" t="str">
         <f>_xll.qlSimpleQuote(D39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS4Y_Quote#0002</v>
+        <v>SEKOIS4Y_Quote#0000</v>
       </c>
       <c r="F39" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -21526,10 +20950,10 @@
         <v>56</v>
       </c>
       <c r="K39" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L39" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M39" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21562,9 +20986,9 @@
       <c r="W39" s="133">
         <v>0.255</v>
       </c>
-      <c r="X39" s="81">
+      <c r="X39" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E39,W39/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y39" s="72"/>
     </row>
@@ -21582,7 +21006,7 @@
       </c>
       <c r="E40" s="73" t="str">
         <f>_xll.qlSimpleQuote(D40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS51M_Quote#0002</v>
+        <v>SEKOIS51M_Quote#0000</v>
       </c>
       <c r="F40" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -21594,10 +21018,10 @@
         <v>96</v>
       </c>
       <c r="K40" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L40" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M40" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21607,16 +21031,16 @@
         <v>SEKAMTNS51M=</v>
       </c>
       <c r="O40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S40" s="85" t="e">
         <f>_xll.qlMidEquivalent($O40,$P40,$Q40,$R40)</f>
@@ -21650,7 +21074,7 @@
       </c>
       <c r="E41" s="73" t="str">
         <f>_xll.qlSimpleQuote(D41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS54M_Quote#0002</v>
+        <v>SEKOIS54M_Quote#0000</v>
       </c>
       <c r="F41" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -21662,10 +21086,10 @@
         <v>95</v>
       </c>
       <c r="K41" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L41" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M41" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21675,16 +21099,16 @@
         <v>SEKAMTNS54M=</v>
       </c>
       <c r="O41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S41" s="85" t="e">
         <f>_xll.qlMidEquivalent($O41,$P41,$Q41,$R41)</f>
@@ -21718,7 +21142,7 @@
       </c>
       <c r="E42" s="73" t="str">
         <f>_xll.qlSimpleQuote(D42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS57M_Quote#0002</v>
+        <v>SEKOIS57M_Quote#0000</v>
       </c>
       <c r="F42" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -21730,10 +21154,10 @@
         <v>94</v>
       </c>
       <c r="K42" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L42" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M42" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21743,16 +21167,16 @@
         <v>SEKAMTNS57M=</v>
       </c>
       <c r="O42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R42" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S42" s="85" t="e">
         <f>_xll.qlMidEquivalent($O42,$P42,$Q42,$R42)</f>
@@ -21786,7 +21210,7 @@
       </c>
       <c r="E43" s="73" t="str">
         <f>_xll.qlSimpleQuote(D43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS5Y_Quote#0002</v>
+        <v>SEKOIS5Y_Quote#0000</v>
       </c>
       <c r="F43" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -21798,10 +21222,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L43" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M43" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21834,9 +21258,9 @@
       <c r="W43" s="133">
         <v>0.4</v>
       </c>
-      <c r="X43" s="81">
+      <c r="X43" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E43,W43/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y43" s="72"/>
     </row>
@@ -21854,7 +21278,7 @@
       </c>
       <c r="E44" s="73" t="str">
         <f>_xll.qlSimpleQuote(D44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS6Y_Quote#0002</v>
+        <v>SEKOIS6Y_Quote#0000</v>
       </c>
       <c r="F44" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E44)</f>
@@ -21866,10 +21290,10 @@
         <v>54</v>
       </c>
       <c r="K44" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L44" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M44" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21902,9 +21326,9 @@
       <c r="W44" s="133">
         <v>0.52899999999999991</v>
       </c>
-      <c r="X44" s="81">
+      <c r="X44" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E44,W44/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y44" s="72"/>
     </row>
@@ -21922,7 +21346,7 @@
       </c>
       <c r="E45" s="73" t="str">
         <f>_xll.qlSimpleQuote(D45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS7Y_Quote#0002</v>
+        <v>SEKOIS7Y_Quote#0000</v>
       </c>
       <c r="F45" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E45)</f>
@@ -21934,10 +21358,10 @@
         <v>53</v>
       </c>
       <c r="K45" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L45" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M45" s="114" t="str">
         <f t="shared" si="3"/>
@@ -21970,9 +21394,9 @@
       <c r="W45" s="133">
         <v>0.66599999999999993</v>
       </c>
-      <c r="X45" s="81">
+      <c r="X45" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E45,W45/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y45" s="72"/>
     </row>
@@ -21990,7 +21414,7 @@
       </c>
       <c r="E46" s="73" t="str">
         <f>_xll.qlSimpleQuote(D46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS8Y_Quote#0002</v>
+        <v>SEKOIS8Y_Quote#0000</v>
       </c>
       <c r="F46" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E46)</f>
@@ -22002,10 +21426,10 @@
         <v>52</v>
       </c>
       <c r="K46" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L46" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M46" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22038,9 +21462,9 @@
       <c r="W46" s="133">
         <v>0.79</v>
       </c>
-      <c r="X46" s="81">
+      <c r="X46" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E46,W46/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y46" s="72"/>
     </row>
@@ -22058,7 +21482,7 @@
       </c>
       <c r="E47" s="73" t="str">
         <f>_xll.qlSimpleQuote(D47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS9Y_Quote#0002</v>
+        <v>SEKOIS9Y_Quote#0000</v>
       </c>
       <c r="F47" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E47)</f>
@@ -22070,10 +21494,10 @@
         <v>51</v>
       </c>
       <c r="K47" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L47" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M47" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22106,9 +21530,9 @@
       <c r="W47" s="133">
         <v>0.89800000000000013</v>
       </c>
-      <c r="X47" s="81">
+      <c r="X47" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E47,W47/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y47" s="72"/>
     </row>
@@ -22126,7 +21550,7 @@
       </c>
       <c r="E48" s="73" t="str">
         <f>_xll.qlSimpleQuote(D48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS10Y_Quote#0002</v>
+        <v>SEKOIS10Y_Quote#0000</v>
       </c>
       <c r="F48" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E48)</f>
@@ -22138,10 +21562,10 @@
         <v>50</v>
       </c>
       <c r="K48" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L48" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M48" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22174,9 +21598,9 @@
       <c r="W48" s="133">
         <v>0.99399999999999999</v>
       </c>
-      <c r="X48" s="81">
+      <c r="X48" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E48,W48/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y48" s="72"/>
     </row>
@@ -22194,7 +21618,7 @@
       </c>
       <c r="E49" s="73" t="str">
         <f>_xll.qlSimpleQuote(D49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS12Y_Quote#0002</v>
+        <v>SEKOIS12Y_Quote#0000</v>
       </c>
       <c r="F49" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E49)</f>
@@ -22206,10 +21630,10 @@
         <v>48</v>
       </c>
       <c r="K49" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L49" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M49" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22242,9 +21666,9 @@
       <c r="W49" s="133">
         <v>1.155</v>
       </c>
-      <c r="X49" s="81">
+      <c r="X49" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E49,W49/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y49" s="72"/>
     </row>
@@ -22262,7 +21686,7 @@
       </c>
       <c r="E50" s="73" t="str">
         <f>_xll.qlSimpleQuote(D50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS15Y_Quote#0002</v>
+        <v>SEKOIS15Y_Quote#0000</v>
       </c>
       <c r="F50" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E50)</f>
@@ -22274,10 +21698,10 @@
         <v>45</v>
       </c>
       <c r="K50" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L50" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M50" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22310,9 +21734,9 @@
       <c r="W50" s="133">
         <v>1.3975</v>
       </c>
-      <c r="X50" s="81">
+      <c r="X50" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E50,W50/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y50" s="72"/>
     </row>
@@ -22330,7 +21754,7 @@
       </c>
       <c r="E51" s="73" t="str">
         <f>_xll.qlSimpleQuote(D51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS20Y_Quote#0002</v>
+        <v>SEKOIS20Y_Quote#0000</v>
       </c>
       <c r="F51" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E51)</f>
@@ -22342,10 +21766,10 @@
         <v>40</v>
       </c>
       <c r="K51" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L51" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M51" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22378,9 +21802,9 @@
       <c r="W51" s="133">
         <v>1.5874999999999999</v>
       </c>
-      <c r="X51" s="81">
+      <c r="X51" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E51,W51/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y51" s="72"/>
     </row>
@@ -22398,7 +21822,7 @@
       </c>
       <c r="E52" s="73" t="str">
         <f>_xll.qlSimpleQuote(D52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS25Y_Quote#0002</v>
+        <v>SEKOIS25Y_Quote#0000</v>
       </c>
       <c r="F52" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E52)</f>
@@ -22410,10 +21834,10 @@
         <v>35</v>
       </c>
       <c r="K52" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L52" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M52" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22446,9 +21870,9 @@
       <c r="W52" s="133">
         <v>1.6525000000000001</v>
       </c>
-      <c r="X52" s="81">
+      <c r="X52" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E52,W52/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y52" s="72"/>
     </row>
@@ -22466,7 +21890,7 @@
       </c>
       <c r="E53" s="73" t="str">
         <f>_xll.qlSimpleQuote(D53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS27Y_Quote#0002</v>
+        <v>SEKOIS27Y_Quote#0000</v>
       </c>
       <c r="F53" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E53)</f>
@@ -22478,10 +21902,10 @@
         <v>33</v>
       </c>
       <c r="K53" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L53" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M53" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22491,16 +21915,16 @@
         <v>SEKAMTNS27Y=</v>
       </c>
       <c r="O53" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P53" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q53" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R53" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S53" s="85" t="e">
         <f>_xll.qlMidEquivalent($O53,$P53,$Q53,$R53)</f>
@@ -22534,7 +21958,7 @@
       </c>
       <c r="E54" s="73" t="str">
         <f>_xll.qlSimpleQuote(D54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS30Y_Quote#0002</v>
+        <v>SEKOIS30Y_Quote#0000</v>
       </c>
       <c r="F54" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E54)</f>
@@ -22546,10 +21970,10 @@
         <v>30</v>
       </c>
       <c r="K54" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L54" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M54" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22582,9 +22006,9 @@
       <c r="W54" s="133">
         <v>1.66</v>
       </c>
-      <c r="X54" s="81">
+      <c r="X54" s="81" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E54,W54/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y54" s="72"/>
     </row>
@@ -22602,7 +22026,7 @@
       </c>
       <c r="E55" s="73" t="str">
         <f>_xll.qlSimpleQuote(D55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS35Y_Quote#0002</v>
+        <v>SEKOIS35Y_Quote#0000</v>
       </c>
       <c r="F55" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E55)</f>
@@ -22614,10 +22038,10 @@
         <v>29</v>
       </c>
       <c r="K55" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L55" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M55" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22627,16 +22051,16 @@
         <v>SEKAMTNS35Y=</v>
       </c>
       <c r="O55" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P55" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q55" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R55" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S55" s="85" t="e">
         <f>_xll.qlMidEquivalent($O55,$P55,$Q55,$R55)</f>
@@ -22670,7 +22094,7 @@
       </c>
       <c r="E56" s="73" t="str">
         <f>_xll.qlSimpleQuote(D56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS40Y_Quote#0002</v>
+        <v>SEKOIS40Y_Quote#0000</v>
       </c>
       <c r="F56" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E56)</f>
@@ -22682,10 +22106,10 @@
         <v>28</v>
       </c>
       <c r="K56" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L56" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M56" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22695,16 +22119,16 @@
         <v>SEKAMTNS40Y=</v>
       </c>
       <c r="O56" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P56" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q56" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R56" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S56" s="85" t="e">
         <f>_xll.qlMidEquivalent($O56,$P56,$Q56,$R56)</f>
@@ -22738,7 +22162,7 @@
       </c>
       <c r="E57" s="73" t="str">
         <f>_xll.qlSimpleQuote(D57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS45Y_Quote#0002</v>
+        <v>SEKOIS45Y_Quote#0000</v>
       </c>
       <c r="F57" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E57)</f>
@@ -22750,10 +22174,10 @@
         <v>27</v>
       </c>
       <c r="K57" s="116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L57" s="116" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M57" s="114" t="str">
         <f t="shared" si="3"/>
@@ -22763,16 +22187,16 @@
         <v>SEKAMTNS45Y=</v>
       </c>
       <c r="O57" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P57" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q57" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R57" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S57" s="85" t="e">
         <f>_xll.qlMidEquivalent($O57,$P57,$Q57,$R57)</f>
@@ -22806,7 +22230,7 @@
       </c>
       <c r="E58" s="73" t="str">
         <f>_xll.qlSimpleQuote(D58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKOIS50Y_Quote#0002</v>
+        <v>SEKOIS50Y_Quote#0000</v>
       </c>
       <c r="F58" s="8" t="str">
         <f>_xll.ohRangeRetrieveError(E58)</f>
@@ -22818,10 +22242,10 @@
         <v>26</v>
       </c>
       <c r="K58" s="112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L58" s="112" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M58" s="111" t="str">
         <f t="shared" si="3"/>
@@ -22831,16 +22255,16 @@
         <v>SEKAMTNS50Y=</v>
       </c>
       <c r="O58" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P58" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q58" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R58" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S58" s="91" t="e">
         <f>_xll.qlMidEquivalent($O58,$P58,$Q58,$R58)</f>
@@ -23147,7 +22571,7 @@
       <c r="Y3" s="43"/>
       <c r="Z3" s="103">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="72"/>
       <c r="AB3" s="2"/>
@@ -23182,9 +22606,9 @@
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
       <c r="O4" s="65"/>
-      <c r="P4" s="216" t="str">
-        <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 12:12:47</v>
+      <c r="P4" s="216" t="e">
+        <f ca="1">_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q4" s="122" t="s">
         <v>115</v>
@@ -23226,10 +22650,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E5" s="16" t="str">
         <f t="shared" ref="E5:E42" si="0">Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix</f>
@@ -23249,10 +22673,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N5" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O5" s="114" t="str">
         <f t="shared" ref="O5:O42" si="1">Currency&amp;$M5&amp;$N5&amp;$L5</f>
@@ -23263,16 +22687,16 @@
         <v>SEKAB3S6M=ICAP</v>
       </c>
       <c r="Q5" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R5" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S5" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T5" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U5" s="85" t="e">
         <f>_xll.qlMidSafe($Q5,$R5)</f>
@@ -23305,10 +22729,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23328,10 +22752,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N6" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O6" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23382,10 +22806,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23405,10 +22829,10 @@
         <v>65</v>
       </c>
       <c r="M7" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N7" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O7" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23418,16 +22842,16 @@
         <v>SEKAB3S15M=ICAP</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T7" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U7" s="85" t="e">
         <f>_xll.qlMidSafe($Q7,$R7)</f>
@@ -23459,10 +22883,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23482,10 +22906,10 @@
         <v>64</v>
       </c>
       <c r="M8" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N8" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O8" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23495,16 +22919,16 @@
         <v>SEKAB3S18M=ICAP</v>
       </c>
       <c r="Q8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T8" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U8" s="85" t="e">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
@@ -23536,10 +22960,10 @@
         <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23559,10 +22983,10 @@
         <v>63</v>
       </c>
       <c r="M9" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N9" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O9" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23572,16 +22996,16 @@
         <v>SEKAB3S21M=ICAP</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T9" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U9" s="85" t="e">
         <f>_xll.qlMidSafe($Q9,$R9)</f>
@@ -23613,10 +23037,10 @@
         <v>58</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23636,10 +23060,10 @@
         <v>58</v>
       </c>
       <c r="M10" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N10" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O10" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23690,10 +23114,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23713,10 +23137,10 @@
         <v>57</v>
       </c>
       <c r="M11" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N11" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O11" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23767,10 +23191,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23790,10 +23214,10 @@
         <v>56</v>
       </c>
       <c r="M12" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N12" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O12" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23844,10 +23268,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23867,10 +23291,10 @@
         <v>55</v>
       </c>
       <c r="M13" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N13" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O13" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23921,10 +23345,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -23944,10 +23368,10 @@
         <v>54</v>
       </c>
       <c r="M14" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N14" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O14" s="114" t="str">
         <f t="shared" si="1"/>
@@ -23998,10 +23422,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24021,10 +23445,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N15" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O15" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24075,10 +23499,10 @@
         <v>52</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E16" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24098,10 +23522,10 @@
         <v>52</v>
       </c>
       <c r="M16" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N16" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O16" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24152,10 +23576,10 @@
         <v>51</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E17" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24175,10 +23599,10 @@
         <v>51</v>
       </c>
       <c r="M17" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N17" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O17" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24229,10 +23653,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24252,10 +23676,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N18" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O18" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24306,10 +23730,10 @@
         <v>49</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E19" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24329,10 +23753,10 @@
         <v>49</v>
       </c>
       <c r="M19" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N19" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O19" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24342,16 +23766,16 @@
         <v>SEKAB3S11Y=ICAP</v>
       </c>
       <c r="Q19" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S19" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T19" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U19" s="85" t="e">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
@@ -24383,10 +23807,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E20" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24406,10 +23830,10 @@
         <v>48</v>
       </c>
       <c r="M20" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N20" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O20" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24460,10 +23884,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E21" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24483,10 +23907,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N21" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O21" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24496,16 +23920,16 @@
         <v>SEKAB3S13Y=ICAP</v>
       </c>
       <c r="Q21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T21" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U21" s="85" t="e">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
@@ -24537,10 +23961,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E22" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24560,10 +23984,10 @@
         <v>46</v>
       </c>
       <c r="M22" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N22" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O22" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24573,16 +23997,16 @@
         <v>SEKAB3S14Y=ICAP</v>
       </c>
       <c r="Q22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T22" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U22" s="85" t="e">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
@@ -24614,10 +24038,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E23" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24637,10 +24061,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N23" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O23" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24691,10 +24115,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E24" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24714,10 +24138,10 @@
         <v>44</v>
       </c>
       <c r="M24" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N24" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O24" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24727,16 +24151,16 @@
         <v>SEKAB3S16Y=ICAP</v>
       </c>
       <c r="Q24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T24" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U24" s="85" t="e">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
@@ -24768,10 +24192,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E25" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24791,10 +24215,10 @@
         <v>43</v>
       </c>
       <c r="M25" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N25" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O25" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24804,16 +24228,16 @@
         <v>SEKAB3S17Y=ICAP</v>
       </c>
       <c r="Q25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T25" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U25" s="85" t="e">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
@@ -24845,10 +24269,10 @@
         <v>42</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E26" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24868,10 +24292,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N26" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O26" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24881,16 +24305,16 @@
         <v>SEKAB3S18Y=ICAP</v>
       </c>
       <c r="Q26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T26" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U26" s="85" t="e">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
@@ -24922,10 +24346,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E27" s="16" t="str">
         <f t="shared" si="0"/>
@@ -24945,10 +24369,10 @@
         <v>41</v>
       </c>
       <c r="M27" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N27" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O27" s="114" t="str">
         <f t="shared" si="1"/>
@@ -24958,16 +24382,16 @@
         <v>SEKAB3S19Y=ICAP</v>
       </c>
       <c r="Q27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T27" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U27" s="85" t="e">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
@@ -24999,10 +24423,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25022,10 +24446,10 @@
         <v>40</v>
       </c>
       <c r="M28" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N28" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O28" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25076,10 +24500,10 @@
         <v>39</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25099,10 +24523,10 @@
         <v>39</v>
       </c>
       <c r="M29" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N29" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O29" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25112,16 +24536,16 @@
         <v>SEKAB3S21Y=ICAP</v>
       </c>
       <c r="Q29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T29" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U29" s="85" t="e">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
@@ -25153,10 +24577,10 @@
         <v>38</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E30" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25176,10 +24600,10 @@
         <v>38</v>
       </c>
       <c r="M30" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N30" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O30" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25189,16 +24613,16 @@
         <v>SEKAB3S22Y=ICAP</v>
       </c>
       <c r="Q30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T30" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U30" s="85" t="e">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
@@ -25230,10 +24654,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E31" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25253,10 +24677,10 @@
         <v>37</v>
       </c>
       <c r="M31" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N31" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O31" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25266,16 +24690,16 @@
         <v>SEKAB3S23Y=ICAP</v>
       </c>
       <c r="Q31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T31" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U31" s="85" t="e">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
@@ -25307,10 +24731,10 @@
         <v>36</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E32" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25330,10 +24754,10 @@
         <v>36</v>
       </c>
       <c r="M32" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N32" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O32" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25343,16 +24767,16 @@
         <v>SEKAB3S24Y=ICAP</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T32" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U32" s="85" t="e">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
@@ -25384,10 +24808,10 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E33" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25407,10 +24831,10 @@
         <v>35</v>
       </c>
       <c r="M33" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N33" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O33" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25461,10 +24885,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25484,10 +24908,10 @@
         <v>34</v>
       </c>
       <c r="M34" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N34" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O34" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25497,16 +24921,16 @@
         <v>SEKAB3S26Y=ICAP</v>
       </c>
       <c r="Q34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T34" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U34" s="85" t="e">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
@@ -25538,10 +24962,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25561,10 +24985,10 @@
         <v>33</v>
       </c>
       <c r="M35" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N35" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O35" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25574,16 +24998,16 @@
         <v>SEKAB3S27Y=ICAP</v>
       </c>
       <c r="Q35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T35" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U35" s="85" t="e">
         <f>_xll.qlMidSafe($Q35,$R35)</f>
@@ -25615,10 +25039,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E36" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25638,10 +25062,10 @@
         <v>32</v>
       </c>
       <c r="M36" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N36" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O36" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25651,16 +25075,16 @@
         <v>SEKAB3S28Y=ICAP</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T36" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U36" s="85" t="e">
         <f>_xll.qlMidSafe($Q36,$R36)</f>
@@ -25692,10 +25116,10 @@
         <v>31</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E37" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25715,10 +25139,10 @@
         <v>31</v>
       </c>
       <c r="M37" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N37" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O37" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25728,16 +25152,16 @@
         <v>SEKAB3S29Y=ICAP</v>
       </c>
       <c r="Q37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T37" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U37" s="85" t="e">
         <f>_xll.qlMidSafe($Q37,$R37)</f>
@@ -25769,10 +25193,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E38" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25792,10 +25216,10 @@
         <v>30</v>
       </c>
       <c r="M38" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N38" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O38" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25846,10 +25270,10 @@
         <v>29</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25869,10 +25293,10 @@
         <v>29</v>
       </c>
       <c r="M39" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N39" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O39" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25882,16 +25306,16 @@
         <v>SEKAB3S35Y=ICAP</v>
       </c>
       <c r="Q39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T39" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U39" s="85" t="e">
         <f>_xll.qlMidSafe($Q39,$R39)</f>
@@ -25923,10 +25347,10 @@
         <v>28</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -25946,10 +25370,10 @@
         <v>28</v>
       </c>
       <c r="M40" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N40" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O40" s="114" t="str">
         <f t="shared" si="1"/>
@@ -25959,16 +25383,16 @@
         <v>SEKAB3S40Y=ICAP</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T40" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U40" s="85" t="e">
         <f>_xll.qlMidSafe($Q40,$R40)</f>
@@ -26000,10 +25424,10 @@
         <v>26</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E41" s="16" t="str">
         <f t="shared" si="0"/>
@@ -26023,10 +25447,10 @@
         <v>26</v>
       </c>
       <c r="M41" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N41" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O41" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26036,16 +25460,16 @@
         <v>SEKAB3S50Y=ICAP</v>
       </c>
       <c r="Q41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T41" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U41" s="85" t="e">
         <f>_xll.qlMidSafe($Q41,$R41)</f>
@@ -26077,10 +25501,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -26100,10 +25524,10 @@
         <v>25</v>
       </c>
       <c r="M42" s="116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N42" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O42" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26113,16 +25537,16 @@
         <v>SEKAB3S60Y=ICAP</v>
       </c>
       <c r="Q42" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R42" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S42" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T42" s="89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U42" s="91" t="e">
         <f>_xll.qlMidSafe($Q42,$R42)</f>
@@ -26325,7 +25749,7 @@
       <c r="W3" s="43"/>
       <c r="X3" s="103">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="72"/>
       <c r="Z3" s="2"/>
@@ -26344,7 +25768,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="23" t="str">
         <f>Currency&amp;"_010_Sw"&amp;$C$6&amp;$D$6&amp;".xml"</f>
-        <v>SEK_010_Sw3BR6BR.xml</v>
+        <v>SEK_010_Sw3S6S.xml</v>
       </c>
       <c r="F4" s="22" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(F5:F42,SerializationPath&amp;E4,FileOverwrite,Serialize),"---")</f>
@@ -26360,9 +25784,9 @@
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
       <c r="O4" s="65"/>
-      <c r="P4" s="79" t="str">
-        <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 12:12:47</v>
+      <c r="P4" s="79" t="e">
+        <f ca="1">_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q4" s="122" t="s">
         <v>115</v>
@@ -26398,18 +25822,18 @@
         <v>14</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E5" s="16" t="str">
         <f t="shared" ref="E5:E42" si="0">IF(ISBLANK(C5),"#",Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix)</f>
-        <v>SEK3BR6BR6M_Quote</v>
+        <v>SEK3S6S6M_Quote</v>
       </c>
       <c r="F5" s="16" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR6M_Quote#0000</v>
+        <v>SEK3S6S6M_Quote#0002</v>
       </c>
       <c r="G5" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -26421,10 +25845,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N5" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O5" s="114" t="str">
         <f t="shared" ref="O5:O42" si="1">SUBSTITUTE(Currency,"D","")&amp;M5&amp;N5&amp;L5</f>
@@ -26435,10 +25859,10 @@
         <v>SEK3S6S6M=ICAP</v>
       </c>
       <c r="Q5" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R5" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S5" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q5,R5)</f>
@@ -26471,18 +25895,18 @@
         <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E6" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR1Y_Quote</v>
+        <v>SEK3S6S1Y_Quote</v>
       </c>
       <c r="F6" s="16" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR1Y_Quote#0000</v>
+        <v>SEK3S6S1Y_Quote#0001</v>
       </c>
       <c r="G6" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -26494,10 +25918,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N6" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O6" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26542,18 +25966,18 @@
         <v>65</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E7" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR15M_Quote</v>
+        <v>SEK3S6S15M_Quote</v>
       </c>
       <c r="F7" s="16" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR15M_Quote#0000</v>
+        <v>SEK3S6S15M_Quote#0001</v>
       </c>
       <c r="G7" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -26565,10 +25989,10 @@
         <v>65</v>
       </c>
       <c r="M7" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N7" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O7" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26578,10 +26002,10 @@
         <v>SEK3S6S15M=ICAP</v>
       </c>
       <c r="Q7" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R7" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S7" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q7,R7)</f>
@@ -26613,18 +26037,18 @@
         <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR18M_Quote</v>
+        <v>SEK3S6S18M_Quote</v>
       </c>
       <c r="F8" s="16" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR18M_Quote#0000</v>
+        <v>SEK3S6S18M_Quote#0001</v>
       </c>
       <c r="G8" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -26636,10 +26060,10 @@
         <v>64</v>
       </c>
       <c r="M8" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N8" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O8" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26649,10 +26073,10 @@
         <v>SEK3S6S18M=ICAP</v>
       </c>
       <c r="Q8" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R8" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S8" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q8,R8)</f>
@@ -26684,18 +26108,18 @@
         <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR21M_Quote</v>
+        <v>SEK3S6S21M_Quote</v>
       </c>
       <c r="F9" s="16" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR21M_Quote#0000</v>
+        <v>SEK3S6S21M_Quote#0001</v>
       </c>
       <c r="G9" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -26707,10 +26131,10 @@
         <v>63</v>
       </c>
       <c r="M9" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N9" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O9" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26720,10 +26144,10 @@
         <v>SEK3S6S21M=ICAP</v>
       </c>
       <c r="Q9" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R9" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S9" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q9,R9)</f>
@@ -26755,18 +26179,18 @@
         <v>58</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR2Y_Quote</v>
+        <v>SEK3S6S2Y_Quote</v>
       </c>
       <c r="F10" s="16" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR2Y_Quote#0000</v>
+        <v>SEK3S6S2Y_Quote#0001</v>
       </c>
       <c r="G10" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -26778,10 +26202,10 @@
         <v>58</v>
       </c>
       <c r="M10" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O10" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26826,18 +26250,18 @@
         <v>57</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR3Y_Quote</v>
+        <v>SEK3S6S3Y_Quote</v>
       </c>
       <c r="F11" s="16" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR3Y_Quote#0000</v>
+        <v>SEK3S6S3Y_Quote#0001</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -26849,10 +26273,10 @@
         <v>57</v>
       </c>
       <c r="M11" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N11" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O11" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26897,18 +26321,18 @@
         <v>56</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR4Y_Quote</v>
+        <v>SEK3S6S4Y_Quote</v>
       </c>
       <c r="F12" s="16" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR4Y_Quote#0000</v>
+        <v>SEK3S6S4Y_Quote#0001</v>
       </c>
       <c r="G12" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -26920,10 +26344,10 @@
         <v>56</v>
       </c>
       <c r="M12" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N12" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O12" s="114" t="str">
         <f t="shared" si="1"/>
@@ -26968,18 +26392,18 @@
         <v>55</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR5Y_Quote</v>
+        <v>SEK3S6S5Y_Quote</v>
       </c>
       <c r="F13" s="16" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR5Y_Quote#0000</v>
+        <v>SEK3S6S5Y_Quote#0001</v>
       </c>
       <c r="G13" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -26991,10 +26415,10 @@
         <v>55</v>
       </c>
       <c r="M13" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N13" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O13" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27039,18 +26463,18 @@
         <v>54</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR6Y_Quote</v>
+        <v>SEK3S6S6Y_Quote</v>
       </c>
       <c r="F14" s="16" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR6Y_Quote#0000</v>
+        <v>SEK3S6S6Y_Quote#0001</v>
       </c>
       <c r="G14" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -27062,10 +26486,10 @@
         <v>54</v>
       </c>
       <c r="M14" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N14" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O14" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27110,18 +26534,18 @@
         <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR7Y_Quote</v>
+        <v>SEK3S6S7Y_Quote</v>
       </c>
       <c r="F15" s="16" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR7Y_Quote#0000</v>
+        <v>SEK3S6S7Y_Quote#0001</v>
       </c>
       <c r="G15" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -27133,10 +26557,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N15" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O15" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27181,18 +26605,18 @@
         <v>52</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR8Y_Quote</v>
+        <v>SEK3S6S8Y_Quote</v>
       </c>
       <c r="F16" s="16" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR8Y_Quote#0000</v>
+        <v>SEK3S6S8Y_Quote#0001</v>
       </c>
       <c r="G16" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -27204,10 +26628,10 @@
         <v>52</v>
       </c>
       <c r="M16" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N16" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O16" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27252,18 +26676,18 @@
         <v>51</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR9Y_Quote</v>
+        <v>SEK3S6S9Y_Quote</v>
       </c>
       <c r="F17" s="16" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR9Y_Quote#0000</v>
+        <v>SEK3S6S9Y_Quote#0001</v>
       </c>
       <c r="G17" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -27275,10 +26699,10 @@
         <v>51</v>
       </c>
       <c r="M17" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N17" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O17" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27323,18 +26747,18 @@
         <v>50</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E18" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR10Y_Quote</v>
+        <v>SEK3S6S10Y_Quote</v>
       </c>
       <c r="F18" s="16" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR10Y_Quote#0000</v>
+        <v>SEK3S6S10Y_Quote#0001</v>
       </c>
       <c r="G18" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -27346,10 +26770,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N18" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O18" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27394,18 +26818,18 @@
         <v>49</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E19" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR11Y_Quote</v>
+        <v>SEK3S6S11Y_Quote</v>
       </c>
       <c r="F19" s="16" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR11Y_Quote#0000</v>
+        <v>SEK3S6S11Y_Quote#0001</v>
       </c>
       <c r="G19" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -27417,10 +26841,10 @@
         <v>49</v>
       </c>
       <c r="M19" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N19" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O19" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27430,10 +26854,10 @@
         <v>SEK3S6S11Y=ICAP</v>
       </c>
       <c r="Q19" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R19" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S19" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q19,R19)</f>
@@ -27465,18 +26889,18 @@
         <v>48</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E20" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR12Y_Quote</v>
+        <v>SEK3S6S12Y_Quote</v>
       </c>
       <c r="F20" s="16" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR12Y_Quote#0000</v>
+        <v>SEK3S6S12Y_Quote#0001</v>
       </c>
       <c r="G20" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -27488,10 +26912,10 @@
         <v>48</v>
       </c>
       <c r="M20" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N20" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O20" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27536,18 +26960,18 @@
         <v>47</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E21" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR13Y_Quote</v>
+        <v>SEK3S6S13Y_Quote</v>
       </c>
       <c r="F21" s="16" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR13Y_Quote#0000</v>
+        <v>SEK3S6S13Y_Quote#0001</v>
       </c>
       <c r="G21" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -27559,10 +26983,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N21" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O21" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27572,10 +26996,10 @@
         <v>SEK3S6S13Y=ICAP</v>
       </c>
       <c r="Q21" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R21" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S21" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q21,R21)</f>
@@ -27607,18 +27031,18 @@
         <v>46</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR14Y_Quote</v>
+        <v>SEK3S6S14Y_Quote</v>
       </c>
       <c r="F22" s="16" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR14Y_Quote#0000</v>
+        <v>SEK3S6S14Y_Quote#0001</v>
       </c>
       <c r="G22" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -27630,10 +27054,10 @@
         <v>46</v>
       </c>
       <c r="M22" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N22" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O22" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27643,10 +27067,10 @@
         <v>SEK3S6S14Y=ICAP</v>
       </c>
       <c r="Q22" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R22" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S22" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q22,R22)</f>
@@ -27678,18 +27102,18 @@
         <v>45</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR15Y_Quote</v>
+        <v>SEK3S6S15Y_Quote</v>
       </c>
       <c r="F23" s="16" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR15Y_Quote#0000</v>
+        <v>SEK3S6S15Y_Quote#0001</v>
       </c>
       <c r="G23" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -27701,10 +27125,10 @@
         <v>45</v>
       </c>
       <c r="M23" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N23" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O23" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27749,18 +27173,18 @@
         <v>44</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E24" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR16Y_Quote</v>
+        <v>SEK3S6S16Y_Quote</v>
       </c>
       <c r="F24" s="16" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR16Y_Quote#0000</v>
+        <v>SEK3S6S16Y_Quote#0001</v>
       </c>
       <c r="G24" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -27772,10 +27196,10 @@
         <v>44</v>
       </c>
       <c r="M24" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N24" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O24" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27785,10 +27209,10 @@
         <v>SEK3S6S16Y=ICAP</v>
       </c>
       <c r="Q24" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R24" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S24" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q24,R24)</f>
@@ -27820,18 +27244,18 @@
         <v>43</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E25" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR17Y_Quote</v>
+        <v>SEK3S6S17Y_Quote</v>
       </c>
       <c r="F25" s="16" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR17Y_Quote#0000</v>
+        <v>SEK3S6S17Y_Quote#0001</v>
       </c>
       <c r="G25" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -27843,10 +27267,10 @@
         <v>43</v>
       </c>
       <c r="M25" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N25" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O25" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27856,10 +27280,10 @@
         <v>SEK3S6S17Y=ICAP</v>
       </c>
       <c r="Q25" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R25" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S25" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q25,R25)</f>
@@ -27891,18 +27315,18 @@
         <v>42</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E26" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR18Y_Quote</v>
+        <v>SEK3S6S18Y_Quote</v>
       </c>
       <c r="F26" s="16" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR18Y_Quote#0000</v>
+        <v>SEK3S6S18Y_Quote#0001</v>
       </c>
       <c r="G26" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -27914,10 +27338,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N26" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O26" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27927,10 +27351,10 @@
         <v>SEK3S6S18Y=ICAP</v>
       </c>
       <c r="Q26" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R26" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S26" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q26,R26)</f>
@@ -27962,18 +27386,18 @@
         <v>41</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E27" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR19Y_Quote</v>
+        <v>SEK3S6S19Y_Quote</v>
       </c>
       <c r="F27" s="16" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR19Y_Quote#0000</v>
+        <v>SEK3S6S19Y_Quote#0001</v>
       </c>
       <c r="G27" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -27985,10 +27409,10 @@
         <v>41</v>
       </c>
       <c r="M27" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N27" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O27" s="114" t="str">
         <f t="shared" si="1"/>
@@ -27998,10 +27422,10 @@
         <v>SEK3S6S19Y=ICAP</v>
       </c>
       <c r="Q27" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R27" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S27" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q27,R27)</f>
@@ -28033,18 +27457,18 @@
         <v>40</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E28" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR20Y_Quote</v>
+        <v>SEK3S6S20Y_Quote</v>
       </c>
       <c r="F28" s="16" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR20Y_Quote#0000</v>
+        <v>SEK3S6S20Y_Quote#0001</v>
       </c>
       <c r="G28" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -28056,10 +27480,10 @@
         <v>40</v>
       </c>
       <c r="M28" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N28" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O28" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28104,18 +27528,18 @@
         <v>39</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E29" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR21Y_Quote</v>
+        <v>SEK3S6S21Y_Quote</v>
       </c>
       <c r="F29" s="16" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR21Y_Quote#0000</v>
+        <v>SEK3S6S21Y_Quote#0001</v>
       </c>
       <c r="G29" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -28127,10 +27551,10 @@
         <v>39</v>
       </c>
       <c r="M29" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N29" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O29" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28140,10 +27564,10 @@
         <v>SEK3S6S21Y=ICAP</v>
       </c>
       <c r="Q29" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R29" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S29" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q29,R29)</f>
@@ -28175,18 +27599,18 @@
         <v>38</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E30" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR22Y_Quote</v>
+        <v>SEK3S6S22Y_Quote</v>
       </c>
       <c r="F30" s="16" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR22Y_Quote#0000</v>
+        <v>SEK3S6S22Y_Quote#0001</v>
       </c>
       <c r="G30" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -28198,10 +27622,10 @@
         <v>38</v>
       </c>
       <c r="M30" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N30" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O30" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28211,10 +27635,10 @@
         <v>SEK3S6S22Y=ICAP</v>
       </c>
       <c r="Q30" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R30" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S30" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q30,R30)</f>
@@ -28246,18 +27670,18 @@
         <v>37</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E31" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR23Y_Quote</v>
+        <v>SEK3S6S23Y_Quote</v>
       </c>
       <c r="F31" s="16" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR23Y_Quote#0000</v>
+        <v>SEK3S6S23Y_Quote#0001</v>
       </c>
       <c r="G31" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -28269,10 +27693,10 @@
         <v>37</v>
       </c>
       <c r="M31" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N31" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O31" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28282,10 +27706,10 @@
         <v>SEK3S6S23Y=ICAP</v>
       </c>
       <c r="Q31" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R31" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S31" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q31,R31)</f>
@@ -28317,18 +27741,18 @@
         <v>36</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E32" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR24Y_Quote</v>
+        <v>SEK3S6S24Y_Quote</v>
       </c>
       <c r="F32" s="16" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR24Y_Quote#0000</v>
+        <v>SEK3S6S24Y_Quote#0001</v>
       </c>
       <c r="G32" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -28340,10 +27764,10 @@
         <v>36</v>
       </c>
       <c r="M32" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N32" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O32" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28353,10 +27777,10 @@
         <v>SEK3S6S24Y=ICAP</v>
       </c>
       <c r="Q32" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R32" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S32" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q32,R32)</f>
@@ -28388,18 +27812,18 @@
         <v>35</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E33" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR25Y_Quote</v>
+        <v>SEK3S6S25Y_Quote</v>
       </c>
       <c r="F33" s="16" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR25Y_Quote#0000</v>
+        <v>SEK3S6S25Y_Quote#0001</v>
       </c>
       <c r="G33" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -28411,10 +27835,10 @@
         <v>35</v>
       </c>
       <c r="M33" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N33" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O33" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28459,18 +27883,18 @@
         <v>34</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E34" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR26Y_Quote</v>
+        <v>SEK3S6S26Y_Quote</v>
       </c>
       <c r="F34" s="16" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR26Y_Quote#0000</v>
+        <v>SEK3S6S26Y_Quote#0001</v>
       </c>
       <c r="G34" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -28482,10 +27906,10 @@
         <v>34</v>
       </c>
       <c r="M34" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N34" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O34" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28495,10 +27919,10 @@
         <v>SEK3S6S26Y=ICAP</v>
       </c>
       <c r="Q34" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R34" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S34" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q34,R34)</f>
@@ -28530,18 +27954,18 @@
         <v>33</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E35" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR27Y_Quote</v>
+        <v>SEK3S6S27Y_Quote</v>
       </c>
       <c r="F35" s="16" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR27Y_Quote#0000</v>
+        <v>SEK3S6S27Y_Quote#0001</v>
       </c>
       <c r="G35" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -28553,10 +27977,10 @@
         <v>33</v>
       </c>
       <c r="M35" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N35" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O35" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28566,10 +27990,10 @@
         <v>SEK3S6S27Y=ICAP</v>
       </c>
       <c r="Q35" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R35" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S35" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q35,R35)</f>
@@ -28601,18 +28025,18 @@
         <v>32</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E36" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR28Y_Quote</v>
+        <v>SEK3S6S28Y_Quote</v>
       </c>
       <c r="F36" s="16" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR28Y_Quote#0000</v>
+        <v>SEK3S6S28Y_Quote#0001</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -28624,10 +28048,10 @@
         <v>32</v>
       </c>
       <c r="M36" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N36" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O36" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28637,10 +28061,10 @@
         <v>SEK3S6S28Y=ICAP</v>
       </c>
       <c r="Q36" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R36" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S36" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q36,R36)</f>
@@ -28672,18 +28096,18 @@
         <v>31</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E37" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR29Y_Quote</v>
+        <v>SEK3S6S29Y_Quote</v>
       </c>
       <c r="F37" s="16" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR29Y_Quote#0000</v>
+        <v>SEK3S6S29Y_Quote#0001</v>
       </c>
       <c r="G37" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -28695,10 +28119,10 @@
         <v>31</v>
       </c>
       <c r="M37" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N37" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O37" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28708,10 +28132,10 @@
         <v>SEK3S6S29Y=ICAP</v>
       </c>
       <c r="Q37" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R37" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S37" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q37,R37)</f>
@@ -28743,18 +28167,18 @@
         <v>30</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E38" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR30Y_Quote</v>
+        <v>SEK3S6S30Y_Quote</v>
       </c>
       <c r="F38" s="16" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR30Y_Quote#0000</v>
+        <v>SEK3S6S30Y_Quote#0001</v>
       </c>
       <c r="G38" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -28766,10 +28190,10 @@
         <v>30</v>
       </c>
       <c r="M38" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N38" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O38" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28814,18 +28238,18 @@
         <v>29</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E39" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR35Y_Quote</v>
+        <v>SEK3S6S35Y_Quote</v>
       </c>
       <c r="F39" s="16" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR35Y_Quote#0000</v>
+        <v>SEK3S6S35Y_Quote#0001</v>
       </c>
       <c r="G39" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -28837,10 +28261,10 @@
         <v>29</v>
       </c>
       <c r="M39" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N39" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O39" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28850,10 +28274,10 @@
         <v>SEK3S6S35Y=ICAP</v>
       </c>
       <c r="Q39" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R39" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S39" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q39,R39)</f>
@@ -28885,18 +28309,18 @@
         <v>28</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E40" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR40Y_Quote</v>
+        <v>SEK3S6S40Y_Quote</v>
       </c>
       <c r="F40" s="16" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR40Y_Quote#0000</v>
+        <v>SEK3S6S40Y_Quote#0001</v>
       </c>
       <c r="G40" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -28908,10 +28332,10 @@
         <v>28</v>
       </c>
       <c r="M40" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N40" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O40" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28921,10 +28345,10 @@
         <v>SEK3S6S40Y=ICAP</v>
       </c>
       <c r="Q40" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R40" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S40" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q40,R40)</f>
@@ -28956,18 +28380,18 @@
         <v>26</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E41" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR50Y_Quote</v>
+        <v>SEK3S6S50Y_Quote</v>
       </c>
       <c r="F41" s="16" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR50Y_Quote#0000</v>
+        <v>SEK3S6S50Y_Quote#0001</v>
       </c>
       <c r="G41" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -28979,10 +28403,10 @@
         <v>26</v>
       </c>
       <c r="M41" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N41" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O41" s="114" t="str">
         <f t="shared" si="1"/>
@@ -28992,10 +28416,10 @@
         <v>SEK3S6S50Y=ICAP</v>
       </c>
       <c r="Q41" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R41" s="159" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S41" s="154" t="e">
         <f>_xll.qlMidEquivalent(Q41,R41)</f>
@@ -29027,18 +28451,18 @@
         <v>25</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E42" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>SEK3BR6BR60Y_Quote</v>
+        <v>SEK3S6S60Y_Quote</v>
       </c>
       <c r="F42" s="16" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3BR6BR60Y_Quote#0000</v>
+        <v>SEK3S6S60Y_Quote#0001</v>
       </c>
       <c r="G42" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -29050,10 +28474,10 @@
         <v>25</v>
       </c>
       <c r="M42" s="116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N42" s="116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O42" s="114" t="str">
         <f t="shared" si="1"/>
@@ -29063,10 +28487,10 @@
         <v>SEK3S6S60Y=ICAP</v>
       </c>
       <c r="Q42" s="157" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R42" s="157" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S42" s="207" t="e">
         <f>_xll.qlMidEquivalent(Q42,R42)</f>

--- a/QuantLibXL/Data2/XLS/SEK_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="105" windowWidth="4800" windowHeight="11490" tabRatio="723"/>
+    <workbookView visibility="hidden" xWindow="9585" yWindow="165" windowWidth="4800" windowHeight="11430" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="205">
   <si>
     <t>Currency</t>
   </si>
@@ -2124,6 +2124,573 @@
 </styleSheet>
 </file>
 
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFG5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V6" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFF5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFK5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V9" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFJ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V8" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V29" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V25" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH3_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V45" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V41" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V37" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V33" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFH7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V21" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFH6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V17" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFH5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V7" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFN5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V11" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V30" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V26" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM3_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V46" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V42" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V38" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V34" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFM7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V22" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFM6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V18" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFM5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V10" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFQ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V12" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFV5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V14" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V31" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V27" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V43" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V39" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V35" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFU7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V23" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFU6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V19" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFU5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V13" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V32" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V28" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V44" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V40" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V36" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V24" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V20" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V16" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFX5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V15" s="18"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Updated at 14:45:43</v>
+        <stp/>
+        <stp>{2E5E3E7F-3C94-4252-802D-5DE16558AFDC}</stp>
+        <tr r="Q4" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:37:52</v>
+        <stp/>
+        <stp>{989B1D05-9BCA-4A29-B3EF-0607EDB64AA3}</stp>
+        <tr r="O4" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:47:28</v>
+        <stp/>
+        <stp>{A5041D90-AADF-4FFF-A8EB-7C68EEBD81D4}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:24</v>
+        <stp/>
+        <stp>{5EC28586-D57E-4324-A97A-0ED800A87D3A}</stp>
+        <tr r="P4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:35:53</v>
+        <stp/>
+        <stp>{A7E3FE90-7CD1-4BF0-8FBE-1DD0B6FC374A}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:38:00</v>
+        <stp/>
+        <stp>{6D6DAB67-208A-448F-97B3-CA98506D50D4}</stp>
+        <tr r="N4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:38:01</v>
+        <stp/>
+        <stp>{82412104-DA88-49B1-8276-5E87D4132E35}</stp>
+        <tr r="M4" s="16"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rhistoryrtdserver">
+      <tp t="s">
+        <v>Updated at 14:37:52</v>
+        <stp/>
+        <stp>{10DA40D4-A603-4E93-9BEC-F21BB156EAB6}_x0000_</stp>
+        <tr r="D2" s="65"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W44" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W36" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W40" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W20" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W24" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W16" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W28" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFZ9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W32" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFX5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W15" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFV5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W14" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W43" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W35" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W39" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFU6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W19" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFU7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W23" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFU5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W13" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W27" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFU9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W31" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFQ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W12" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFN5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W11" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W42" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM3_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W46" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W34" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W38" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFM6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W18" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFM7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W22" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFM5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W10" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W26" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFM9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W30" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFK5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W9" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFJ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W8" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W41" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH3_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W45" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W33" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W37" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFH6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W17" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFH7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W21" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+        <stp/>
+        <stp>_x0007_SE3MFH5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W7" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W25" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFH9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W29" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFG5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W6" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0007_SE3MFF5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W5" s="18"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2485,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="243">
-        <v>41991.534733796296</v>
+        <v>41991.609247685185</v>
       </c>
       <c r="E5" s="7"/>
       <c r="G5" s="106"/>
@@ -2522,7 +3089,7 @@
       </c>
       <c r="D7" s="245">
         <f>_xll.ohTrigger(Deposits!R3,FRA3M!W3,Futures3M!AB3,Swap3M!Z3,BasisSwap3M6M!X3,OIS!X3)</f>
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="106"/>
@@ -2539,7 +3106,7 @@
       </c>
       <c r="D8" s="245">
         <f>_xll.ohTrigger(Stibor!U5:U10)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7"/>
       <c r="G8" s="106"/>
@@ -2874,9 +3441,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="279" t="e">
-        <f ca="1">_xll.RHistory("STISEK3MDFI=",B9:B10,B5,,"CH:In;Fd TSREPEAT:N SORT:"&amp;B7,D3)</f>
-        <v>#NAME?</v>
+      <c r="D2" s="279" t="str">
+        <f>_xll.RHistory("STISEK3MDFI=",B9:B10,B5,,"CH:In;Fd TSREPEAT:N SORT:"&amp;B7,D3)</f>
+        <v>Updated at 14:37:52</v>
       </c>
       <c r="E2" s="279"/>
     </row>
@@ -9221,8 +9788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9354,9 +9921,9 @@
       <c r="P4" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="187" t="e">
-        <f ca="1">_xll.RData(Q5:Q10,R4:S4,"RTFEED:IDN",,,R5)</f>
-        <v>#NAME?</v>
+      <c r="Q4" s="187" t="str">
+        <f>_xll.RData(Q5:Q10,R4:S4,"RTFEED:IDN",,,R5)</f>
+        <v>Updated at 14:45:43</v>
       </c>
       <c r="R4" s="187" t="s">
         <v>151</v>
@@ -9402,43 +9969,42 @@
       </c>
       <c r="J5" s="183" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEKON#0000</v>
+        <v>SEKON#0001</v>
       </c>
       <c r="K5" s="183" t="str">
         <f>_xll.qlOvernightIndex(I5,,D5,Currency,Calendar,H5,J5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborON#0000</v>
+        <v>SekiborON#0001</v>
       </c>
       <c r="L5" s="183" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C5&amp;"LastFixing_Quote",K5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SekiborONLastFixing_Quote#0000</v>
+        <v>SekiborONLastFixing_Quote#0001</v>
       </c>
       <c r="M5" s="183"/>
       <c r="N5" s="184"/>
-      <c r="O5" s="270" t="str">
-        <f t="shared" ref="O5:O10" si="2">C5</f>
-        <v>ON</v>
+      <c r="O5" s="270" t="s">
+        <v>127</v>
       </c>
       <c r="P5" s="271" t="str">
         <f>K5</f>
-        <v>SekiborON#0000</v>
+        <v>SekiborON#0001</v>
       </c>
       <c r="Q5" s="272" t="str">
-        <f t="shared" ref="Q5:Q10" si="3">"STI"&amp;Currency&amp;O5&amp;"DFI="</f>
-        <v>STISEKONDFI=</v>
-      </c>
-      <c r="R5" s="272" t="s">
-        <v>176</v>
-      </c>
-      <c r="S5" s="275" t="s">
-        <v>176</v>
+        <f t="shared" ref="Q5:Q10" si="2">"STI"&amp;Currency&amp;O5&amp;"DFI="</f>
+        <v>STISEKTNDFI=</v>
+      </c>
+      <c r="R5" s="272">
+        <v>41991</v>
+      </c>
+      <c r="S5" s="275">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T5" s="272" t="b">
         <f>IF(AND(ISNUMBER($S5),$S5&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="272" t="e">
+        <v>1</v>
+      </c>
+      <c r="U5" s="272" t="b">
         <f>IF(S5,_xll.qlIndexAddFixings(P5,R5,S5/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="V5" s="273" t="e">
         <f>_xll.qlQuoteValue(L5)</f>
@@ -9486,7 +10052,7 @@
       </c>
       <c r="N6" s="184"/>
       <c r="O6" s="270" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O5:O10" si="3">C6</f>
         <v>1W</v>
       </c>
       <c r="P6" s="271" t="str">
@@ -9494,7 +10060,7 @@
         <v>Sekibor1W#0000</v>
       </c>
       <c r="Q6" s="272" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STISEK1WDFI=</v>
       </c>
       <c r="R6" s="272">
@@ -9560,7 +10126,7 @@
       </c>
       <c r="N7" s="184"/>
       <c r="O7" s="270" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1M</v>
       </c>
       <c r="P7" s="271" t="str">
@@ -9568,7 +10134,7 @@
         <v>Sekibor1M#0000</v>
       </c>
       <c r="Q7" s="272" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STISEK1MDFI=</v>
       </c>
       <c r="R7" s="272">
@@ -9631,7 +10197,7 @@
       </c>
       <c r="N8" s="184"/>
       <c r="O8" s="270" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2M</v>
       </c>
       <c r="P8" s="271" t="str">
@@ -9639,7 +10205,7 @@
         <v>Sekibor2M#0000</v>
       </c>
       <c r="Q8" s="272" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STISEK2MDFI=</v>
       </c>
       <c r="R8" s="272">
@@ -9705,7 +10271,7 @@
       </c>
       <c r="N9" s="184"/>
       <c r="O9" s="270" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3M</v>
       </c>
       <c r="P9" s="271" t="str">
@@ -9713,7 +10279,7 @@
         <v>Sekibor3M#0000</v>
       </c>
       <c r="Q9" s="272" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STISEK3MDFI=</v>
       </c>
       <c r="R9" s="272">
@@ -9779,7 +10345,7 @@
       </c>
       <c r="N10" s="184"/>
       <c r="O10" s="270" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6M</v>
       </c>
       <c r="P10" s="271" t="str">
@@ -9787,7 +10353,7 @@
         <v>Sekibor6M#0000</v>
       </c>
       <c r="Q10" s="272" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STISEK6MDFI=</v>
       </c>
       <c r="R10" s="272">
@@ -11122,7 +11688,8 @@
     <col min="7" max="8" width="2.7109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="29" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="29" customWidth="1"/>
@@ -11172,7 +11739,7 @@
       <c r="H2" s="106"/>
       <c r="I2" s="105"/>
       <c r="J2" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K2" s="83"/>
       <c r="L2" s="83"/>
@@ -11209,7 +11776,7 @@
       <c r="Q3" s="104"/>
       <c r="R3" s="103">
         <f>_xll.ohTrigger(R5:R21)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="S3" s="72"/>
       <c r="T3" s="2"/>
@@ -11237,9 +11804,9 @@
       <c r="F4" s="72"/>
       <c r="H4" s="40"/>
       <c r="I4" s="100"/>
-      <c r="J4" s="79" t="e">
-        <f ca="1">_xll.RData(J5:J21,K4:L4,,ReutersRtMode,,K5)</f>
-        <v>#NAME?</v>
+      <c r="J4" s="79" t="str">
+        <f>_xll.RData(J5:J21,K4:L4,,ReutersRtMode,,K5)</f>
+        <v>Updated at 14:47:28</v>
       </c>
       <c r="K4" s="79" t="s">
         <v>115</v>
@@ -11292,18 +11859,18 @@
         <v>127</v>
       </c>
       <c r="J5" s="97" t="str">
-        <f t="array" ref="J5:J21">Currency&amp;I5:I21&amp;"D="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
-        <v>SEKTND=ICAP</v>
+        <f t="array" ref="J5:J21">"STI"&amp;Currency&amp;I5:I21&amp;"DFI="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
+        <v>STISEKTNDFI=</v>
       </c>
       <c r="K5" s="119">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L5" s="96">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M5" s="96">
-        <f>_xll.qlMidSafe(K5,L5)</f>
-        <v>0.09</v>
+        <f>_xll.qlMidEquivalent(K5,L5)</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N5" s="83"/>
       <c r="O5" s="117">
@@ -11312,11 +11879,11 @@
       <c r="P5" s="83"/>
       <c r="Q5" s="140">
         <f t="array" ref="Q5:Q21">QuoteLive</f>
-        <v>0.09</v>
-      </c>
-      <c r="R5" s="93" t="e">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R5" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D5,Q5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S5" s="72"/>
       <c r="T5" s="2"/>
@@ -11349,7 +11916,7 @@
         <v>125</v>
       </c>
       <c r="J6" s="86" t="str">
-        <v>SEKSND=ICAP</v>
+        <v>STISEKSNDFI=</v>
       </c>
       <c r="K6" s="115" t="s">
         <v>176</v>
@@ -11358,7 +11925,7 @@
         <v>176</v>
       </c>
       <c r="M6" s="85" t="e">
-        <f>_xll.qlMidSafe(K6,L6)</f>
+        <f>_xll.qlMidEquivalent(K6,L6)</f>
         <v>#NUM!</v>
       </c>
       <c r="N6" s="83"/>
@@ -11404,29 +11971,29 @@
         <v>22</v>
       </c>
       <c r="J7" s="86" t="str">
-        <v>SEKSWD=ICAP</v>
-      </c>
-      <c r="K7" s="115">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="85">
-        <v>0.13</v>
-      </c>
-      <c r="M7" s="85">
-        <f>_xll.qlMidSafe(K7,L7)</f>
-        <v>0.09</v>
+        <v>STISEKSWDFI=</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="85" t="e">
+        <f>_xll.qlMidEquivalent(K7,L7)</f>
+        <v>#NUM!</v>
       </c>
       <c r="N7" s="83"/>
       <c r="O7" s="113">
         <v>2.625</v>
       </c>
       <c r="P7" s="83"/>
-      <c r="Q7" s="133">
-        <v>0.09</v>
-      </c>
-      <c r="R7" s="81" t="e">
+      <c r="Q7" s="133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R7" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D7,Q7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="2"/>
@@ -11459,16 +12026,16 @@
         <v>21</v>
       </c>
       <c r="J8" s="86" t="str">
-        <v>SEK2WD=ICAP</v>
-      </c>
-      <c r="K8" s="115">
-        <v>0</v>
-      </c>
-      <c r="L8" s="85">
-        <v>0</v>
+        <v>STISEK2WDFI=</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="85" t="s">
+        <v>176</v>
       </c>
       <c r="M8" s="85" t="e">
-        <f>_xll.qlMidSafe(K8,L8)</f>
+        <f>_xll.qlMidEquivalent(K8,L8)</f>
         <v>#NUM!</v>
       </c>
       <c r="N8" s="83"/>
@@ -11514,7 +12081,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="86" t="str">
-        <v>SEK3WD=ICAP</v>
+        <v>STISEK3WDFI=</v>
       </c>
       <c r="K9" s="115" t="s">
         <v>176</v>
@@ -11523,7 +12090,7 @@
         <v>176</v>
       </c>
       <c r="M9" s="85" t="e">
-        <f>_xll.qlMidSafe(K9,L9)</f>
+        <f>_xll.qlMidEquivalent(K9,L9)</f>
         <v>#NUM!</v>
       </c>
       <c r="N9" s="83"/>
@@ -11569,17 +12136,17 @@
         <v>19</v>
       </c>
       <c r="J10" s="86" t="str">
-        <v>SEK1MD=ICAP</v>
+        <v>STISEK1MDFI=</v>
       </c>
       <c r="K10" s="115">
-        <v>0.02</v>
+        <v>0.16699999999999998</v>
       </c>
       <c r="L10" s="85">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M10" s="85">
-        <f>_xll.qlMidSafe(K10,L10)</f>
-        <v>6.9999999999999993E-2</v>
+        <f>_xll.qlMidEquivalent(K10,L10)</f>
+        <v>0.16699999999999998</v>
       </c>
       <c r="N10" s="83"/>
       <c r="O10" s="84">
@@ -11587,11 +12154,11 @@
       </c>
       <c r="P10" s="83"/>
       <c r="Q10" s="133">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="R10" s="81" t="e">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="R10" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="2"/>
@@ -11624,17 +12191,17 @@
         <v>18</v>
       </c>
       <c r="J11" s="86" t="str">
-        <v>SEK2MD=ICAP</v>
+        <v>STISEK2MDFI=</v>
       </c>
       <c r="K11" s="115">
-        <v>0.06</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="L11" s="85">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M11" s="85">
-        <f>_xll.qlMidSafe(K11,L11)</f>
-        <v>0.11</v>
+        <f>_xll.qlMidEquivalent(K11,L11)</f>
+        <v>0.20699999999999999</v>
       </c>
       <c r="N11" s="83"/>
       <c r="O11" s="84">
@@ -11642,11 +12209,11 @@
       </c>
       <c r="P11" s="83"/>
       <c r="Q11" s="133">
-        <v>0.11</v>
-      </c>
-      <c r="R11" s="81" t="e">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="R11" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="2"/>
@@ -11679,17 +12246,17 @@
         <v>17</v>
       </c>
       <c r="J12" s="86" t="str">
-        <v>SEK3MD=ICAP</v>
+        <v>STISEK3MDFI=</v>
       </c>
       <c r="K12" s="115">
-        <v>0.11000000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="L12" s="85">
-        <v>0.21000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M12" s="85">
-        <f>_xll.qlMidSafe(K12,L12)</f>
-        <v>0.16000000000000003</v>
+        <f>_xll.qlMidEquivalent(K12,L12)</f>
+        <v>0.25800000000000001</v>
       </c>
       <c r="N12" s="83"/>
       <c r="O12" s="84">
@@ -11697,11 +12264,11 @@
       </c>
       <c r="P12" s="83"/>
       <c r="Q12" s="133">
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="R12" s="81" t="e">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="R12" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="2"/>
@@ -11734,7 +12301,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="86" t="str">
-        <v>SEK4MD=ICAP</v>
+        <v>STISEK4MDFI=</v>
       </c>
       <c r="K13" s="115" t="s">
         <v>176</v>
@@ -11743,7 +12310,7 @@
         <v>176</v>
       </c>
       <c r="M13" s="85" t="e">
-        <f>_xll.qlMidSafe(K13,L13)</f>
+        <f>_xll.qlMidEquivalent(K13,L13)</f>
         <v>#NUM!</v>
       </c>
       <c r="N13" s="83"/>
@@ -11789,7 +12356,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="86" t="str">
-        <v>SEK5MD=ICAP</v>
+        <v>STISEK5MDFI=</v>
       </c>
       <c r="K14" s="115" t="s">
         <v>176</v>
@@ -11798,7 +12365,7 @@
         <v>176</v>
       </c>
       <c r="M14" s="85" t="e">
-        <f>_xll.qlMidSafe(K14,L14)</f>
+        <f>_xll.qlMidEquivalent(K14,L14)</f>
         <v>#NUM!</v>
       </c>
       <c r="N14" s="83"/>
@@ -11844,17 +12411,17 @@
         <v>14</v>
       </c>
       <c r="J15" s="86" t="str">
-        <v>SEK6MD=ICAP</v>
+        <v>STISEK6MDFI=</v>
       </c>
       <c r="K15" s="115">
-        <v>0.18</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="L15" s="85">
-        <v>0.27999999999999997</v>
+        <v>0</v>
       </c>
       <c r="M15" s="85">
-        <f>_xll.qlMidSafe(K15,L15)</f>
-        <v>0.22999999999999998</v>
+        <f>_xll.qlMidEquivalent(K15,L15)</f>
+        <v>0.34100000000000003</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="84">
@@ -11862,11 +12429,11 @@
       </c>
       <c r="P15" s="83"/>
       <c r="Q15" s="133">
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="R15" s="81" t="e">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="R15" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S15" s="72"/>
       <c r="T15" s="2"/>
@@ -11899,7 +12466,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="86" t="str">
-        <v>SEK7MD=ICAP</v>
+        <v>STISEK7MDFI=</v>
       </c>
       <c r="K16" s="115" t="s">
         <v>176</v>
@@ -11908,7 +12475,7 @@
         <v>176</v>
       </c>
       <c r="M16" s="85" t="e">
-        <f>_xll.qlMidSafe(K16,L16)</f>
+        <f>_xll.qlMidEquivalent(K16,L16)</f>
         <v>#NUM!</v>
       </c>
       <c r="N16" s="83"/>
@@ -11954,7 +12521,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="86" t="str">
-        <v>SEK8MD=ICAP</v>
+        <v>STISEK8MDFI=</v>
       </c>
       <c r="K17" s="115" t="s">
         <v>176</v>
@@ -11963,7 +12530,7 @@
         <v>176</v>
       </c>
       <c r="M17" s="85" t="e">
-        <f>_xll.qlMidSafe(K17,L17)</f>
+        <f>_xll.qlMidEquivalent(K17,L17)</f>
         <v>#NUM!</v>
       </c>
       <c r="N17" s="83"/>
@@ -12009,29 +12576,29 @@
         <v>11</v>
       </c>
       <c r="J18" s="86" t="str">
-        <v>SEK9MD=ICAP</v>
-      </c>
-      <c r="K18" s="115">
-        <v>0.27</v>
-      </c>
-      <c r="L18" s="85">
-        <v>0.37</v>
-      </c>
-      <c r="M18" s="85">
-        <f>_xll.qlMidSafe(K18,L18)</f>
-        <v>0.32</v>
+        <v>STISEK9MDFI=</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="85" t="e">
+        <f>_xll.qlMidEquivalent(K18,L18)</f>
+        <v>#NUM!</v>
       </c>
       <c r="N18" s="83"/>
       <c r="O18" s="84">
         <v>2.8250000000000002</v>
       </c>
       <c r="P18" s="83"/>
-      <c r="Q18" s="133">
-        <v>0.32</v>
-      </c>
-      <c r="R18" s="81" t="e">
+      <c r="Q18" s="133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" s="81">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S18" s="72"/>
       <c r="T18" s="2"/>
@@ -12064,7 +12631,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="86" t="str">
-        <v>SEK10MD=ICAP</v>
+        <v>STISEK10MDFI=</v>
       </c>
       <c r="K19" s="115" t="s">
         <v>176</v>
@@ -12073,7 +12640,7 @@
         <v>176</v>
       </c>
       <c r="M19" s="85" t="e">
-        <f>_xll.qlMidSafe(K19,L19)</f>
+        <f>_xll.qlMidEquivalent(K19,L19)</f>
         <v>#NUM!</v>
       </c>
       <c r="N19" s="83"/>
@@ -12119,7 +12686,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="86" t="str">
-        <v>SEK11MD=ICAP</v>
+        <v>STISEK11MDFI=</v>
       </c>
       <c r="K20" s="115" t="s">
         <v>176</v>
@@ -12128,7 +12695,7 @@
         <v>176</v>
       </c>
       <c r="M20" s="85" t="e">
-        <f>_xll.qlMidSafe(K20,L20)</f>
+        <f>_xll.qlMidEquivalent(K20,L20)</f>
         <v>#NUM!</v>
       </c>
       <c r="N20" s="83"/>
@@ -12174,29 +12741,29 @@
         <v>8</v>
       </c>
       <c r="J21" s="86" t="str">
-        <v>SEK1YD=ICAP</v>
-      </c>
-      <c r="K21" s="115">
-        <v>0.31</v>
-      </c>
-      <c r="L21" s="85">
-        <v>0.41</v>
-      </c>
-      <c r="M21" s="110">
-        <f>_xll.qlMidSafe(K21,L21)</f>
-        <v>0.36</v>
+        <v>STISEK1YDFI=</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" s="110" t="e">
+        <f>_xll.qlMidEquivalent(K21,L21)</f>
+        <v>#NUM!</v>
       </c>
       <c r="N21" s="83"/>
       <c r="O21" s="84">
         <v>2.9750000000000001</v>
       </c>
       <c r="P21" s="83"/>
-      <c r="Q21" s="126">
-        <v>0.36</v>
-      </c>
-      <c r="R21" s="88" t="e">
+      <c r="Q21" s="126" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R21" s="88">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S21" s="72"/>
       <c r="T21" s="2"/>
@@ -12352,7 +12919,8 @@
     <col min="4" max="4" width="14.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" style="36" customWidth="1"/>
-    <col min="7" max="9" width="2.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" style="1" customWidth="1"/>
     <col min="10" max="11" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -12448,7 +13016,7 @@
       <c r="V3" s="43"/>
       <c r="W3" s="103">
         <f>_xll.ohTrigger(W5:W19)</f>
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="X3" s="72"/>
       <c r="Y3" s="2"/>
@@ -12472,9 +13040,9 @@
       <c r="J4" s="218"/>
       <c r="K4" s="65"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="216" t="e">
-        <f ca="1">_xll.RData(M5:M19,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>#NAME?</v>
+      <c r="M4" s="216" t="str">
+        <f>_xll.RData(M5:M19,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
+        <v>Updated at 15:38:01</v>
       </c>
       <c r="N4" s="101" t="s">
         <v>115</v>
@@ -12526,7 +13094,10 @@
         <f>_xll.ohRangeRetrieveError(E5)</f>
         <v/>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D5,(1-_xll.qlQuoteValue(D5))*100,,,Trigger,)</f>
+        <v>FUTSEK3F1_Quote#0001</v>
+      </c>
       <c r="I5" s="212"/>
       <c r="J5" s="310" t="str">
         <f t="shared" ref="J5:J19" si="1">B5</f>
@@ -12569,9 +13140,9 @@
         <f t="array" ref="V5:V19">QuoteLive</f>
         <v>0.23500000000000001</v>
       </c>
-      <c r="W5" s="93" t="e">
+      <c r="W5" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X5" s="72"/>
       <c r="Y5" s="2"/>
@@ -12597,7 +13168,10 @@
         <f>_xll.ohRangeRetrieveError(E6)</f>
         <v/>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D6,(1-_xll.qlQuoteValue(D6))*100,,,Trigger,)</f>
+        <v>FUTSEK3F2_Quote#0001</v>
+      </c>
       <c r="I6" s="212"/>
       <c r="J6" s="312" t="str">
         <f t="shared" si="1"/>
@@ -12615,10 +13189,10 @@
         <v>SEK3F2=</v>
       </c>
       <c r="N6" s="330">
-        <v>0.20499999999999999</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="O6" s="330">
-        <v>0.22500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="P6" s="328">
         <v>0</v>
@@ -12628,7 +13202,7 @@
       </c>
       <c r="R6" s="330">
         <f>_xll.qlMidSafe($N6,$O6)</f>
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="S6" s="83"/>
       <c r="T6" s="113">
@@ -12636,11 +13210,11 @@
       </c>
       <c r="U6" s="83"/>
       <c r="V6" s="133">
-        <v>0.215</v>
-      </c>
-      <c r="W6" s="81" t="e">
+        <v>0.23</v>
+      </c>
+      <c r="W6" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E6,V6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X6" s="72"/>
       <c r="Y6" s="2"/>
@@ -12666,7 +13240,10 @@
         <f>_xll.ohRangeRetrieveError(E7)</f>
         <v/>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D7,(1-_xll.qlQuoteValue(D7))*100,,,Trigger,)</f>
+        <v>FUTSEK3F3_Quote#0001</v>
+      </c>
       <c r="I7" s="212"/>
       <c r="J7" s="312" t="str">
         <f t="shared" si="1"/>
@@ -12684,10 +13261,10 @@
         <v>SEK3F3=</v>
       </c>
       <c r="N7" s="330">
-        <v>0.20499999999999999</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="O7" s="330">
-        <v>0.22500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="P7" s="328">
         <v>0</v>
@@ -12697,7 +13274,7 @@
       </c>
       <c r="R7" s="330">
         <f>_xll.qlMidSafe($N7,$O7)</f>
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="S7" s="83"/>
       <c r="T7" s="113">
@@ -12705,11 +13282,11 @@
       </c>
       <c r="U7" s="83"/>
       <c r="V7" s="133">
-        <v>0.215</v>
-      </c>
-      <c r="W7" s="81" t="e">
+        <v>0.23</v>
+      </c>
+      <c r="W7" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X7" s="72"/>
       <c r="Y7" s="2"/>
@@ -12735,7 +13312,10 @@
         <f>_xll.ohRangeRetrieveError(E8)</f>
         <v/>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D8,(1-_xll.qlQuoteValue(D8))*100,,,Trigger,)</f>
+        <v>FUTSEK3F4_Quote#0001</v>
+      </c>
       <c r="I8" s="212"/>
       <c r="J8" s="312" t="str">
         <f t="shared" si="1"/>
@@ -12753,10 +13333,10 @@
         <v>SEK3F4=</v>
       </c>
       <c r="N8" s="330">
-        <v>0.215</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="O8" s="330">
-        <v>0.23500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="P8" s="328">
         <v>0</v>
@@ -12766,7 +13346,7 @@
       </c>
       <c r="R8" s="330">
         <f>_xll.qlMidSafe($N8,$O8)</f>
-        <v>0.22500000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="S8" s="83"/>
       <c r="T8" s="113">
@@ -12774,11 +13354,11 @@
       </c>
       <c r="U8" s="83"/>
       <c r="V8" s="133">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="W8" s="81" t="e">
+        <v>0.245</v>
+      </c>
+      <c r="W8" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X8" s="72"/>
       <c r="Y8" s="2"/>
@@ -12804,7 +13384,10 @@
         <f>_xll.ohRangeRetrieveError(E9)</f>
         <v/>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D9,(1-_xll.qlQuoteValue(D9))*100,,,Trigger,)</f>
+        <v>FUTSEK3F5_Quote#0001</v>
+      </c>
       <c r="I9" s="212"/>
       <c r="J9" s="312" t="str">
         <f t="shared" si="1"/>
@@ -12822,10 +13405,10 @@
         <v>SEK3F5=</v>
       </c>
       <c r="N9" s="330">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="O9" s="330">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P9" s="328">
         <v>0</v>
@@ -12835,7 +13418,7 @@
       </c>
       <c r="R9" s="330">
         <f>_xll.qlMidSafe($N9,$O9)</f>
-        <v>0.255</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="S9" s="83"/>
       <c r="T9" s="113">
@@ -12843,11 +13426,11 @@
       </c>
       <c r="U9" s="83"/>
       <c r="V9" s="133">
-        <v>0.255</v>
-      </c>
-      <c r="W9" s="81" t="e">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W9" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X9" s="72"/>
       <c r="Y9" s="2"/>
@@ -12873,7 +13456,10 @@
         <f>_xll.ohRangeRetrieveError(E10)</f>
         <v/>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D10,(1-_xll.qlQuoteValue(D10))*100,,,Trigger,)</f>
+        <v>FUTSEK3F6_Quote#0001</v>
+      </c>
       <c r="I10" s="212"/>
       <c r="J10" s="312" t="str">
         <f t="shared" si="1"/>
@@ -12891,10 +13477,10 @@
         <v>SEK3F6=</v>
       </c>
       <c r="N10" s="330">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="O10" s="330">
-        <v>0.30499999999999999</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="P10" s="328">
         <v>0</v>
@@ -12904,7 +13490,7 @@
       </c>
       <c r="R10" s="330">
         <f>_xll.qlMidSafe($N10,$O10)</f>
-        <v>0.29000000000000004</v>
+        <v>0.31499999999999995</v>
       </c>
       <c r="S10" s="83"/>
       <c r="T10" s="113">
@@ -12912,11 +13498,11 @@
       </c>
       <c r="U10" s="83"/>
       <c r="V10" s="133">
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="W10" s="81" t="e">
+        <v>0.31499999999999995</v>
+      </c>
+      <c r="W10" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X10" s="72"/>
       <c r="Y10" s="2"/>
@@ -12942,7 +13528,10 @@
         <f>_xll.ohRangeRetrieveError(E11)</f>
         <v/>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D11,(1-_xll.qlQuoteValue(D11))*100,,,Trigger,)</f>
+        <v>FUTSEK3F7_Quote#0001</v>
+      </c>
       <c r="I11" s="212"/>
       <c r="J11" s="312" t="str">
         <f t="shared" si="1"/>
@@ -12960,10 +13549,10 @@
         <v>SEK3F7=</v>
       </c>
       <c r="N11" s="330">
-        <v>0.32</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="O11" s="330">
-        <v>0.35</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="P11" s="328">
         <v>0</v>
@@ -12973,7 +13562,7 @@
       </c>
       <c r="R11" s="330">
         <f>_xll.qlMidSafe($N11,$O11)</f>
-        <v>0.33499999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="S11" s="83"/>
       <c r="T11" s="113">
@@ -12981,11 +13570,11 @@
       </c>
       <c r="U11" s="83"/>
       <c r="V11" s="133">
-        <v>0.33499999999999996</v>
-      </c>
-      <c r="W11" s="81" t="e">
+        <v>0.37</v>
+      </c>
+      <c r="W11" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="2"/>
@@ -13011,7 +13600,10 @@
         <f>_xll.ohRangeRetrieveError(E12)</f>
         <v/>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D12,(1-_xll.qlQuoteValue(D12))*100,,,Trigger,)</f>
+        <v>FUTSEK3F8_Quote#0001</v>
+      </c>
       <c r="I12" s="212"/>
       <c r="J12" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13029,10 +13621,10 @@
         <v>SEK3F8=</v>
       </c>
       <c r="N12" s="330">
-        <v>0.375</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O12" s="330">
-        <v>0.40499999999999997</v>
+        <v>0.45</v>
       </c>
       <c r="P12" s="328">
         <v>0</v>
@@ -13042,7 +13634,7 @@
       </c>
       <c r="R12" s="330">
         <f>_xll.qlMidSafe($N12,$O12)</f>
-        <v>0.39</v>
+        <v>0.43500000000000005</v>
       </c>
       <c r="S12" s="83"/>
       <c r="T12" s="113">
@@ -13050,11 +13642,11 @@
       </c>
       <c r="U12" s="83"/>
       <c r="V12" s="133">
-        <v>0.39</v>
-      </c>
-      <c r="W12" s="81" t="e">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="W12" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="2"/>
@@ -13080,7 +13672,10 @@
         <f>_xll.ohRangeRetrieveError(E13)</f>
         <v/>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D13,(1-_xll.qlQuoteValue(D13))*100,,,Trigger,)</f>
+        <v>FUTSEK3F9_Quote#0001</v>
+      </c>
       <c r="I13" s="212"/>
       <c r="J13" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13098,10 +13693,10 @@
         <v>SEK3F9=</v>
       </c>
       <c r="N13" s="330">
-        <v>0.46500000000000002</v>
+        <v>0.502</v>
       </c>
       <c r="O13" s="330">
-        <v>0.505</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="P13" s="328">
         <v>0</v>
@@ -13111,7 +13706,7 @@
       </c>
       <c r="R13" s="330">
         <f>_xll.qlMidSafe($N13,$O13)</f>
-        <v>0.48499999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="S13" s="83"/>
       <c r="T13" s="113">
@@ -13119,11 +13714,11 @@
       </c>
       <c r="U13" s="83"/>
       <c r="V13" s="133">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="W13" s="81" t="e">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="W13" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.1999999999999945E-4</v>
       </c>
       <c r="X13" s="72"/>
       <c r="Y13" s="2"/>
@@ -13149,7 +13744,10 @@
         <f>_xll.ohRangeRetrieveError(E14)</f>
         <v/>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D14,(1-_xll.qlQuoteValue(D14))*100,,,Trigger,)</f>
+        <v>FUTSEK3F10_Quote#0001</v>
+      </c>
       <c r="I14" s="212"/>
       <c r="J14" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13167,10 +13765,10 @@
         <v>SEK3F10=</v>
       </c>
       <c r="N14" s="330">
-        <v>0.53899999999999992</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="O14" s="330">
-        <v>0.57899999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="P14" s="328">
         <v>0</v>
@@ -13180,7 +13778,7 @@
       </c>
       <c r="R14" s="330">
         <f>_xll.qlMidSafe($N14,$O14)</f>
-        <v>0.55899999999999994</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="S14" s="83"/>
       <c r="T14" s="113">
@@ -13188,11 +13786,11 @@
       </c>
       <c r="U14" s="83"/>
       <c r="V14" s="133">
-        <v>0.55899999999999994</v>
-      </c>
-      <c r="W14" s="81" t="e">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="W14" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E14,V14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.0000000000000052E-4</v>
       </c>
       <c r="X14" s="72"/>
       <c r="Y14" s="2"/>
@@ -13218,7 +13816,10 @@
         <f>_xll.ohRangeRetrieveError(E15)</f>
         <v/>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D15,(1-_xll.qlQuoteValue(D15))*100,,,Trigger,)</f>
+        <v>FUTSEK3F11_Quote#0001</v>
+      </c>
       <c r="I15" s="212"/>
       <c r="J15" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13236,10 +13837,10 @@
         <v>SEK3F11=</v>
       </c>
       <c r="N15" s="330">
-        <v>0.60899999999999999</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="O15" s="330">
-        <v>0.64900000000000002</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="P15" s="328">
         <v>0</v>
@@ -13249,7 +13850,7 @@
       </c>
       <c r="R15" s="330">
         <f>_xll.qlMidSafe($N15,$O15)</f>
-        <v>0.629</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="S15" s="83"/>
       <c r="T15" s="113">
@@ -13257,11 +13858,11 @@
       </c>
       <c r="U15" s="83"/>
       <c r="V15" s="133">
-        <v>0.629</v>
-      </c>
-      <c r="W15" s="81" t="e">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="W15" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-4.7999999999999952E-4</v>
       </c>
       <c r="X15" s="72"/>
       <c r="Y15" s="2"/>
@@ -13287,7 +13888,10 @@
         <f>_xll.ohRangeRetrieveError(E16)</f>
         <v/>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="str">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D16,(1-_xll.qlQuoteValue(D16))*100,,,Trigger,)</f>
+        <v>FUTSEK3F12_Quote#0001</v>
+      </c>
       <c r="I16" s="212"/>
       <c r="J16" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13305,10 +13909,10 @@
         <v>SEK3F12=</v>
       </c>
       <c r="N16" s="330">
-        <v>0.67800000000000005</v>
+        <v>0.746</v>
       </c>
       <c r="O16" s="330">
-        <v>0.71799999999999997</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="P16" s="328">
         <v>0</v>
@@ -13318,7 +13922,7 @@
       </c>
       <c r="R16" s="330">
         <f>_xll.qlMidSafe($N16,$O16)</f>
-        <v>0.69799999999999995</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="S16" s="83"/>
       <c r="T16" s="113">
@@ -13326,11 +13930,11 @@
       </c>
       <c r="U16" s="83"/>
       <c r="V16" s="133">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="W16" s="81" t="e">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="W16" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>4.9000000000000085E-4</v>
       </c>
       <c r="X16" s="72"/>
       <c r="Y16" s="2"/>
@@ -13356,7 +13960,10 @@
         <f>_xll.ohRangeRetrieveError(E17)</f>
         <v/>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="e">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D17,(1-_xll.qlQuoteValue(D17))*100,,,Trigger,)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I17" s="212"/>
       <c r="J17" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13425,7 +14032,10 @@
         <f>_xll.ohRangeRetrieveError(E18)</f>
         <v/>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="e">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D18,(1-_xll.qlQuoteValue(D18))*100,,,Trigger,)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I18" s="212"/>
       <c r="J18" s="312" t="str">
         <f t="shared" si="1"/>
@@ -13494,7 +14104,10 @@
         <f>_xll.ohRangeRetrieveError(E19)</f>
         <v/>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="e">
+        <f>_xll.qlSimpleQuote("FUT"&amp;D19,(1-_xll.qlQuoteValue(D19))*100,,,Trigger,)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="I19" s="212"/>
       <c r="J19" s="316" t="str">
         <f t="shared" si="1"/>
@@ -13594,7 +14207,7 @@
   <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13754,7 +14367,7 @@
       <c r="AA3" s="43"/>
       <c r="AB3" s="103">
         <f>_xll.ohTrigger(AB5:AB46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="146"/>
       <c r="AD3" s="2"/>
@@ -13811,9 +14424,9 @@
       <c r="N4" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="152" t="e">
-        <f ca="1">_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>#NAME?</v>
+      <c r="O4" s="152" t="str">
+        <f>_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>Updated at 14:37:52</v>
       </c>
       <c r="P4" s="149" t="s">
         <v>134</v>
@@ -13939,13 +14552,13 @@
         <f>_xll.qlMidSafe($Q5,$R5)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V5" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O5,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W5" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O5,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V5" s="262" t="str">
+        <f>_xll.RtGet("IDN",O5,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W5" s="267" t="str">
+        <f>_xll.RtGet("IDN",O5,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X5" s="83" t="s">
         <v>177</v>
@@ -14048,13 +14661,13 @@
         <f>_xll.qlMidSafe($Q6,$R6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V6" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O6,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W6" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O6,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V6" s="262" t="str">
+        <f>_xll.RtGet("IDN",O6,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W6" s="267" t="str">
+        <f>_xll.RtGet("IDN",O6,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X6" s="83" t="s">
         <v>177</v>
@@ -14155,13 +14768,13 @@
         <f>_xll.qlMidSafe($Q7,$R7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V7" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O7,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W7" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O7,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V7" s="262" t="str">
+        <f>_xll.RtGet("IDN",O7,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W7" s="267" t="str">
+        <f>_xll.RtGet("IDN",O7,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X7" s="83" t="s">
         <v>177</v>
@@ -14262,13 +14875,13 @@
         <f>_xll.qlMidSafe($Q8,$R8)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V8" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O8,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W8" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O8,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V8" s="262" t="str">
+        <f>_xll.RtGet("IDN",O8,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W8" s="267" t="str">
+        <f>_xll.RtGet("IDN",O8,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X8" s="83" t="s">
         <v>177</v>
@@ -14370,13 +14983,13 @@
         <f>_xll.qlMidSafe($Q9,$R9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V9" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O9,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W9" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O9,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V9" s="262" t="str">
+        <f>_xll.RtGet("IDN",O9,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W9" s="267" t="str">
+        <f>_xll.RtGet("IDN",O9,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X9" s="83" t="s">
         <v>177</v>
@@ -14477,13 +15090,13 @@
         <f>_xll.qlMidSafe($Q10,$R10)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V10" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O10,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W10" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O10,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V10" s="262" t="str">
+        <f>_xll.RtGet("IDN",O10,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W10" s="267" t="str">
+        <f>_xll.RtGet("IDN",O10,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X10" s="83" t="s">
         <v>177</v>
@@ -14584,13 +15197,13 @@
         <f>_xll.qlMidSafe($Q11,$R11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V11" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O11,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W11" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O11,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V11" s="262" t="str">
+        <f>_xll.RtGet("IDN",O11,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W11" s="267" t="str">
+        <f>_xll.RtGet("IDN",O11,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X11" s="83" t="s">
         <v>177</v>
@@ -14691,13 +15304,13 @@
         <f>_xll.qlMidSafe($Q12,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V12" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O12,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W12" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O12,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V12" s="262" t="str">
+        <f>_xll.RtGet("IDN",O12,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W12" s="267" t="str">
+        <f>_xll.RtGet("IDN",O12,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X12" s="83" t="s">
         <v>177</v>
@@ -14798,13 +15411,13 @@
         <f>_xll.qlMidSafe($Q13,$R13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V13" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O13,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W13" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O13,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V13" s="262" t="str">
+        <f>_xll.RtGet("IDN",O13,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W13" s="267" t="str">
+        <f>_xll.RtGet("IDN",O13,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X13" s="83" t="s">
         <v>177</v>
@@ -14905,13 +15518,13 @@
         <f>_xll.qlMidSafe($Q14,$R14)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V14" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O14,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W14" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O14,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V14" s="262" t="str">
+        <f>_xll.RtGet("IDN",O14,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W14" s="267" t="str">
+        <f>_xll.RtGet("IDN",O14,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X14" s="83" t="s">
         <v>177</v>
@@ -15012,13 +15625,13 @@
         <f>_xll.qlMidSafe($Q15,$R15)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V15" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O15,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W15" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O15,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V15" s="262" t="str">
+        <f>_xll.RtGet("IDN",O15,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W15" s="267" t="str">
+        <f>_xll.RtGet("IDN",O15,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X15" s="83" t="s">
         <v>177</v>
@@ -15119,13 +15732,13 @@
         <f>_xll.qlMidSafe($Q16,$R16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V16" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O16,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W16" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O16,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V16" s="262" t="str">
+        <f>_xll.RtGet("IDN",O16,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W16" s="267" t="str">
+        <f>_xll.RtGet("IDN",O16,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X16" s="83" t="s">
         <v>177</v>
@@ -15226,13 +15839,13 @@
         <f>_xll.qlMidSafe($Q17,$R17)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V17" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O17,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W17" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O17,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V17" s="262" t="str">
+        <f>_xll.RtGet("IDN",O17,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W17" s="267" t="str">
+        <f>_xll.RtGet("IDN",O17,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X17" s="83" t="s">
         <v>177</v>
@@ -15333,13 +15946,13 @@
         <f>_xll.qlMidSafe($Q18,$R18)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V18" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O18,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W18" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O18,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V18" s="262" t="str">
+        <f>_xll.RtGet("IDN",O18,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W18" s="267" t="str">
+        <f>_xll.RtGet("IDN",O18,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X18" s="83" t="s">
         <v>177</v>
@@ -15440,13 +16053,13 @@
         <f>_xll.qlMidSafe($Q19,$R19)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V19" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O19,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W19" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O19,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V19" s="262" t="str">
+        <f>_xll.RtGet("IDN",O19,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W19" s="267" t="str">
+        <f>_xll.RtGet("IDN",O19,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X19" s="83" t="s">
         <v>177</v>
@@ -15547,13 +16160,13 @@
         <f>_xll.qlMidSafe($Q20,$R20)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V20" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O20,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W20" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O20,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V20" s="262" t="str">
+        <f>_xll.RtGet("IDN",O20,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W20" s="267" t="str">
+        <f>_xll.RtGet("IDN",O20,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X20" s="83" t="s">
         <v>177</v>
@@ -15654,13 +16267,13 @@
         <f>_xll.qlMidSafe($Q21,$R21)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V21" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O21,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W21" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O21,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V21" s="262" t="str">
+        <f>_xll.RtGet("IDN",O21,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W21" s="267" t="str">
+        <f>_xll.RtGet("IDN",O21,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X21" s="83" t="s">
         <v>177</v>
@@ -15761,13 +16374,13 @@
         <f>_xll.qlMidSafe($Q22,$R22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V22" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O22,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W22" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O22,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V22" s="262" t="str">
+        <f>_xll.RtGet("IDN",O22,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W22" s="267" t="str">
+        <f>_xll.RtGet("IDN",O22,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X22" s="83" t="s">
         <v>177</v>
@@ -15868,13 +16481,13 @@
         <f>_xll.qlMidSafe($Q23,$R23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V23" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O23,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W23" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O23,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V23" s="262" t="str">
+        <f>_xll.RtGet("IDN",O23,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W23" s="267" t="str">
+        <f>_xll.RtGet("IDN",O23,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X23" s="83" t="s">
         <v>177</v>
@@ -15975,13 +16588,13 @@
         <f>_xll.qlMidSafe($Q24,$R24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V24" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O24,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W24" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O24,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V24" s="262" t="str">
+        <f>_xll.RtGet("IDN",O24,"TRDVOL_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
+      </c>
+      <c r="W24" s="267" t="str">
+        <f>_xll.RtGet("IDN",O24,"OPINT_1")</f>
+        <v>#N/A Access Denied: User req to IDN for Exch - OMXF</v>
       </c>
       <c r="X24" s="83" t="s">
         <v>177</v>
@@ -16082,13 +16695,13 @@
         <f>_xll.qlMidSafe($Q25,$R25)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V25" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O25,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W25" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O25,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V25" s="262" t="str">
+        <f>_xll.RtGet("IDN",O25,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W25" s="267" t="str">
+        <f>_xll.RtGet("IDN",O25,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X25" s="83" t="s">
         <v>177</v>
@@ -16189,13 +16802,13 @@
         <f>_xll.qlMidSafe($Q26,$R26)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V26" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O26,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W26" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O26,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V26" s="262" t="str">
+        <f>_xll.RtGet("IDN",O26,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W26" s="267" t="str">
+        <f>_xll.RtGet("IDN",O26,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X26" s="83" t="s">
         <v>177</v>
@@ -16296,13 +16909,13 @@
         <f>_xll.qlMidSafe($Q27,$R27)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V27" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O27,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W27" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O27,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V27" s="262" t="str">
+        <f>_xll.RtGet("IDN",O27,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W27" s="267" t="str">
+        <f>_xll.RtGet("IDN",O27,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X27" s="83" t="s">
         <v>177</v>
@@ -16403,13 +17016,13 @@
         <f>_xll.qlMidSafe($Q28,$R28)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V28" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O28,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W28" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O28,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V28" s="262" t="str">
+        <f>_xll.RtGet("IDN",O28,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W28" s="267" t="str">
+        <f>_xll.RtGet("IDN",O28,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X28" s="83" t="s">
         <v>177</v>
@@ -16510,13 +17123,13 @@
         <f>_xll.qlMidSafe($Q29,$R29)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V29" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O29,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W29" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O29,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V29" s="262" t="str">
+        <f>_xll.RtGet("IDN",O29,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W29" s="267" t="str">
+        <f>_xll.RtGet("IDN",O29,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X29" s="83" t="s">
         <v>177</v>
@@ -16617,13 +17230,13 @@
         <f>_xll.qlMidSafe($Q30,$R30)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V30" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O30,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W30" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O30,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V30" s="262" t="str">
+        <f>_xll.RtGet("IDN",O30,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W30" s="267" t="str">
+        <f>_xll.RtGet("IDN",O30,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X30" s="83" t="s">
         <v>177</v>
@@ -16724,13 +17337,13 @@
         <f>_xll.qlMidSafe($Q31,$R31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V31" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O31,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W31" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O31,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V31" s="262" t="str">
+        <f>_xll.RtGet("IDN",O31,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W31" s="267" t="str">
+        <f>_xll.RtGet("IDN",O31,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X31" s="83" t="s">
         <v>177</v>
@@ -16831,13 +17444,13 @@
         <f>_xll.qlMidSafe($Q32,$R32)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V32" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O32,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W32" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O32,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V32" s="262" t="str">
+        <f>_xll.RtGet("IDN",O32,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W32" s="267" t="str">
+        <f>_xll.RtGet("IDN",O32,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X32" s="83" t="s">
         <v>177</v>
@@ -16938,13 +17551,13 @@
         <f>_xll.qlMidSafe($Q33,$R33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V33" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O33,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W33" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O33,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V33" s="262" t="str">
+        <f>_xll.RtGet("IDN",O33,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W33" s="267" t="str">
+        <f>_xll.RtGet("IDN",O33,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X33" s="83"/>
       <c r="Y33" s="134" t="e">
@@ -17043,13 +17656,13 @@
         <f>_xll.qlMidSafe($Q34,$R34)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V34" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O34,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W34" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O34,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V34" s="262" t="str">
+        <f>_xll.RtGet("IDN",O34,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W34" s="267" t="str">
+        <f>_xll.RtGet("IDN",O34,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X34" s="83" t="s">
         <v>177</v>
@@ -17150,13 +17763,13 @@
         <f>_xll.qlMidSafe($Q35,$R35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V35" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O35,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W35" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O35,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V35" s="262" t="str">
+        <f>_xll.RtGet("IDN",O35,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W35" s="267" t="str">
+        <f>_xll.RtGet("IDN",O35,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X35" s="83" t="s">
         <v>177</v>
@@ -17257,13 +17870,13 @@
         <f>_xll.qlMidSafe($Q36,$R36)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V36" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O36,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W36" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O36,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V36" s="262" t="str">
+        <f>_xll.RtGet("IDN",O36,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W36" s="267" t="str">
+        <f>_xll.RtGet("IDN",O36,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X36" s="83" t="s">
         <v>177</v>
@@ -17364,13 +17977,13 @@
         <f>_xll.qlMidSafe($Q37,$R37)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V37" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O37,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W37" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O37,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V37" s="262" t="str">
+        <f>_xll.RtGet("IDN",O37,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W37" s="267" t="str">
+        <f>_xll.RtGet("IDN",O37,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X37" s="83" t="s">
         <v>177</v>
@@ -17471,13 +18084,13 @@
         <f>_xll.qlMidSafe($Q38,$R38)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V38" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O38,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W38" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O38,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V38" s="262" t="str">
+        <f>_xll.RtGet("IDN",O38,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W38" s="267" t="str">
+        <f>_xll.RtGet("IDN",O38,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X38" s="83" t="s">
         <v>177</v>
@@ -17578,13 +18191,13 @@
         <f>_xll.qlMidSafe($Q39,$R39)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V39" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O39,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W39" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O39,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V39" s="262" t="str">
+        <f>_xll.RtGet("IDN",O39,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W39" s="267" t="str">
+        <f>_xll.RtGet("IDN",O39,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X39" s="83" t="s">
         <v>177</v>
@@ -17685,13 +18298,13 @@
         <f>_xll.qlMidSafe($Q40,$R40)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V40" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O40,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W40" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O40,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V40" s="262" t="str">
+        <f>_xll.RtGet("IDN",O40,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W40" s="267" t="str">
+        <f>_xll.RtGet("IDN",O40,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X40" s="83" t="s">
         <v>177</v>
@@ -17792,13 +18405,13 @@
         <f>_xll.qlMidSafe($Q41,$R41)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V41" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O41,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W41" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O41,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V41" s="262" t="str">
+        <f>_xll.RtGet("IDN",O41,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W41" s="267" t="str">
+        <f>_xll.RtGet("IDN",O41,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X41" s="83" t="s">
         <v>177</v>
@@ -17899,13 +18512,13 @@
         <f>_xll.qlMidSafe($Q42,$R42)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V42" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O42,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W42" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O42,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V42" s="262" t="str">
+        <f>_xll.RtGet("IDN",O42,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W42" s="267" t="str">
+        <f>_xll.RtGet("IDN",O42,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X42" s="83" t="s">
         <v>177</v>
@@ -18006,13 +18619,13 @@
         <f>_xll.qlMidSafe($Q43,$R43)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V43" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O43,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W43" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O43,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V43" s="262" t="str">
+        <f>_xll.RtGet("IDN",O43,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W43" s="267" t="str">
+        <f>_xll.RtGet("IDN",O43,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X43" s="83" t="s">
         <v>177</v>
@@ -18113,13 +18726,13 @@
         <f>_xll.qlMidSafe($Q44,$R44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V44" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O44,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W44" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O44,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V44" s="262" t="str">
+        <f>_xll.RtGet("IDN",O44,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W44" s="267" t="str">
+        <f>_xll.RtGet("IDN",O44,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X44" s="83" t="s">
         <v>177</v>
@@ -18220,13 +18833,13 @@
         <f>_xll.qlMidSafe($Q45,$R45)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V45" s="262" t="e">
-        <f ca="1">_xll.RtGet("IDN",O45,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W45" s="267" t="e">
-        <f ca="1">_xll.RtGet("IDN",O45,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V45" s="262" t="str">
+        <f>_xll.RtGet("IDN",O45,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W45" s="267" t="str">
+        <f>_xll.RtGet("IDN",O45,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X45" s="83" t="s">
         <v>177</v>
@@ -18327,13 +18940,13 @@
         <f>_xll.qlMidSafe($Q46,$R46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V46" s="265" t="e">
-        <f ca="1">_xll.RtGet("IDN",O46,"TRDVOL_1")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W46" s="268" t="e">
-        <f ca="1">_xll.RtGet("IDN",O46,"OPINT_1")</f>
-        <v>#NAME?</v>
+      <c r="V46" s="265" t="str">
+        <f>_xll.RtGet("IDN",O46,"TRDVOL_1")</f>
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W46" s="268" t="str">
+        <f>_xll.RtGet("IDN",O46,"OPINT_1")</f>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X46" s="83" t="s">
         <v>177</v>
@@ -18546,7 +19159,7 @@
       <c r="W3" s="43"/>
       <c r="X3" s="103">
         <f>_xll.ohTrigger(X5:X58)</f>
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="Y3" s="72"/>
     </row>
@@ -18574,9 +19187,9 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
-      <c r="N4" s="152" t="e">
-        <f ca="1">_xll.RData(N5:N58,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>#NAME?</v>
+      <c r="N4" s="152" t="str">
+        <f>_xll.RData(N5:N58,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
+        <v>Updated at 15:38:00</v>
       </c>
       <c r="O4" s="149" t="s">
         <v>115</v>
@@ -18851,10 +19464,10 @@
         <v>SEKAMTNS1M=</v>
       </c>
       <c r="O8" s="82">
-        <v>6.9999999999999993E-2</v>
+        <v>0.09</v>
       </c>
       <c r="P8" s="82">
-        <v>0.09</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="Q8" s="82">
         <v>0</v>
@@ -18864,7 +19477,7 @@
       </c>
       <c r="S8" s="85">
         <f>_xll.qlMidEquivalent($O8,$P8,$Q8,$R8)</f>
-        <v>7.9999999999999988E-2</v>
+        <v>0.1</v>
       </c>
       <c r="T8" s="83"/>
       <c r="U8" s="84">
@@ -18872,11 +19485,11 @@
       </c>
       <c r="V8" s="83"/>
       <c r="W8" s="133">
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="X8" s="81" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="X8" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="72"/>
       <c r="AA8"/>
@@ -18920,10 +19533,10 @@
         <v>SEKAMTNS2M=</v>
       </c>
       <c r="O9" s="82">
-        <v>6.7999999999999991E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P9" s="82">
-        <v>8.8000000000000009E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="Q9" s="82">
         <v>0</v>
@@ -18933,7 +19546,7 @@
       </c>
       <c r="S9" s="85">
         <f>_xll.qlMidEquivalent($O9,$P9,$Q9,$R9)</f>
-        <v>7.8E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T9" s="83"/>
       <c r="U9" s="84">
@@ -18941,11 +19554,11 @@
       </c>
       <c r="V9" s="83"/>
       <c r="W9" s="133">
-        <v>7.8E-2</v>
-      </c>
-      <c r="X9" s="81" t="e">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X9" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="72"/>
     </row>
@@ -18988,10 +19601,10 @@
         <v>SEKAMTNS3M=</v>
       </c>
       <c r="O10" s="82">
-        <v>6.3E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="P10" s="82">
-        <v>8.3000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q10" s="82">
         <v>0</v>
@@ -19001,7 +19614,7 @@
       </c>
       <c r="S10" s="85">
         <f>_xll.qlMidEquivalent($O10,$P10,$Q10,$R10)</f>
-        <v>7.3000000000000009E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T10" s="83"/>
       <c r="U10" s="84">
@@ -19009,11 +19622,11 @@
       </c>
       <c r="V10" s="83"/>
       <c r="W10" s="133">
-        <v>7.3000000000000009E-2</v>
-      </c>
-      <c r="X10" s="81" t="e">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X10" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="72"/>
     </row>
@@ -19192,10 +19805,10 @@
         <v>SEKAMTNS6M=</v>
       </c>
       <c r="O13" s="82">
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P13" s="82">
-        <v>7.4999999999999997E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="Q13" s="82">
         <v>0</v>
@@ -19205,7 +19818,7 @@
       </c>
       <c r="S13" s="85">
         <f>_xll.qlMidEquivalent($O13,$P13,$Q13,$R13)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="T13" s="83"/>
       <c r="U13" s="84">
@@ -19213,11 +19826,11 @@
       </c>
       <c r="V13" s="83"/>
       <c r="W13" s="133">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X13" s="81" t="e">
+        <v>0.06</v>
+      </c>
+      <c r="X13" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="72"/>
     </row>
@@ -19397,10 +20010,10 @@
         <v>SEKAMTNS9M=</v>
       </c>
       <c r="O16" s="82">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P16" s="82">
-        <v>6.9999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q16" s="82">
         <v>0</v>
@@ -19410,7 +20023,7 @@
       </c>
       <c r="S16" s="85">
         <f>_xll.qlMidEquivalent($O16,$P16,$Q16,$R16)</f>
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T16" s="83"/>
       <c r="U16" s="84">
@@ -19418,11 +20031,11 @@
       </c>
       <c r="V16" s="83"/>
       <c r="W16" s="133">
-        <v>0.06</v>
-      </c>
-      <c r="X16" s="81" t="e">
+        <v>5.5E-2</v>
+      </c>
+      <c r="X16" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="72"/>
       <c r="AB16"/>
@@ -19602,10 +20215,10 @@
         <v>SEKAMTNS1Y=</v>
       </c>
       <c r="O19" s="82">
-        <v>2.8999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P19" s="82">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q19" s="82">
         <v>0</v>
@@ -19615,7 +20228,7 @@
       </c>
       <c r="S19" s="85">
         <f>_xll.qlMidEquivalent($O19,$P19,$Q19,$R19)</f>
-        <v>3.95E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T19" s="83"/>
       <c r="U19" s="84">
@@ -19623,11 +20236,11 @@
       </c>
       <c r="V19" s="83"/>
       <c r="W19" s="133">
-        <v>3.95E-2</v>
-      </c>
-      <c r="X19" s="81" t="e">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X19" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E19,W19/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="72"/>
     </row>
@@ -20419,10 +21032,10 @@
         <v>SEKAMTNS2Y=</v>
       </c>
       <c r="O31" s="82">
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P31" s="82">
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Q31" s="82">
         <v>0</v>
@@ -20432,7 +21045,7 @@
       </c>
       <c r="S31" s="85">
         <f>_xll.qlMidEquivalent($O31,$P31,$Q31,$R31)</f>
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="T31" s="83"/>
       <c r="U31" s="84">
@@ -20440,11 +21053,11 @@
       </c>
       <c r="V31" s="83"/>
       <c r="W31" s="133">
-        <v>0.05</v>
-      </c>
-      <c r="X31" s="81" t="e">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X31" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E31,W31/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="72"/>
     </row>
@@ -20691,10 +21304,10 @@
         <v>SEKAMTNS3Y=</v>
       </c>
       <c r="O35" s="82">
-        <v>0.11000000000000001</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="P35" s="82">
-        <v>0.16</v>
+        <v>0.215</v>
       </c>
       <c r="Q35" s="82">
         <v>0</v>
@@ -20704,7 +21317,7 @@
       </c>
       <c r="S35" s="85">
         <f>_xll.qlMidEquivalent($O35,$P35,$Q35,$R35)</f>
-        <v>0.13500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="T35" s="83"/>
       <c r="U35" s="84">
@@ -20712,11 +21325,11 @@
       </c>
       <c r="V35" s="83"/>
       <c r="W35" s="133">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="X35" s="81" t="e">
+        <v>0.19</v>
+      </c>
+      <c r="X35" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E35,W35/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>2.9999999999999992E-4</v>
       </c>
       <c r="Y35" s="72"/>
     </row>
@@ -20963,10 +21576,10 @@
         <v>SEKAMTNS4Y=</v>
       </c>
       <c r="O39" s="82">
-        <v>0.22999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="P39" s="82">
-        <v>0.27999999999999997</v>
+        <v>0.31</v>
       </c>
       <c r="Q39" s="82">
         <v>0</v>
@@ -20976,7 +21589,7 @@
       </c>
       <c r="S39" s="85">
         <f>_xll.qlMidEquivalent($O39,$P39,$Q39,$R39)</f>
-        <v>0.255</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="T39" s="83"/>
       <c r="U39" s="84" t="e">
@@ -20984,11 +21597,11 @@
       </c>
       <c r="V39" s="83"/>
       <c r="W39" s="133">
-        <v>0.255</v>
-      </c>
-      <c r="X39" s="81" t="e">
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="X39" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E39,W39/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="72"/>
     </row>
@@ -21235,10 +21848,10 @@
         <v>SEKAMTNS5Y=</v>
       </c>
       <c r="O43" s="82">
-        <v>0.375</v>
+        <v>0.41</v>
       </c>
       <c r="P43" s="82">
-        <v>0.42499999999999999</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q43" s="82">
         <v>0</v>
@@ -21248,7 +21861,7 @@
       </c>
       <c r="S43" s="85">
         <f>_xll.qlMidEquivalent($O43,$P43,$Q43,$R43)</f>
-        <v>0.4</v>
+        <v>0.43499999999999994</v>
       </c>
       <c r="T43" s="83"/>
       <c r="U43" s="84" t="e">
@@ -21256,11 +21869,11 @@
       </c>
       <c r="V43" s="83"/>
       <c r="W43" s="133">
-        <v>0.4</v>
-      </c>
-      <c r="X43" s="81" t="e">
+        <v>0.43499999999999994</v>
+      </c>
+      <c r="X43" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E43,W43/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="72"/>
     </row>
@@ -21303,10 +21916,10 @@
         <v>SEKAMTNS6Y=</v>
       </c>
       <c r="O44" s="82">
-        <v>0.51900000000000002</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="P44" s="82">
-        <v>0.53899999999999992</v>
+        <v>0.61</v>
       </c>
       <c r="Q44" s="82">
         <v>0</v>
@@ -21316,7 +21929,7 @@
       </c>
       <c r="S44" s="85">
         <f>_xll.qlMidEquivalent($O44,$P44,$Q44,$R44)</f>
-        <v>0.52899999999999991</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="T44" s="83"/>
       <c r="U44" s="84" t="e">
@@ -21324,11 +21937,11 @@
       </c>
       <c r="V44" s="83"/>
       <c r="W44" s="133">
-        <v>0.52899999999999991</v>
-      </c>
-      <c r="X44" s="81" t="e">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="X44" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E44,W44/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="72"/>
     </row>
@@ -21371,10 +21984,10 @@
         <v>SEKAMTNS7Y=</v>
       </c>
       <c r="O45" s="82">
-        <v>0.65599999999999992</v>
+        <v>0.7</v>
       </c>
       <c r="P45" s="82">
-        <v>0.67599999999999993</v>
+        <v>0.75</v>
       </c>
       <c r="Q45" s="82">
         <v>0</v>
@@ -21384,7 +21997,7 @@
       </c>
       <c r="S45" s="85">
         <f>_xll.qlMidEquivalent($O45,$P45,$Q45,$R45)</f>
-        <v>0.66599999999999993</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="T45" s="83"/>
       <c r="U45" s="84" t="e">
@@ -21392,11 +22005,11 @@
       </c>
       <c r="V45" s="83"/>
       <c r="W45" s="133">
-        <v>0.66599999999999993</v>
-      </c>
-      <c r="X45" s="81" t="e">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="X45" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E45,W45/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="72"/>
     </row>
@@ -21439,10 +22052,10 @@
         <v>SEKAMTNS8Y=</v>
       </c>
       <c r="O46" s="82">
-        <v>0.78</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="P46" s="82">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Q46" s="82">
         <v>0</v>
@@ -21452,7 +22065,7 @@
       </c>
       <c r="S46" s="85">
         <f>_xll.qlMidEquivalent($O46,$P46,$Q46,$R46)</f>
-        <v>0.79</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="T46" s="83"/>
       <c r="U46" s="84" t="e">
@@ -21460,11 +22073,11 @@
       </c>
       <c r="V46" s="83"/>
       <c r="W46" s="133">
-        <v>0.79</v>
-      </c>
-      <c r="X46" s="81" t="e">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="X46" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E46,W46/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="72"/>
     </row>
@@ -21507,10 +22120,10 @@
         <v>SEKAMTNS9Y=</v>
       </c>
       <c r="O47" s="82">
-        <v>0.88800000000000012</v>
+        <v>0.96</v>
       </c>
       <c r="P47" s="82">
-        <v>0.90800000000000003</v>
+        <v>1.01</v>
       </c>
       <c r="Q47" s="82">
         <v>0</v>
@@ -21520,7 +22133,7 @@
       </c>
       <c r="S47" s="85">
         <f>_xll.qlMidEquivalent($O47,$P47,$Q47,$R47)</f>
-        <v>0.89800000000000013</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="T47" s="83"/>
       <c r="U47" s="84" t="e">
@@ -21528,11 +22141,11 @@
       </c>
       <c r="V47" s="83"/>
       <c r="W47" s="133">
-        <v>0.89800000000000013</v>
-      </c>
-      <c r="X47" s="81" t="e">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="X47" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E47,W47/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="72"/>
     </row>
@@ -21575,10 +22188,10 @@
         <v>SEKAMTNS10Y=</v>
       </c>
       <c r="O48" s="82">
-        <v>0.98399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="P48" s="82">
-        <v>1.004</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Q48" s="82">
         <v>0</v>
@@ -21588,7 +22201,7 @@
       </c>
       <c r="S48" s="85">
         <f>_xll.qlMidEquivalent($O48,$P48,$Q48,$R48)</f>
-        <v>0.99399999999999999</v>
+        <v>1.085</v>
       </c>
       <c r="T48" s="83"/>
       <c r="U48" s="84" t="e">
@@ -21596,11 +22209,11 @@
       </c>
       <c r="V48" s="83"/>
       <c r="W48" s="133">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="X48" s="81" t="e">
+        <v>1.085</v>
+      </c>
+      <c r="X48" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E48,W48/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="72"/>
     </row>
@@ -21643,10 +22256,10 @@
         <v>SEKAMTNS12Y=</v>
       </c>
       <c r="O49" s="82">
-        <v>1.105</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="P49" s="82">
-        <v>1.2050000000000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="Q49" s="82">
         <v>0</v>
@@ -21656,7 +22269,7 @@
       </c>
       <c r="S49" s="85">
         <f>_xll.qlMidEquivalent($O49,$P49,$Q49,$R49)</f>
-        <v>1.155</v>
+        <v>1.25</v>
       </c>
       <c r="T49" s="83"/>
       <c r="U49" s="84" t="e">
@@ -21664,11 +22277,11 @@
       </c>
       <c r="V49" s="83"/>
       <c r="W49" s="133">
-        <v>1.155</v>
-      </c>
-      <c r="X49" s="81" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="X49" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E49,W49/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="72"/>
     </row>
@@ -21711,10 +22324,10 @@
         <v>SEKAMTNS15Y=</v>
       </c>
       <c r="O50" s="82">
-        <v>1.3475000000000001</v>
+        <v>1.415</v>
       </c>
       <c r="P50" s="82">
-        <v>1.4475</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="Q50" s="82">
         <v>0</v>
@@ -21724,7 +22337,7 @@
       </c>
       <c r="S50" s="85">
         <f>_xll.qlMidEquivalent($O50,$P50,$Q50,$R50)</f>
-        <v>1.3975</v>
+        <v>1.44</v>
       </c>
       <c r="T50" s="83"/>
       <c r="U50" s="84" t="e">
@@ -21732,11 +22345,11 @@
       </c>
       <c r="V50" s="83"/>
       <c r="W50" s="133">
-        <v>1.3975</v>
-      </c>
-      <c r="X50" s="81" t="e">
+        <v>1.44</v>
+      </c>
+      <c r="X50" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E50,W50/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="72"/>
     </row>
@@ -21779,10 +22392,10 @@
         <v>SEKAMTNS20Y=</v>
       </c>
       <c r="O51" s="82">
-        <v>1.5375000000000001</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="P51" s="82">
-        <v>1.6375</v>
+        <v>1.66</v>
       </c>
       <c r="Q51" s="82">
         <v>0</v>
@@ -21792,7 +22405,7 @@
       </c>
       <c r="S51" s="85">
         <f>_xll.qlMidEquivalent($O51,$P51,$Q51,$R51)</f>
-        <v>1.5874999999999999</v>
+        <v>1.6349999999999998</v>
       </c>
       <c r="T51" s="83"/>
       <c r="U51" s="84" t="e">
@@ -21800,11 +22413,11 @@
       </c>
       <c r="V51" s="83"/>
       <c r="W51" s="133">
-        <v>1.5874999999999999</v>
-      </c>
-      <c r="X51" s="81" t="e">
+        <v>1.6349999999999998</v>
+      </c>
+      <c r="X51" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E51,W51/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="72"/>
     </row>
@@ -21847,10 +22460,10 @@
         <v>SEKAMTNS25Y=</v>
       </c>
       <c r="O52" s="82">
-        <v>1.6025</v>
+        <v>1.665</v>
       </c>
       <c r="P52" s="82">
-        <v>1.7025000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="Q52" s="82">
         <v>0</v>
@@ -21860,7 +22473,7 @@
       </c>
       <c r="S52" s="85">
         <f>_xll.qlMidEquivalent($O52,$P52,$Q52,$R52)</f>
-        <v>1.6525000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="T52" s="83"/>
       <c r="U52" s="84" t="e">
@@ -21868,11 +22481,11 @@
       </c>
       <c r="V52" s="83"/>
       <c r="W52" s="133">
-        <v>1.6525000000000001</v>
-      </c>
-      <c r="X52" s="81" t="e">
+        <v>1.69</v>
+      </c>
+      <c r="X52" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E52,W52/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="72"/>
     </row>
@@ -21983,10 +22596,10 @@
         <v>SEKAMTNS30Y=</v>
       </c>
       <c r="O54" s="82">
-        <v>1.6099999999999999</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="P54" s="82">
-        <v>1.71</v>
+        <v>1.7349999999999999</v>
       </c>
       <c r="Q54" s="82">
         <v>0</v>
@@ -21996,7 +22609,7 @@
       </c>
       <c r="S54" s="85">
         <f>_xll.qlMidEquivalent($O54,$P54,$Q54,$R54)</f>
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="T54" s="83"/>
       <c r="U54" s="84" t="e">
@@ -22004,11 +22617,11 @@
       </c>
       <c r="V54" s="83"/>
       <c r="W54" s="133">
-        <v>1.66</v>
-      </c>
-      <c r="X54" s="81" t="e">
+        <v>1.71</v>
+      </c>
+      <c r="X54" s="81">
         <f>_xll.qlSimpleQuoteSetValue(E54,W54/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="72"/>
     </row>
@@ -22571,7 +23184,7 @@
       <c r="Y3" s="43"/>
       <c r="Z3" s="103">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AA3" s="72"/>
       <c r="AB3" s="2"/>
@@ -22606,9 +23219,9 @@
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
       <c r="O4" s="65"/>
-      <c r="P4" s="216" t="e">
-        <f ca="1">_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>#NAME?</v>
+      <c r="P4" s="216" t="str">
+        <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>Updated at 15:35:53</v>
       </c>
       <c r="Q4" s="122" t="s">
         <v>115</v>
@@ -22765,10 +23378,10 @@
         <v>SEKAB3S1Y=ICAP</v>
       </c>
       <c r="Q6" s="82">
-        <v>0.21249999999999999</v>
+        <v>0.2225</v>
       </c>
       <c r="R6" s="82">
-        <v>0.26250000000000001</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="S6" s="82">
         <v>0</v>
@@ -22778,7 +23391,7 @@
       </c>
       <c r="U6" s="85">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
-        <v>0.23749999999999999</v>
+        <v>0.2475</v>
       </c>
       <c r="V6" s="83"/>
       <c r="W6" s="84">
@@ -22786,11 +23399,11 @@
       </c>
       <c r="X6" s="83"/>
       <c r="Y6" s="133">
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="Z6" s="81" t="e">
+        <v>0.2475</v>
+      </c>
+      <c r="Z6" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="72"/>
       <c r="AB6" s="2"/>
@@ -23073,10 +23686,10 @@
         <v>SEKAB3S2Y=ICAP</v>
       </c>
       <c r="Q10" s="82">
-        <v>0.23749999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="R10" s="82">
-        <v>0.28749999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="S10" s="82">
         <v>0</v>
@@ -23086,7 +23699,7 @@
       </c>
       <c r="U10" s="85">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>0.26249999999999996</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="V10" s="83"/>
       <c r="W10" s="84">
@@ -23094,11 +23707,11 @@
       </c>
       <c r="X10" s="83"/>
       <c r="Y10" s="133">
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="Z10" s="81" t="e">
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="Z10" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="72"/>
       <c r="AB10" s="2"/>
@@ -23150,10 +23763,10 @@
         <v>SEKAB3S3Y=ICAP</v>
       </c>
       <c r="Q11" s="82">
-        <v>0.32750000000000001</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="R11" s="82">
-        <v>0.3775</v>
+        <v>0.40250000000000002</v>
       </c>
       <c r="S11" s="82">
         <v>0</v>
@@ -23163,7 +23776,7 @@
       </c>
       <c r="U11" s="85">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>0.35250000000000004</v>
+        <v>0.3775</v>
       </c>
       <c r="V11" s="83"/>
       <c r="W11" s="84">
@@ -23171,11 +23784,11 @@
       </c>
       <c r="X11" s="83"/>
       <c r="Y11" s="133">
-        <v>0.35250000000000004</v>
-      </c>
-      <c r="Z11" s="81" t="e">
+        <v>0.3775</v>
+      </c>
+      <c r="Z11" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="72"/>
       <c r="AB11" s="2"/>
@@ -23227,10 +23840,10 @@
         <v>SEKAB3S4Y=ICAP</v>
       </c>
       <c r="Q12" s="82">
-        <v>0.45</v>
+        <v>0.48250000000000004</v>
       </c>
       <c r="R12" s="82">
-        <v>0.5</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="S12" s="82">
         <v>0</v>
@@ -23240,7 +23853,7 @@
       </c>
       <c r="U12" s="85">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
-        <v>0.47499999999999998</v>
+        <v>0.50750000000000006</v>
       </c>
       <c r="V12" s="83"/>
       <c r="W12" s="84" t="e">
@@ -23248,11 +23861,11 @@
       </c>
       <c r="X12" s="83"/>
       <c r="Y12" s="133">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="Z12" s="81" t="e">
+        <v>0.50750000000000006</v>
+      </c>
+      <c r="Z12" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="72"/>
       <c r="AB12" s="2"/>
@@ -23304,10 +23917,10 @@
         <v>SEKAB3S5Y=ICAP</v>
       </c>
       <c r="Q13" s="82">
-        <v>0.59250000000000003</v>
+        <v>0.63250000000000006</v>
       </c>
       <c r="R13" s="82">
-        <v>0.64249999999999996</v>
+        <v>0.6825</v>
       </c>
       <c r="S13" s="82">
         <v>0</v>
@@ -23317,7 +23930,7 @@
       </c>
       <c r="U13" s="85">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
-        <v>0.61749999999999994</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="V13" s="83"/>
       <c r="W13" s="84" t="e">
@@ -23325,11 +23938,11 @@
       </c>
       <c r="X13" s="83"/>
       <c r="Y13" s="133">
-        <v>0.61749999999999994</v>
-      </c>
-      <c r="Z13" s="81" t="e">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="Z13" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.4999999999998981E-5</v>
       </c>
       <c r="AA13" s="72"/>
       <c r="AB13" s="2"/>
@@ -23381,10 +23994,10 @@
         <v>SEKAB3S6Y=ICAP</v>
       </c>
       <c r="Q14" s="82">
-        <v>0.74249999999999994</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="R14" s="82">
-        <v>0.79249999999999998</v>
+        <v>0.83249999999999991</v>
       </c>
       <c r="S14" s="82">
         <v>0</v>
@@ -23394,7 +24007,7 @@
       </c>
       <c r="U14" s="85">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
-        <v>0.76749999999999996</v>
+        <v>0.80749999999999988</v>
       </c>
       <c r="V14" s="83"/>
       <c r="W14" s="84" t="e">
@@ -23402,11 +24015,11 @@
       </c>
       <c r="X14" s="83"/>
       <c r="Y14" s="133">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="Z14" s="81" t="e">
+        <v>0.80749999999999988</v>
+      </c>
+      <c r="Z14" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="72"/>
       <c r="AB14" s="2"/>
@@ -23458,10 +24071,10 @@
         <v>SEKAB3S7Y=ICAP</v>
       </c>
       <c r="Q15" s="82">
-        <v>0.88249999999999995</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="R15" s="82">
-        <v>0.93249999999999988</v>
+        <v>0.97249999999999992</v>
       </c>
       <c r="S15" s="82">
         <v>0</v>
@@ -23471,7 +24084,7 @@
       </c>
       <c r="U15" s="85">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
-        <v>0.90749999999999997</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="V15" s="83"/>
       <c r="W15" s="84" t="e">
@@ -23479,11 +24092,11 @@
       </c>
       <c r="X15" s="83"/>
       <c r="Y15" s="133">
-        <v>0.90749999999999997</v>
-      </c>
-      <c r="Z15" s="81" t="e">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="Z15" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="72"/>
       <c r="AB15" s="2"/>
@@ -23535,10 +24148,10 @@
         <v>SEKAB3S8Y=ICAP</v>
       </c>
       <c r="Q16" s="82">
-        <v>1.01</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="R16" s="82">
-        <v>1.06</v>
+        <v>1.105</v>
       </c>
       <c r="S16" s="82">
         <v>0</v>
@@ -23548,7 +24161,7 @@
       </c>
       <c r="U16" s="85">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
-        <v>1.0350000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="V16" s="83"/>
       <c r="W16" s="84" t="e">
@@ -23556,11 +24169,11 @@
       </c>
       <c r="X16" s="83"/>
       <c r="Y16" s="133">
-        <v>1.0350000000000001</v>
-      </c>
-      <c r="Z16" s="81" t="e">
+        <v>1.08</v>
+      </c>
+      <c r="Z16" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="72"/>
       <c r="AB16" s="2"/>
@@ -23612,10 +24225,10 @@
         <v>SEKAB3S9Y=ICAP</v>
       </c>
       <c r="Q17" s="82">
-        <v>1.1225000000000001</v>
+        <v>1.1725000000000001</v>
       </c>
       <c r="R17" s="82">
-        <v>1.1725000000000001</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="S17" s="82">
         <v>0</v>
@@ -23625,7 +24238,7 @@
       </c>
       <c r="U17" s="85">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
-        <v>1.1475</v>
+        <v>1.1975</v>
       </c>
       <c r="V17" s="83"/>
       <c r="W17" s="84" t="e">
@@ -23633,11 +24246,11 @@
       </c>
       <c r="X17" s="83"/>
       <c r="Y17" s="133">
-        <v>1.1475</v>
-      </c>
-      <c r="Z17" s="81" t="e">
+        <v>1.1975</v>
+      </c>
+      <c r="Z17" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="72"/>
       <c r="AB17" s="2"/>
@@ -23689,10 +24302,10 @@
         <v>SEKAB3S10Y=ICAP</v>
       </c>
       <c r="Q18" s="82">
-        <v>1.2224999999999999</v>
+        <v>1.2725</v>
       </c>
       <c r="R18" s="82">
-        <v>1.2725</v>
+        <v>1.3225</v>
       </c>
       <c r="S18" s="82">
         <v>0</v>
@@ -23702,7 +24315,7 @@
       </c>
       <c r="U18" s="85">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>1.2475000000000001</v>
+        <v>1.2974999999999999</v>
       </c>
       <c r="V18" s="83"/>
       <c r="W18" s="84" t="e">
@@ -23710,11 +24323,11 @@
       </c>
       <c r="X18" s="83"/>
       <c r="Y18" s="133">
-        <v>1.2475000000000001</v>
-      </c>
-      <c r="Z18" s="81" t="e">
+        <v>1.2974999999999999</v>
+      </c>
+      <c r="Z18" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="72"/>
       <c r="AB18" s="2"/>
@@ -23843,10 +24456,10 @@
         <v>SEKAB3S12Y=ICAP</v>
       </c>
       <c r="Q20" s="82">
-        <v>1.385</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="R20" s="82">
-        <v>1.4450000000000001</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="S20" s="82">
         <v>0</v>
@@ -23856,7 +24469,7 @@
       </c>
       <c r="U20" s="85">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>1.415</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="V20" s="83"/>
       <c r="W20" s="84" t="e">
@@ -23864,11 +24477,11 @@
       </c>
       <c r="X20" s="83"/>
       <c r="Y20" s="133">
-        <v>1.415</v>
-      </c>
-      <c r="Z20" s="81" t="e">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="Z20" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="72"/>
       <c r="AB20" s="2"/>
@@ -24074,10 +24687,10 @@
         <v>SEKAB3S15Y=ICAP</v>
       </c>
       <c r="Q23" s="82">
-        <v>1.5775000000000001</v>
+        <v>1.6274999999999999</v>
       </c>
       <c r="R23" s="82">
-        <v>1.6375</v>
+        <v>1.6875</v>
       </c>
       <c r="S23" s="82">
         <v>0</v>
@@ -24087,7 +24700,7 @@
       </c>
       <c r="U23" s="85">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>1.6074999999999999</v>
+        <v>1.6575</v>
       </c>
       <c r="V23" s="83"/>
       <c r="W23" s="84" t="e">
@@ -24095,11 +24708,11 @@
       </c>
       <c r="X23" s="83"/>
       <c r="Y23" s="133">
-        <v>1.6074999999999999</v>
-      </c>
-      <c r="Z23" s="81" t="e">
+        <v>1.6575</v>
+      </c>
+      <c r="Z23" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="72"/>
       <c r="AB23" s="2"/>
@@ -24459,10 +25072,10 @@
         <v>SEKAB3S20Y=ICAP</v>
       </c>
       <c r="Q28" s="82">
-        <v>1.7575000000000001</v>
+        <v>1.8074999999999999</v>
       </c>
       <c r="R28" s="82">
-        <v>1.8374999999999999</v>
+        <v>1.8875</v>
       </c>
       <c r="S28" s="82">
         <v>0</v>
@@ -24472,7 +25085,7 @@
       </c>
       <c r="U28" s="85">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>1.7974999999999999</v>
+        <v>1.8474999999999999</v>
       </c>
       <c r="V28" s="83"/>
       <c r="W28" s="84" t="e">
@@ -24480,11 +25093,11 @@
       </c>
       <c r="X28" s="83"/>
       <c r="Y28" s="133">
-        <v>1.7974999999999999</v>
-      </c>
-      <c r="Z28" s="81" t="e">
+        <v>1.8474999999999999</v>
+      </c>
+      <c r="Z28" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="72"/>
       <c r="AB28" s="2"/>
@@ -24844,10 +25457,10 @@
         <v>SEKAB3S25Y=ICAP</v>
       </c>
       <c r="Q33" s="82">
-        <v>1.8225</v>
+        <v>1.8725000000000001</v>
       </c>
       <c r="R33" s="82">
-        <v>1.9025000000000001</v>
+        <v>1.9525000000000001</v>
       </c>
       <c r="S33" s="82">
         <v>0</v>
@@ -24857,7 +25470,7 @@
       </c>
       <c r="U33" s="85">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
-        <v>1.8625</v>
+        <v>1.9125000000000001</v>
       </c>
       <c r="V33" s="83"/>
       <c r="W33" s="84" t="e">
@@ -24865,11 +25478,11 @@
       </c>
       <c r="X33" s="83"/>
       <c r="Y33" s="133">
-        <v>1.8625</v>
-      </c>
-      <c r="Z33" s="81" t="e">
+        <v>1.9125000000000001</v>
+      </c>
+      <c r="Z33" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="72"/>
       <c r="AB33" s="2"/>
@@ -25229,10 +25842,10 @@
         <v>SEKAB3S30Y=ICAP</v>
       </c>
       <c r="Q38" s="82">
-        <v>1.8325</v>
+        <v>1.8824999999999998</v>
       </c>
       <c r="R38" s="82">
-        <v>1.9324999999999999</v>
+        <v>1.9824999999999999</v>
       </c>
       <c r="S38" s="82">
         <v>0</v>
@@ -25242,7 +25855,7 @@
       </c>
       <c r="U38" s="85">
         <f>_xll.qlMidSafe($Q38,$R38)</f>
-        <v>1.8824999999999998</v>
+        <v>1.9324999999999999</v>
       </c>
       <c r="V38" s="83"/>
       <c r="W38" s="84" t="e">
@@ -25250,11 +25863,11 @@
       </c>
       <c r="X38" s="83"/>
       <c r="Y38" s="133">
-        <v>1.8824999999999998</v>
-      </c>
-      <c r="Z38" s="81" t="e">
+        <v>1.9324999999999999</v>
+      </c>
+      <c r="Z38" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="72"/>
       <c r="AB38" s="2"/>
@@ -25749,7 +26362,7 @@
       <c r="W3" s="43"/>
       <c r="X3" s="103">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Y3" s="72"/>
       <c r="Z3" s="2"/>
@@ -25784,9 +26397,9 @@
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
       <c r="O4" s="65"/>
-      <c r="P4" s="79" t="e">
-        <f ca="1">_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>#NAME?</v>
+      <c r="P4" s="79" t="str">
+        <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>Updated at 15:26:24</v>
       </c>
       <c r="Q4" s="122" t="s">
         <v>115</v>
@@ -25833,7 +26446,7 @@
       </c>
       <c r="F5" s="16" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S6M_Quote#0002</v>
+        <v>SEK3S6S6M_Quote#0000</v>
       </c>
       <c r="G5" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -25906,7 +26519,7 @@
       </c>
       <c r="F6" s="16" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S1Y_Quote#0001</v>
+        <v>SEK3S6S1Y_Quote#0000</v>
       </c>
       <c r="G6" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -25931,14 +26544,14 @@
         <v>SEK3S6S1Y=ICAP</v>
       </c>
       <c r="Q6" s="159">
-        <v>9.41</v>
+        <v>9.23</v>
       </c>
       <c r="R6" s="159">
         <v>0</v>
       </c>
       <c r="S6" s="154">
         <f>_xll.qlMidEquivalent(Q6,R6)</f>
-        <v>9.41</v>
+        <v>9.23</v>
       </c>
       <c r="T6" s="83"/>
       <c r="U6" s="158">
@@ -25946,11 +26559,11 @@
       </c>
       <c r="V6" s="83"/>
       <c r="W6" s="167">
-        <v>9.41</v>
-      </c>
-      <c r="X6" s="81" t="e">
+        <v>9.23</v>
+      </c>
+      <c r="X6" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>3.9999999999999888E-6</v>
       </c>
       <c r="Y6" s="72"/>
       <c r="Z6" s="2"/>
@@ -25977,7 +26590,7 @@
       </c>
       <c r="F7" s="16" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S15M_Quote#0001</v>
+        <v>SEK3S6S15M_Quote#0000</v>
       </c>
       <c r="G7" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -26048,7 +26661,7 @@
       </c>
       <c r="F8" s="16" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S18M_Quote#0001</v>
+        <v>SEK3S6S18M_Quote#0000</v>
       </c>
       <c r="G8" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -26119,7 +26732,7 @@
       </c>
       <c r="F9" s="16" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S21M_Quote#0001</v>
+        <v>SEK3S6S21M_Quote#0000</v>
       </c>
       <c r="G9" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -26190,7 +26803,7 @@
       </c>
       <c r="F10" s="16" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S2Y_Quote#0001</v>
+        <v>SEK3S6S2Y_Quote#0000</v>
       </c>
       <c r="G10" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -26215,14 +26828,14 @@
         <v>SEK3S6S2Y=ICAP</v>
       </c>
       <c r="Q10" s="159">
-        <v>9.6999999999999993</v>
+        <v>9.61</v>
       </c>
       <c r="R10" s="159">
         <v>0</v>
       </c>
       <c r="S10" s="154">
         <f>_xll.qlMidEquivalent(Q10,R10)</f>
-        <v>9.6999999999999993</v>
+        <v>9.61</v>
       </c>
       <c r="T10" s="83"/>
       <c r="U10" s="158">
@@ -26230,11 +26843,11 @@
       </c>
       <c r="V10" s="83"/>
       <c r="W10" s="167">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="X10" s="81" t="e">
+        <v>9.61</v>
+      </c>
+      <c r="X10" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="72"/>
       <c r="Z10" s="2"/>
@@ -26261,7 +26874,7 @@
       </c>
       <c r="F11" s="16" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S3Y_Quote#0001</v>
+        <v>SEK3S6S3Y_Quote#0000</v>
       </c>
       <c r="G11" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -26286,14 +26899,14 @@
         <v>SEK3S6S3Y=ICAP</v>
       </c>
       <c r="Q11" s="159">
-        <v>9.7899999999999991</v>
+        <v>9.73</v>
       </c>
       <c r="R11" s="159">
         <v>0</v>
       </c>
       <c r="S11" s="154">
         <f>_xll.qlMidEquivalent(Q11,R11)</f>
-        <v>9.7899999999999991</v>
+        <v>9.73</v>
       </c>
       <c r="T11" s="83"/>
       <c r="U11" s="158">
@@ -26301,11 +26914,11 @@
       </c>
       <c r="V11" s="83"/>
       <c r="W11" s="167">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="X11" s="81" t="e">
+        <v>9.73</v>
+      </c>
+      <c r="X11" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999991589E-7</v>
       </c>
       <c r="Y11" s="72"/>
       <c r="Z11" s="2"/>
@@ -26332,7 +26945,7 @@
       </c>
       <c r="F12" s="16" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S4Y_Quote#0001</v>
+        <v>SEK3S6S4Y_Quote#0000</v>
       </c>
       <c r="G12" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -26357,14 +26970,14 @@
         <v>SEK3S6S4Y=ICAP</v>
       </c>
       <c r="Q12" s="159">
-        <v>9.83</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="R12" s="159">
         <v>0</v>
       </c>
       <c r="S12" s="154">
         <f>_xll.qlMidEquivalent(Q12,R12)</f>
-        <v>9.83</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="T12" s="83"/>
       <c r="U12" s="158">
@@ -26372,11 +26985,11 @@
       </c>
       <c r="V12" s="83"/>
       <c r="W12" s="167">
-        <v>9.83</v>
-      </c>
-      <c r="X12" s="81" t="e">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="X12" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="72"/>
       <c r="Z12" s="2"/>
@@ -26403,7 +27016,7 @@
       </c>
       <c r="F13" s="16" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S5Y_Quote#0001</v>
+        <v>SEK3S6S5Y_Quote#0000</v>
       </c>
       <c r="G13" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -26428,14 +27041,14 @@
         <v>SEK3S6S5Y=ICAP</v>
       </c>
       <c r="Q13" s="159">
-        <v>9.83</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="R13" s="159">
         <v>0</v>
       </c>
       <c r="S13" s="154">
         <f>_xll.qlMidEquivalent(Q13,R13)</f>
-        <v>9.83</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="T13" s="83"/>
       <c r="U13" s="158">
@@ -26443,11 +27056,11 @@
       </c>
       <c r="V13" s="83"/>
       <c r="W13" s="167">
-        <v>9.83</v>
-      </c>
-      <c r="X13" s="81" t="e">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="X13" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999991589E-7</v>
       </c>
       <c r="Y13" s="72"/>
       <c r="Z13" s="2"/>
@@ -26474,7 +27087,7 @@
       </c>
       <c r="F14" s="16" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S6Y_Quote#0001</v>
+        <v>SEK3S6S6Y_Quote#0000</v>
       </c>
       <c r="G14" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -26499,14 +27112,14 @@
         <v>SEK3S6S6Y=ICAP</v>
       </c>
       <c r="Q14" s="159">
-        <v>9.82</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="R14" s="159">
         <v>0</v>
       </c>
       <c r="S14" s="154">
         <f>_xll.qlMidEquivalent(Q14,R14)</f>
-        <v>9.82</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="T14" s="83"/>
       <c r="U14" s="158" t="e">
@@ -26514,11 +27127,11 @@
       </c>
       <c r="V14" s="83"/>
       <c r="W14" s="167">
-        <v>9.82</v>
-      </c>
-      <c r="X14" s="81" t="e">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="X14" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="72"/>
       <c r="Z14" s="2"/>
@@ -26545,7 +27158,7 @@
       </c>
       <c r="F15" s="16" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S7Y_Quote#0001</v>
+        <v>SEK3S6S7Y_Quote#0000</v>
       </c>
       <c r="G15" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -26570,14 +27183,14 @@
         <v>SEK3S6S7Y=ICAP</v>
       </c>
       <c r="Q15" s="159">
-        <v>9.8000000000000007</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="R15" s="159">
         <v>0</v>
       </c>
       <c r="S15" s="154">
         <f>_xll.qlMidEquivalent(Q15,R15)</f>
-        <v>9.8000000000000007</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="T15" s="83"/>
       <c r="U15" s="158">
@@ -26585,11 +27198,11 @@
       </c>
       <c r="V15" s="83"/>
       <c r="W15" s="167">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="X15" s="81" t="e">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="X15" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999991589E-7</v>
       </c>
       <c r="Y15" s="72"/>
       <c r="Z15" s="2"/>
@@ -26616,7 +27229,7 @@
       </c>
       <c r="F16" s="16" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S8Y_Quote#0001</v>
+        <v>SEK3S6S8Y_Quote#0000</v>
       </c>
       <c r="G16" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -26641,14 +27254,14 @@
         <v>SEK3S6S8Y=ICAP</v>
       </c>
       <c r="Q16" s="159">
-        <v>9.7799999999999994</v>
+        <v>9.76</v>
       </c>
       <c r="R16" s="159">
         <v>0</v>
       </c>
       <c r="S16" s="154">
         <f>_xll.qlMidEquivalent(Q16,R16)</f>
-        <v>9.7799999999999994</v>
+        <v>9.76</v>
       </c>
       <c r="T16" s="83"/>
       <c r="U16" s="158" t="e">
@@ -26656,11 +27269,11 @@
       </c>
       <c r="V16" s="83"/>
       <c r="W16" s="167">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="X16" s="81" t="e">
+        <v>9.76</v>
+      </c>
+      <c r="X16" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.0000000000000243E-6</v>
       </c>
       <c r="Y16" s="72"/>
       <c r="Z16" s="2"/>
@@ -26687,7 +27300,7 @@
       </c>
       <c r="F17" s="16" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S9Y_Quote#0001</v>
+        <v>SEK3S6S9Y_Quote#0000</v>
       </c>
       <c r="G17" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -26712,14 +27325,14 @@
         <v>SEK3S6S9Y=ICAP</v>
       </c>
       <c r="Q17" s="159">
-        <v>9.76</v>
+        <v>9.73</v>
       </c>
       <c r="R17" s="159">
         <v>0</v>
       </c>
       <c r="S17" s="154">
         <f>_xll.qlMidEquivalent(Q17,R17)</f>
-        <v>9.76</v>
+        <v>9.73</v>
       </c>
       <c r="T17" s="83"/>
       <c r="U17" s="158" t="e">
@@ -26727,11 +27340,11 @@
       </c>
       <c r="V17" s="83"/>
       <c r="W17" s="167">
-        <v>9.76</v>
-      </c>
-      <c r="X17" s="81" t="e">
+        <v>9.73</v>
+      </c>
+      <c r="X17" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="72"/>
       <c r="Z17" s="2"/>
@@ -26758,7 +27371,7 @@
       </c>
       <c r="F18" s="16" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S10Y_Quote#0001</v>
+        <v>SEK3S6S10Y_Quote#0000</v>
       </c>
       <c r="G18" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -26783,14 +27396,14 @@
         <v>SEK3S6S10Y=ICAP</v>
       </c>
       <c r="Q18" s="159">
-        <v>9.69</v>
+        <v>9.67</v>
       </c>
       <c r="R18" s="159">
         <v>0</v>
       </c>
       <c r="S18" s="154">
         <f>_xll.qlMidEquivalent(Q18,R18)</f>
-        <v>9.69</v>
+        <v>9.67</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="158">
@@ -26798,11 +27411,11 @@
       </c>
       <c r="V18" s="83"/>
       <c r="W18" s="167">
-        <v>9.69</v>
-      </c>
-      <c r="X18" s="81" t="e">
+        <v>9.67</v>
+      </c>
+      <c r="X18" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999991589E-7</v>
       </c>
       <c r="Y18" s="72"/>
       <c r="Z18" s="2"/>
@@ -26829,7 +27442,7 @@
       </c>
       <c r="F19" s="16" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S11Y_Quote#0001</v>
+        <v>SEK3S6S11Y_Quote#0000</v>
       </c>
       <c r="G19" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -26900,7 +27513,7 @@
       </c>
       <c r="F20" s="16" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S12Y_Quote#0001</v>
+        <v>SEK3S6S12Y_Quote#0000</v>
       </c>
       <c r="G20" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -26925,14 +27538,14 @@
         <v>SEK3S6S12Y=ICAP</v>
       </c>
       <c r="Q20" s="159">
-        <v>9.41</v>
+        <v>9.39</v>
       </c>
       <c r="R20" s="159">
         <v>0</v>
       </c>
       <c r="S20" s="154">
         <f>_xll.qlMidEquivalent(Q20,R20)</f>
-        <v>9.41</v>
+        <v>9.39</v>
       </c>
       <c r="T20" s="83"/>
       <c r="U20" s="158">
@@ -26940,11 +27553,11 @@
       </c>
       <c r="V20" s="83"/>
       <c r="W20" s="167">
-        <v>9.41</v>
-      </c>
-      <c r="X20" s="81" t="e">
+        <v>9.39</v>
+      </c>
+      <c r="X20" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="72"/>
       <c r="Z20" s="2"/>
@@ -26971,7 +27584,7 @@
       </c>
       <c r="F21" s="16" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S13Y_Quote#0001</v>
+        <v>SEK3S6S13Y_Quote#0000</v>
       </c>
       <c r="G21" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -27042,7 +27655,7 @@
       </c>
       <c r="F22" s="16" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S14Y_Quote#0001</v>
+        <v>SEK3S6S14Y_Quote#0000</v>
       </c>
       <c r="G22" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -27113,7 +27726,7 @@
       </c>
       <c r="F23" s="16" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S15Y_Quote#0001</v>
+        <v>SEK3S6S15Y_Quote#0000</v>
       </c>
       <c r="G23" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -27138,14 +27751,14 @@
         <v>SEK3S6S15Y=ICAP</v>
       </c>
       <c r="Q23" s="159">
-        <v>8.7100000000000009</v>
+        <v>8.69</v>
       </c>
       <c r="R23" s="159">
         <v>0</v>
       </c>
       <c r="S23" s="154">
         <f>_xll.qlMidEquivalent(Q23,R23)</f>
-        <v>8.7100000000000009</v>
+        <v>8.69</v>
       </c>
       <c r="T23" s="83"/>
       <c r="U23" s="158">
@@ -27153,11 +27766,11 @@
       </c>
       <c r="V23" s="83"/>
       <c r="W23" s="167">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="X23" s="81" t="e">
+        <v>8.69</v>
+      </c>
+      <c r="X23" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="72"/>
       <c r="Z23" s="2"/>
@@ -27184,7 +27797,7 @@
       </c>
       <c r="F24" s="16" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S16Y_Quote#0001</v>
+        <v>SEK3S6S16Y_Quote#0000</v>
       </c>
       <c r="G24" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -27255,7 +27868,7 @@
       </c>
       <c r="F25" s="16" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S17Y_Quote#0001</v>
+        <v>SEK3S6S17Y_Quote#0000</v>
       </c>
       <c r="G25" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -27326,7 +27939,7 @@
       </c>
       <c r="F26" s="16" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S18Y_Quote#0001</v>
+        <v>SEK3S6S18Y_Quote#0000</v>
       </c>
       <c r="G26" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -27397,7 +28010,7 @@
       </c>
       <c r="F27" s="16" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S19Y_Quote#0001</v>
+        <v>SEK3S6S19Y_Quote#0000</v>
       </c>
       <c r="G27" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -27468,7 +28081,7 @@
       </c>
       <c r="F28" s="16" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S20Y_Quote#0001</v>
+        <v>SEK3S6S20Y_Quote#0000</v>
       </c>
       <c r="G28" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -27510,9 +28123,9 @@
       <c r="W28" s="167">
         <v>7.7</v>
       </c>
-      <c r="X28" s="81" t="e">
+      <c r="X28" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F28,W28/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.0000000000000243E-6</v>
       </c>
       <c r="Y28" s="72"/>
       <c r="Z28" s="2"/>
@@ -27539,7 +28152,7 @@
       </c>
       <c r="F29" s="16" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S21Y_Quote#0001</v>
+        <v>SEK3S6S21Y_Quote#0000</v>
       </c>
       <c r="G29" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -27610,7 +28223,7 @@
       </c>
       <c r="F30" s="16" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S22Y_Quote#0001</v>
+        <v>SEK3S6S22Y_Quote#0000</v>
       </c>
       <c r="G30" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -27681,7 +28294,7 @@
       </c>
       <c r="F31" s="16" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S23Y_Quote#0001</v>
+        <v>SEK3S6S23Y_Quote#0000</v>
       </c>
       <c r="G31" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -27752,7 +28365,7 @@
       </c>
       <c r="F32" s="16" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S24Y_Quote#0001</v>
+        <v>SEK3S6S24Y_Quote#0000</v>
       </c>
       <c r="G32" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -27823,7 +28436,7 @@
       </c>
       <c r="F33" s="16" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S25Y_Quote#0001</v>
+        <v>SEK3S6S25Y_Quote#0000</v>
       </c>
       <c r="G33" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -27865,9 +28478,9 @@
       <c r="W33" s="167">
         <v>6.99</v>
       </c>
-      <c r="X33" s="81" t="e">
+      <c r="X33" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F33,W33/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="72"/>
       <c r="Z33" s="2"/>
@@ -27894,7 +28507,7 @@
       </c>
       <c r="F34" s="16" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S26Y_Quote#0001</v>
+        <v>SEK3S6S26Y_Quote#0000</v>
       </c>
       <c r="G34" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -27965,7 +28578,7 @@
       </c>
       <c r="F35" s="16" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S27Y_Quote#0001</v>
+        <v>SEK3S6S27Y_Quote#0000</v>
       </c>
       <c r="G35" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -28036,7 +28649,7 @@
       </c>
       <c r="F36" s="16" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S28Y_Quote#0001</v>
+        <v>SEK3S6S28Y_Quote#0000</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -28107,7 +28720,7 @@
       </c>
       <c r="F37" s="16" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S29Y_Quote#0001</v>
+        <v>SEK3S6S29Y_Quote#0000</v>
       </c>
       <c r="G37" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -28178,7 +28791,7 @@
       </c>
       <c r="F38" s="16" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S30Y_Quote#0001</v>
+        <v>SEK3S6S30Y_Quote#0000</v>
       </c>
       <c r="G38" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -28220,9 +28833,9 @@
       <c r="W38" s="167">
         <v>6.41</v>
       </c>
-      <c r="X38" s="81" t="e">
+      <c r="X38" s="81">
         <f>_xll.qlSimpleQuoteSetValue(F38,W38/10000,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="72"/>
       <c r="Z38" s="2"/>
@@ -28249,7 +28862,7 @@
       </c>
       <c r="F39" s="16" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S35Y_Quote#0001</v>
+        <v>SEK3S6S35Y_Quote#0000</v>
       </c>
       <c r="G39" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -28320,7 +28933,7 @@
       </c>
       <c r="F40" s="16" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S40Y_Quote#0001</v>
+        <v>SEK3S6S40Y_Quote#0000</v>
       </c>
       <c r="G40" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -28391,7 +29004,7 @@
       </c>
       <c r="F41" s="16" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S50Y_Quote#0001</v>
+        <v>SEK3S6S50Y_Quote#0000</v>
       </c>
       <c r="G41" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -28462,7 +29075,7 @@
       </c>
       <c r="F42" s="16" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>SEK3S6S60Y_Quote#0001</v>
+        <v>SEK3S6S60Y_Quote#0000</v>
       </c>
       <c r="G42" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>

--- a/QuantLibXL/Data2/XLS/SEK_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19095" windowHeight="12030" tabRatio="723"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="19095" windowHeight="11970" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -686,10 +686,10 @@
     <t>ICAP SCANDINAVIA</t>
   </si>
   <si>
-    <t>Record not service permissioned</t>
+    <t>1S</t>
   </si>
   <si>
-    <t>1S</t>
+    <t>SIOR= is a chain. It must be requested separately.</t>
   </si>
 </sst>
 </file>
@@ -1803,46 +1803,46 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 15:58:39</v>
+        <v>Updated at 10:28:55</v>
         <stp/>
-        <stp>{08D79C17-9CD8-4067-AE57-140E033EFA58}</stp>
+        <stp>{5CD90A45-EC28-4749-84DA-4A6D4BF86F4E}</stp>
+        <tr r="S3" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:28:55</v>
+        <stp/>
+        <stp>{8D200708-481F-4AC1-A682-4A403E8ADF16}</stp>
+        <tr r="P5" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:28:55</v>
+        <stp/>
+        <stp>{0F5F8FE7-2BF8-4E1A-ADEC-A0D3CBF8D3A1}</stp>
+        <tr r="K5" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 10:28:55</v>
+        <stp/>
+        <stp>{C29D71BF-D042-49A7-B84D-F80E4B127C04}</stp>
         <tr r="P5" s="67"/>
       </tp>
       <tp t="s">
-        <v>Updated at 16:13:39</v>
+        <v>Updated at 10:28:55</v>
         <stp/>
-        <stp>{8D2FB75B-4C01-4E0A-9C64-9CC2F436AF43}</stp>
-        <tr r="O6" s="22"/>
+        <stp>{D39C5586-B8F5-41B3-A554-5DCC1ECAFDCA}</stp>
+        <tr r="P5" s="69"/>
       </tp>
       <tp t="s">
-        <v>Updated at 16:13:39</v>
+        <v>Updated at 10:28:55</v>
         <stp/>
-        <stp>{C61C1489-6DB5-49CB-B865-F751A4B07A25}</stp>
-        <tr r="P5" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:18:22</v>
-        <stp/>
-        <stp>{6E9F927C-8FF5-439A-AA98-D09B8C6FB339}</stp>
-        <tr r="K5" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:39:35</v>
-        <stp/>
-        <stp>{0693C6B0-5607-484D-BB27-6421866A4022}</stp>
+        <stp>{1A58FEF8-A0A5-4E72-BC6F-9C5ACCF3DA87}</stp>
         <tr r="N5" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:18:22</v>
+        <v>Updated at 10:31:02</v>
         <stp/>
-        <stp>{3A44D5AF-05E8-41BF-9295-7A69ED7E5C98}</stp>
-        <tr r="S3" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:18:22</v>
-        <stp/>
-        <stp>{89E24D02-D2EB-4741-A666-400D172BE899}</stp>
-        <tr r="P5" s="69"/>
+        <stp>{8ED45A6D-BE69-4ED0-A809-93EA1EE9E4F5}</stp>
+        <tr r="O6" s="22"/>
       </tp>
     </main>
   </volType>
@@ -2158,7 +2158,7 @@
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="72" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2014 09:24:39</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov 18 2014 09:26:00</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -2166,14 +2166,14 @@
         <v>6</v>
       </c>
       <c r="D3" s="75">
-        <v>42016.637326388889</v>
+        <v>42024.435601851852</v>
       </c>
       <c r="H3" s="114" t="s">
         <v>132</v>
       </c>
       <c r="I3" s="77">
         <f>_xll.ohTrigger(Deposits!S4,FRA3M!X4,OIS!Y5,Swaps3M!Z4,BasisSwap3M6M!Z4,BasisSwap1M3M!Z4)</f>
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="I4" s="78">
         <f>_xll.ohTrigger(Stibor!W5:W10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D8" s="85">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42016</v>
+        <v>42025</v>
       </c>
       <c r="E8" s="105"/>
       <c r="G8" s="97"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="S3" s="183" t="str">
         <f>_xll.RData(S4:S10,T3:U3,"RTFEED:IDN",,,T4)</f>
-        <v>Updated at 15:18:22</v>
+        <v>Updated at 10:28:55</v>
       </c>
       <c r="T3" s="177" t="s">
         <v>137</v>
@@ -2694,10 +2694,10 @@
         <v>181</v>
       </c>
       <c r="T4" s="178" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U4" s="187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V4" s="178" t="b">
         <f>IF(AND(ISNUMBER($U4),$U4&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2770,10 +2770,10 @@
         <v>STISEKTNDFI=</v>
       </c>
       <c r="T5" s="178">
-        <v>42013</v>
+        <v>42023</v>
       </c>
       <c r="U5" s="187">
-        <v>7.0999999999999994E-2</v>
+        <v>6.5999999999999989E-2</v>
       </c>
       <c r="V5" s="178" t="b">
         <f>IF(AND(ISNUMBER($U5),$U5&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2783,9 +2783,9 @@
         <f>IF(U5,_xll.qlIndexAddFixings(R5,T5,U5/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="X5" s="181">
+      <c r="X5" s="181" t="e">
         <f>_xll.qlQuoteValue(L5)</f>
-        <v>7.0999999999999991E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y5" s="8"/>
     </row>
@@ -2844,10 +2844,10 @@
         <v>STISEK1WDFI=</v>
       </c>
       <c r="T6" s="178">
-        <v>42013</v>
+        <v>42023</v>
       </c>
       <c r="U6" s="187">
-        <v>9.8000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="V6" s="178" t="b">
         <f>IF(AND(ISNUMBER($U6),$U6&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2857,9 +2857,9 @@
         <f>IF(U6,_xll.qlIndexAddFixings(R6,T6,U6/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="X6" s="181" t="e">
+      <c r="X6" s="181">
         <f>_xll.qlQuoteValue(L6)</f>
-        <v>#NUM!</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="Y6" s="8"/>
     </row>
@@ -2921,10 +2921,10 @@
         <v>STISEK1MDFI=</v>
       </c>
       <c r="T7" s="178">
-        <v>42013</v>
+        <v>42023</v>
       </c>
       <c r="U7" s="187">
-        <v>0.151</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="V7" s="178" t="b">
         <f t="shared" ref="V7:V10" si="5">IF(AND(ISNUMBER($U7),$U7&lt;&gt;0%),TRUE,FALSE)</f>
@@ -2995,10 +2995,10 @@
         <v>STISEK2MDFI=</v>
       </c>
       <c r="T8" s="178">
-        <v>42013</v>
+        <v>42023</v>
       </c>
       <c r="U8" s="187">
-        <v>0.191</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="V8" s="178" t="b">
         <f t="shared" si="5"/>
@@ -3072,10 +3072,10 @@
         <v>STISEK3MDFI=</v>
       </c>
       <c r="T9" s="178">
-        <v>42013</v>
+        <v>42023</v>
       </c>
       <c r="U9" s="187">
-        <v>0.255</v>
+        <v>0.20299999999999999</v>
       </c>
       <c r="V9" s="178" t="b">
         <f t="shared" si="5"/>
@@ -3149,10 +3149,10 @@
         <v>STISEK6MDFI=</v>
       </c>
       <c r="T10" s="179">
-        <v>42013</v>
+        <v>42023</v>
       </c>
       <c r="U10" s="187">
-        <v>0.33799999999999997</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="V10" s="179" t="b">
         <f t="shared" si="5"/>
@@ -4470,7 +4470,7 @@
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4561,7 +4561,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="33">
         <f>_xll.ohTrigger(S6:S23)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T4" s="34"/>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="J5" s="166"/>
       <c r="K5" s="176" t="str">
         <f>_xll.RData(K7:K23,L5:M5,,ReutersRtMode,,L7)</f>
-        <v>Updated at 15:18:22</v>
+        <v>Updated at 10:28:55</v>
       </c>
       <c r="L5" s="167" t="s">
         <v>106</v>
@@ -4680,14 +4680,14 @@
         <v>STISEKTNDFI=</v>
       </c>
       <c r="L7" s="153">
-        <v>7.0999999999999994E-2</v>
+        <v>6.5999999999999989E-2</v>
       </c>
       <c r="M7" s="153">
         <v>0</v>
       </c>
       <c r="N7" s="47">
         <f>_xll.qlMidEquivalent(L7,M7)</f>
-        <v>7.0999999999999994E-2</v>
+        <v>6.5999999999999989E-2</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="47">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="47">
-        <v>7.0999999999999994E-2</v>
+        <v>6.5999999999999989E-2</v>
       </c>
       <c r="S7" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E7,R7/100,Trigger)</f>
@@ -4778,14 +4778,14 @@
         <v>STISEK1WDFI=</v>
       </c>
       <c r="L9" s="153">
-        <v>9.8000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M9" s="153">
         <v>0</v>
       </c>
       <c r="N9" s="47">
         <f>_xll.qlMidEquivalent(L9,M9)</f>
-        <v>9.8000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="47">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="47">
-        <v>9.8000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="S9" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E9,R9/100,Trigger)</f>
@@ -4925,14 +4925,14 @@
         <v>STISEK1MDFI=</v>
       </c>
       <c r="L12" s="153">
-        <v>0.151</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="M12" s="153">
         <v>0</v>
       </c>
       <c r="N12" s="47">
         <f>_xll.qlMidEquivalent(L12,M12)</f>
-        <v>0.151</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="154">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="Q12" s="32"/>
       <c r="R12" s="47">
-        <v>0.151</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="S12" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E12,R12/100,Trigger)</f>
@@ -4974,14 +4974,14 @@
         <v>STISEK2MDFI=</v>
       </c>
       <c r="L13" s="153">
-        <v>0.191</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="M13" s="153">
         <v>0</v>
       </c>
       <c r="N13" s="47">
         <f>_xll.qlMidEquivalent(L13,M13)</f>
-        <v>0.191</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="154">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="Q13" s="32"/>
       <c r="R13" s="47">
-        <v>0.191</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="S13" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E13,R13/100,Trigger)</f>
@@ -5023,14 +5023,14 @@
         <v>STISEK3MDFI=</v>
       </c>
       <c r="L14" s="153">
-        <v>0.255</v>
+        <v>0.20299999999999999</v>
       </c>
       <c r="M14" s="153">
         <v>0</v>
       </c>
       <c r="N14" s="47">
         <f>_xll.qlMidEquivalent(L14,M14)</f>
-        <v>0.255</v>
+        <v>0.20299999999999999</v>
       </c>
       <c r="O14" s="32"/>
       <c r="P14" s="154">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="Q14" s="32"/>
       <c r="R14" s="47">
-        <v>0.255</v>
+        <v>0.20299999999999999</v>
       </c>
       <c r="S14" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E14,R14/100,Trigger)</f>
@@ -5170,14 +5170,14 @@
         <v>STISEK6MDFI=</v>
       </c>
       <c r="L17" s="153">
-        <v>0.33799999999999997</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="M17" s="153">
         <v>0</v>
       </c>
       <c r="N17" s="47">
         <f>_xll.qlMidEquivalent(L17,M17)</f>
-        <v>0.33799999999999997</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="154">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="47">
-        <v>0.33799999999999997</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="S17" s="48">
         <f>_xll.qlSimpleQuoteSetValue(E17,R17/100,Trigger)</f>
@@ -5540,7 +5540,7 @@
   <dimension ref="B1:AF21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5664,7 +5664,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="33">
         <f>_xll.ohTrigger(X6:X20)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y4" s="34"/>
       <c r="AA4" s="28"/>
@@ -5695,7 +5695,7 @@
       <c r="M5" s="175"/>
       <c r="N5" s="176" t="str">
         <f>_xll.RData(N6:N20,O5:R5,"RTFEED:IDN",ReutersRtMode,,O6)</f>
-        <v>Updated at 15:39:35</v>
+        <v>Updated at 10:28:55</v>
       </c>
       <c r="O5" s="168" t="s">
         <v>106</v>
@@ -5778,10 +5778,10 @@
         <v>SEK3F1=HBCO</v>
       </c>
       <c r="O6" s="39">
-        <v>0.21249999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="P6" s="39">
-        <v>0.23250000000000001</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="Q6" s="37">
         <v>0</v>
@@ -5790,8 +5790,8 @@
         <v>0</v>
       </c>
       <c r="S6" s="39">
-        <f>_xll.qlMidEquivalent($O6,$P6)</f>
-        <v>0.2225</v>
+        <f>IF(ISERROR(AVERAGE(O6,P6)),#NUM!,AVERAGE(O6,P6))</f>
+        <v>0.15999999999999998</v>
       </c>
       <c r="T6" s="32"/>
       <c r="U6" s="40">
@@ -5800,7 +5800,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="40">
         <f t="array" ref="W6:W20">QuoteLive</f>
-        <v>0.2225</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="X6" s="41">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/100,Trigger)</f>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="AD6" s="199">
         <f>100-W6</f>
-        <v>99.777500000000003</v>
+        <v>99.84</v>
       </c>
       <c r="AE6" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC6,AD6,Trigger)</f>
@@ -5864,10 +5864,10 @@
         <v>SEK3F2=HBCO</v>
       </c>
       <c r="O7" s="46">
-        <v>0.185</v>
+        <v>0.1125</v>
       </c>
       <c r="P7" s="46">
-        <v>0.20499999999999999</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="Q7" s="44">
         <v>0</v>
@@ -5876,8 +5876,8 @@
         <v>0</v>
       </c>
       <c r="S7" s="46">
-        <f>_xll.qlMidEquivalent($O7,$P7)</f>
-        <v>0.19500000000000001</v>
+        <f t="shared" ref="S7:S20" si="4">IF(ISERROR(AVERAGE(O7,P7)),#NUM!,AVERAGE(O7,P7))</f>
+        <v>0.1225</v>
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="47">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="V7" s="32"/>
       <c r="W7" s="47">
-        <v>0.19500000000000001</v>
+        <v>0.1225</v>
       </c>
       <c r="X7" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/100,Trigger)</f>
@@ -5894,7 +5894,7 @@
       <c r="Y7" s="34"/>
       <c r="AA7" s="28"/>
       <c r="AB7" s="43" t="str">
-        <f t="shared" ref="AB7:AB20" si="4">"FUT"&amp;E7</f>
+        <f t="shared" ref="AB7:AB20" si="5">"FUT"&amp;E7</f>
         <v>FUTSEK3F2_Quote</v>
       </c>
       <c r="AC7" s="43" t="str">
@@ -5902,8 +5902,8 @@
         <v>FUTSEK3F2_Quote#0000</v>
       </c>
       <c r="AD7" s="200">
-        <f t="shared" ref="AD7:AD20" si="5">100-W7</f>
-        <v>99.805000000000007</v>
+        <f t="shared" ref="AD7:AD20" si="6">100-W7</f>
+        <v>99.877499999999998</v>
       </c>
       <c r="AE7" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC7,AD7,Trigger)</f>
@@ -5949,10 +5949,10 @@
         <v>SEK3F3=HBCO</v>
       </c>
       <c r="O8" s="46">
-        <v>0.17499999999999999</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="P8" s="46">
-        <v>0.19500000000000001</v>
+        <v>0.12250000000000001</v>
       </c>
       <c r="Q8" s="44">
         <v>0</v>
@@ -5961,8 +5961,8 @@
         <v>0</v>
       </c>
       <c r="S8" s="46">
-        <f>_xll.qlMidEquivalent($O8,$P8)</f>
-        <v>0.185</v>
+        <f t="shared" si="4"/>
+        <v>0.1125</v>
       </c>
       <c r="T8" s="32"/>
       <c r="U8" s="47">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="V8" s="32"/>
       <c r="W8" s="47">
-        <v>0.185</v>
+        <v>0.1125</v>
       </c>
       <c r="X8" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/100,Trigger)</f>
@@ -5979,7 +5979,7 @@
       <c r="Y8" s="34"/>
       <c r="AA8" s="28"/>
       <c r="AB8" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F3_Quote</v>
       </c>
       <c r="AC8" s="43" t="str">
@@ -5987,8 +5987,8 @@
         <v>FUTSEK3F3_Quote#0000</v>
       </c>
       <c r="AD8" s="200">
-        <f t="shared" si="5"/>
-        <v>99.814999999999998</v>
+        <f t="shared" si="6"/>
+        <v>99.887500000000003</v>
       </c>
       <c r="AE8" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC8,AD8,Trigger)</f>
@@ -6034,10 +6034,10 @@
         <v>SEK3F4=HBCO</v>
       </c>
       <c r="O9" s="46">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="P9" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="Q9" s="44">
         <v>0</v>
@@ -6046,8 +6046,8 @@
         <v>0</v>
       </c>
       <c r="S9" s="46">
-        <f>_xll.qlMidEquivalent($O9,$P9)</f>
-        <v>0.19</v>
+        <f t="shared" si="4"/>
+        <v>0.11</v>
       </c>
       <c r="T9" s="32"/>
       <c r="U9" s="47">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="V9" s="32"/>
       <c r="W9" s="47">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="X9" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F9,W9/100,Trigger)</f>
@@ -6064,7 +6064,7 @@
       <c r="Y9" s="34"/>
       <c r="AA9" s="28"/>
       <c r="AB9" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F4_Quote</v>
       </c>
       <c r="AC9" s="43" t="str">
@@ -6072,8 +6072,8 @@
         <v>FUTSEK3F4_Quote#0000</v>
       </c>
       <c r="AD9" s="200">
-        <f t="shared" si="5"/>
-        <v>99.81</v>
+        <f t="shared" si="6"/>
+        <v>99.89</v>
       </c>
       <c r="AE9" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC9,AD9,Trigger)</f>
@@ -6119,10 +6119,10 @@
         <v>SEK3F5=HBCO</v>
       </c>
       <c r="O10" s="46">
-        <v>0.19500000000000001</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="P10" s="46">
-        <v>0.22500000000000001</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="Q10" s="44">
         <v>0</v>
@@ -6131,8 +6131,8 @@
         <v>0</v>
       </c>
       <c r="S10" s="46">
-        <f>_xll.qlMidEquivalent($O10,$P10)</f>
-        <v>0.21000000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.11749999999999999</v>
       </c>
       <c r="T10" s="32"/>
       <c r="U10" s="47">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="V10" s="32"/>
       <c r="W10" s="47">
-        <v>0.21000000000000002</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="X10" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/100,Trigger)</f>
@@ -6149,7 +6149,7 @@
       <c r="Y10" s="34"/>
       <c r="AA10" s="28"/>
       <c r="AB10" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F5_Quote</v>
       </c>
       <c r="AC10" s="43" t="str">
@@ -6157,8 +6157,8 @@
         <v>FUTSEK3F5_Quote#0000</v>
       </c>
       <c r="AD10" s="200">
-        <f t="shared" si="5"/>
-        <v>99.79</v>
+        <f t="shared" si="6"/>
+        <v>99.882499999999993</v>
       </c>
       <c r="AE10" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC10,AD10,Trigger)</f>
@@ -6204,10 +6204,10 @@
         <v>SEK3F6=HBCO</v>
       </c>
       <c r="O11" s="46">
-        <v>0.22500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P11" s="46">
-        <v>0.255</v>
+        <v>0.15</v>
       </c>
       <c r="Q11" s="44">
         <v>0</v>
@@ -6216,8 +6216,8 @@
         <v>0</v>
       </c>
       <c r="S11" s="46">
-        <f>_xll.qlMidEquivalent($O11,$P11)</f>
-        <v>0.24</v>
+        <f t="shared" si="4"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T11" s="32"/>
       <c r="U11" s="47">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="V11" s="32"/>
       <c r="W11" s="47">
-        <v>0.24</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X11" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/100,Trigger)</f>
@@ -6234,7 +6234,7 @@
       <c r="Y11" s="34"/>
       <c r="AA11" s="28"/>
       <c r="AB11" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F6_Quote</v>
       </c>
       <c r="AC11" s="43" t="str">
@@ -6242,8 +6242,8 @@
         <v>FUTSEK3F6_Quote#0000</v>
       </c>
       <c r="AD11" s="200">
-        <f t="shared" si="5"/>
-        <v>99.76</v>
+        <f t="shared" si="6"/>
+        <v>99.864999999999995</v>
       </c>
       <c r="AE11" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC11,AD11,Trigger)</f>
@@ -6289,10 +6289,10 @@
         <v>SEK3F7=HBCO</v>
       </c>
       <c r="O12" s="46">
-        <v>0.26749999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="P12" s="46">
-        <v>0.29749999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="Q12" s="44">
         <v>0</v>
@@ -6301,8 +6301,8 @@
         <v>0</v>
       </c>
       <c r="S12" s="46">
-        <f>_xll.qlMidEquivalent($O12,$P12)</f>
-        <v>0.28249999999999997</v>
+        <f t="shared" si="4"/>
+        <v>0.17499999999999999</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" s="47">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="47">
-        <v>0.28249999999999997</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="X12" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/100,Trigger)</f>
@@ -6319,7 +6319,7 @@
       <c r="Y12" s="34"/>
       <c r="AA12" s="28"/>
       <c r="AB12" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F7_Quote</v>
       </c>
       <c r="AC12" s="43" t="str">
@@ -6327,8 +6327,8 @@
         <v>FUTSEK3F7_Quote#0000</v>
       </c>
       <c r="AD12" s="200">
-        <f t="shared" si="5"/>
-        <v>99.717500000000001</v>
+        <f t="shared" si="6"/>
+        <v>99.825000000000003</v>
       </c>
       <c r="AE12" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC12,AD12,Trigger)</f>
@@ -6374,10 +6374,10 @@
         <v>SEK3F8=HBCO</v>
       </c>
       <c r="O13" s="46">
-        <v>0.32500000000000001</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="P13" s="46">
-        <v>0.35499999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="Q13" s="44">
         <v>0</v>
@@ -6386,8 +6386,8 @@
         <v>0</v>
       </c>
       <c r="S13" s="46">
-        <f>_xll.qlMidEquivalent($O13,$P13)</f>
-        <v>0.33999999999999997</v>
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="T13" s="32"/>
       <c r="U13" s="47">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="V13" s="32"/>
       <c r="W13" s="47">
-        <v>0.33999999999999997</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="X13" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/100,Trigger)</f>
@@ -6404,7 +6404,7 @@
       <c r="Y13" s="34"/>
       <c r="AA13" s="28"/>
       <c r="AB13" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F8_Quote</v>
       </c>
       <c r="AC13" s="43" t="str">
@@ -6412,8 +6412,8 @@
         <v>FUTSEK3F8_Quote#0000</v>
       </c>
       <c r="AD13" s="200">
-        <f t="shared" si="5"/>
-        <v>99.66</v>
+        <f t="shared" si="6"/>
+        <v>99.775000000000006</v>
       </c>
       <c r="AE13" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC13,AD13,Trigger)</f>
@@ -6459,10 +6459,10 @@
         <v>SEK3F9=HBCO</v>
       </c>
       <c r="O14" s="46">
-        <v>0.38750000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="P14" s="46">
-        <v>0.42750000000000005</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="Q14" s="44">
         <v>0</v>
@@ -6471,8 +6471,8 @@
         <v>0</v>
       </c>
       <c r="S14" s="46">
-        <f>_xll.qlMidEquivalent($O14,$P14)</f>
-        <v>0.40750000000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.28249999999999997</v>
       </c>
       <c r="T14" s="32"/>
       <c r="U14" s="47">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="V14" s="32"/>
       <c r="W14" s="47">
-        <v>0.40750000000000003</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="X14" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/100,Trigger)</f>
@@ -6489,7 +6489,7 @@
       <c r="Y14" s="34"/>
       <c r="AA14" s="28"/>
       <c r="AB14" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F9_Quote</v>
       </c>
       <c r="AC14" s="43" t="str">
@@ -6497,8 +6497,8 @@
         <v>FUTSEK3F9_Quote#0000</v>
       </c>
       <c r="AD14" s="200">
-        <f t="shared" si="5"/>
-        <v>99.592500000000001</v>
+        <f t="shared" si="6"/>
+        <v>99.717500000000001</v>
       </c>
       <c r="AE14" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC14,AD14,Trigger)</f>
@@ -6544,10 +6544,10 @@
         <v>SEK3F10=HBCO</v>
       </c>
       <c r="O15" s="46">
-        <v>0.46250000000000002</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="P15" s="46">
-        <v>0.50250000000000006</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="Q15" s="44">
         <v>0</v>
@@ -6556,8 +6556,8 @@
         <v>0</v>
       </c>
       <c r="S15" s="46">
-        <f>_xll.qlMidEquivalent($O15,$P15)</f>
-        <v>0.48250000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.34750000000000003</v>
       </c>
       <c r="T15" s="32"/>
       <c r="U15" s="47">
@@ -6565,16 +6565,16 @@
       </c>
       <c r="V15" s="32"/>
       <c r="W15" s="47">
-        <v>0.48250000000000004</v>
+        <v>0.34750000000000003</v>
       </c>
       <c r="X15" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/100,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="34"/>
       <c r="AA15" s="28"/>
       <c r="AB15" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F10_Quote</v>
       </c>
       <c r="AC15" s="43" t="str">
@@ -6582,12 +6582,12 @@
         <v>FUTSEK3F10_Quote#0000</v>
       </c>
       <c r="AD15" s="200">
-        <f t="shared" si="5"/>
-        <v>99.517499999999998</v>
+        <f t="shared" si="6"/>
+        <v>99.652500000000003</v>
       </c>
       <c r="AE15" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC15,AD15,Trigger)</f>
-        <v>2.4999999999977263E-3</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="59"/>
     </row>
@@ -6629,10 +6629,10 @@
         <v>SEK3F11=HBCO</v>
       </c>
       <c r="O16" s="46">
-        <v>0.54249999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="P16" s="46">
-        <v>0.58250000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="Q16" s="44">
         <v>0</v>
@@ -6641,8 +6641,8 @@
         <v>0</v>
       </c>
       <c r="S16" s="46">
-        <f>_xll.qlMidEquivalent($O16,$P16)</f>
-        <v>0.5625</v>
+        <f t="shared" si="4"/>
+        <v>0.42000000000000004</v>
       </c>
       <c r="T16" s="32"/>
       <c r="U16" s="47">
@@ -6650,16 +6650,16 @@
       </c>
       <c r="V16" s="32"/>
       <c r="W16" s="47">
-        <v>0.5625</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="X16" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F16,W16/100,Trigger)</f>
-        <v>-2.4999999999999849E-5</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="34"/>
       <c r="AA16" s="28"/>
       <c r="AB16" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F11_Quote</v>
       </c>
       <c r="AC16" s="43" t="str">
@@ -6667,12 +6667,12 @@
         <v>FUTSEK3F11_Quote#0000</v>
       </c>
       <c r="AD16" s="200">
-        <f t="shared" si="5"/>
-        <v>99.4375</v>
+        <f t="shared" si="6"/>
+        <v>99.58</v>
       </c>
       <c r="AE16" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC16,AD16,Trigger)</f>
-        <v>2.4999999999977263E-3</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="59"/>
     </row>
@@ -6714,10 +6714,10 @@
         <v>SEK3F12=HBCO</v>
       </c>
       <c r="O17" s="46">
-        <v>0.62249999999999994</v>
+        <v>0.47750000000000004</v>
       </c>
       <c r="P17" s="46">
-        <v>0.66249999999999998</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="Q17" s="44">
         <v>0</v>
@@ -6726,8 +6726,8 @@
         <v>0</v>
       </c>
       <c r="S17" s="46">
-        <f>_xll.qlMidEquivalent($O17,$P17)</f>
-        <v>0.64249999999999996</v>
+        <f t="shared" si="4"/>
+        <v>0.4975</v>
       </c>
       <c r="T17" s="32"/>
       <c r="U17" s="47">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="V17" s="32"/>
       <c r="W17" s="47">
-        <v>0.64249999999999996</v>
+        <v>0.4975</v>
       </c>
       <c r="X17" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/100,Trigger)</f>
@@ -6744,7 +6744,7 @@
       <c r="Y17" s="34"/>
       <c r="AA17" s="28"/>
       <c r="AB17" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F12_Quote</v>
       </c>
       <c r="AC17" s="43" t="str">
@@ -6752,8 +6752,8 @@
         <v>FUTSEK3F12_Quote#0000</v>
       </c>
       <c r="AD17" s="200">
-        <f t="shared" si="5"/>
-        <v>99.357500000000002</v>
+        <f t="shared" si="6"/>
+        <v>99.502499999999998</v>
       </c>
       <c r="AE17" s="61">
         <f>_xll.qlSimpleQuoteSetValue(AC17,AD17,Trigger)</f>
@@ -6811,7 +6811,7 @@
         <v>153</v>
       </c>
       <c r="S18" s="46" t="e">
-        <f>_xll.qlMidEquivalent($O18,$P18)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="T18" s="32"/>
@@ -6829,7 +6829,7 @@
       <c r="Y18" s="34"/>
       <c r="AA18" s="28"/>
       <c r="AB18" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F13_Quote</v>
       </c>
       <c r="AC18" s="43" t="str">
@@ -6837,7 +6837,7 @@
         <v>FUTSEK3F13_Quote#0000</v>
       </c>
       <c r="AD18" s="200" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="AE18" s="61">
@@ -6896,7 +6896,7 @@
         <v>153</v>
       </c>
       <c r="S19" s="46" t="e">
-        <f>_xll.qlMidEquivalent($O19,$P19)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="T19" s="32"/>
@@ -6914,7 +6914,7 @@
       <c r="Y19" s="34"/>
       <c r="AA19" s="28"/>
       <c r="AB19" s="43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F14_Quote</v>
       </c>
       <c r="AC19" s="43" t="str">
@@ -6922,7 +6922,7 @@
         <v>FUTSEK3F14_Quote#0000</v>
       </c>
       <c r="AD19" s="200" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="AE19" s="61">
@@ -6981,7 +6981,7 @@
         <v>153</v>
       </c>
       <c r="S20" s="53" t="e">
-        <f>_xll.qlMidEquivalent($O20,$P20)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="T20" s="32"/>
@@ -6999,7 +6999,7 @@
       <c r="Y20" s="34"/>
       <c r="AA20" s="28"/>
       <c r="AB20" s="50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FUTSEK3F15_Quote</v>
       </c>
       <c r="AC20" s="50" t="str">
@@ -7007,7 +7007,7 @@
         <v>FUTSEK3F15_Quote#0000</v>
       </c>
       <c r="AD20" s="201" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="AE20" s="62">
@@ -7073,7 +7073,7 @@
   <dimension ref="B1:AC99"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7208,7 +7208,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="33">
         <f>_xll.ohTrigger(Y7:Y61)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="34"/>
     </row>
@@ -7234,7 +7234,7 @@
       <c r="N6" s="234"/>
       <c r="O6" s="235" t="str">
         <f>_xll.RData(O7:O61,P6:S6,"RTFEED:IDN",ReutersRtMode,,P7)</f>
-        <v>Updated at 16:13:39</v>
+        <v>Updated at 10:31:02</v>
       </c>
       <c r="P6" s="190" t="s">
         <v>106</v>
@@ -7318,7 +7318,7 @@
         <v>153</v>
       </c>
       <c r="T7" s="39" t="e">
-        <f>_xll.qlMidEquivalent($P7,$Q7,$R7,$S7)</f>
+        <f>IF(ISERROR(AVERAGE(P7,Q7)),#NUM!,AVERAGE(P7,Q7))</f>
         <v>#NUM!</v>
       </c>
       <c r="U7" s="231"/>
@@ -7389,7 +7389,7 @@
         <v>153</v>
       </c>
       <c r="T8" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
+        <f t="shared" ref="T8:T61" si="2">IF(ISERROR(AVERAGE(P8,Q8)),#NUM!,AVERAGE(P8,Q8))</f>
         <v>#NUM!</v>
       </c>
       <c r="U8" s="231"/>
@@ -7459,7 +7459,7 @@
         <v>153</v>
       </c>
       <c r="T9" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U9" s="231"/>
@@ -7517,10 +7517,10 @@
         <v>SEKAMTNS1M=HBCO</v>
       </c>
       <c r="P10" s="46">
-        <v>6.7000000000000004E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="Q10" s="46">
-        <v>9.7000000000000003E-2</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -7529,8 +7529,8 @@
         <v>0</v>
       </c>
       <c r="T10" s="46">
-        <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>8.2000000000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U10" s="231"/>
       <c r="V10" s="233">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="W10" s="231"/>
       <c r="X10" s="46">
-        <v>8.2000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y10" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
@@ -7588,10 +7588,10 @@
         <v>SEKAMTNS2M=HBCO</v>
       </c>
       <c r="P11" s="46">
-        <v>0.04</v>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="Q11" s="46">
-        <v>6.9999999999999993E-2</v>
+        <v>5.9000000000000011E-2</v>
       </c>
       <c r="R11" s="46">
         <v>0</v>
@@ -7600,8 +7600,8 @@
         <v>0</v>
       </c>
       <c r="T11" s="46">
-        <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
-        <v>5.4999999999999993E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="U11" s="231"/>
       <c r="V11" s="233">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="W11" s="231"/>
       <c r="X11" s="46">
-        <v>5.4999999999999993E-2</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="Y11" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
@@ -7658,10 +7658,10 @@
         <v>SEKAMTNS3M=HBCO</v>
       </c>
       <c r="P12" s="46">
-        <v>2.8999999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q12" s="46">
-        <v>5.9000000000000011E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="R12" s="46">
         <v>0</v>
@@ -7670,8 +7670,8 @@
         <v>0</v>
       </c>
       <c r="T12" s="46">
-        <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
-        <v>4.4000000000000004E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="U12" s="231"/>
       <c r="V12" s="233">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="W12" s="231"/>
       <c r="X12" s="46">
-        <v>4.4000000000000004E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Y12" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
@@ -7728,10 +7728,10 @@
         <v>SEKAMTNS4M=HBCO</v>
       </c>
       <c r="P13" s="46">
-        <v>2.3E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="Q13" s="46">
-        <v>5.3000000000000005E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="R13" s="46">
         <v>0</v>
@@ -7740,8 +7740,8 @@
         <v>0</v>
       </c>
       <c r="T13" s="46">
-        <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
-        <v>3.8000000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="U13" s="231"/>
       <c r="V13" s="233">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="W13" s="231"/>
       <c r="X13" s="46">
-        <v>3.8000000000000006E-2</v>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="Y13" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
@@ -7798,10 +7798,10 @@
         <v>SEKAMTNS5M=HBCO</v>
       </c>
       <c r="P14" s="46">
-        <v>1.9E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q14" s="46">
-        <v>4.9000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="R14" s="46">
         <v>0</v>
@@ -7810,8 +7810,8 @@
         <v>0</v>
       </c>
       <c r="T14" s="46">
-        <f>_xll.qlMidEquivalent($P14,$Q14,$R14,$S14)</f>
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U14" s="231"/>
       <c r="V14" s="233">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="W14" s="231"/>
       <c r="X14" s="46">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y14" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
@@ -7868,10 +7868,10 @@
         <v>SEKAMTNS6M=HBCO</v>
       </c>
       <c r="P15" s="46">
-        <v>1.6999999999999998E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q15" s="46">
-        <v>4.7E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="R15" s="46">
         <v>0</v>
@@ -7880,8 +7880,8 @@
         <v>0</v>
       </c>
       <c r="T15" s="46">
-        <f>_xll.qlMidEquivalent($P15,$Q15,$R15,$S15)</f>
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="U15" s="231"/>
       <c r="V15" s="233">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="W15" s="231"/>
       <c r="X15" s="46">
-        <v>3.2000000000000001E-2</v>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="Y15" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
@@ -7950,7 +7950,7 @@
         <v>153</v>
       </c>
       <c r="T16" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U16" s="231"/>
@@ -8021,7 +8021,7 @@
         <v>153</v>
       </c>
       <c r="T17" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P17,$Q17,$R17,$S17)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U17" s="231"/>
@@ -8079,10 +8079,10 @@
         <v>SEKAMTNS9M=HBCO</v>
       </c>
       <c r="P18" s="46">
-        <v>8.9999999999999993E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="Q18" s="46">
-        <v>3.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R18" s="46">
         <v>0</v>
@@ -8091,8 +8091,8 @@
         <v>0</v>
       </c>
       <c r="T18" s="46">
-        <f>_xll.qlMidEquivalent($P18,$Q18,$R18,$S18)</f>
-        <v>2.4E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U18" s="231"/>
       <c r="V18" s="233">
@@ -8100,11 +8100,11 @@
       </c>
       <c r="W18" s="231"/>
       <c r="X18" s="46">
-        <v>2.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y18" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F18,X18/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.5000000000000001E-4</v>
       </c>
       <c r="Z18" s="34"/>
       <c r="AC18" s="237"/>
@@ -8162,7 +8162,7 @@
         <v>153</v>
       </c>
       <c r="T19" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U19" s="231"/>
@@ -8232,7 +8232,7 @@
         <v>153</v>
       </c>
       <c r="T20" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P20,$Q20,$R20,$S20)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U20" s="231"/>
@@ -8290,10 +8290,10 @@
         <v>SEKAMTNS12M=HBCO</v>
       </c>
       <c r="P21" s="46">
-        <v>6.0000000000000001E-3</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="Q21" s="46">
-        <v>3.5999999999999997E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="R21" s="46">
         <v>0</v>
@@ -8302,8 +8302,8 @@
         <v>0</v>
       </c>
       <c r="T21" s="46">
-        <f>_xll.qlMidEquivalent($P21,$Q21,$R21,$S21)</f>
-        <v>2.0999999999999998E-2</v>
+        <f t="shared" si="2"/>
+        <v>-6.000000000000001E-3</v>
       </c>
       <c r="U21" s="231"/>
       <c r="V21" s="233">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="W21" s="231"/>
       <c r="X21" s="46">
-        <v>2.0999999999999998E-2</v>
+        <v>-6.000000000000001E-3</v>
       </c>
       <c r="Y21" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F21,X21/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.5000000000000001E-4</v>
       </c>
       <c r="Z21" s="34"/>
     </row>
@@ -8359,7 +8359,7 @@
         <v>SEKAMTNS1Y=ICAP</v>
       </c>
       <c r="P22" s="39">
-        <v>0.02</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="Q22" s="39">
         <v>0</v>
@@ -8371,8 +8371,8 @@
         <v>0</v>
       </c>
       <c r="T22" s="39">
-        <f>_xll.qlMidEquivalent($P22,$Q22,$R22,$S22)</f>
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="U22" s="231"/>
       <c r="V22" s="232">
@@ -8380,11 +8380,11 @@
       </c>
       <c r="W22" s="231"/>
       <c r="X22" s="39">
-        <v>0.02</v>
-      </c>
-      <c r="Y22" s="41">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="Y22" s="41" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,X22/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z22" s="34"/>
     </row>
@@ -8441,7 +8441,7 @@
         <v>153</v>
       </c>
       <c r="T23" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P23,$Q23,$R23,$S23)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U23" s="231"/>
@@ -8511,7 +8511,7 @@
         <v>153</v>
       </c>
       <c r="T24" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P24,$Q24,$R24,$S24)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U24" s="231"/>
@@ -8581,7 +8581,7 @@
         <v>153</v>
       </c>
       <c r="T25" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U25" s="231"/>
@@ -8651,7 +8651,7 @@
         <v>153</v>
       </c>
       <c r="T26" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P26,$Q26,$R26,$S26)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U26" s="231"/>
@@ -8721,7 +8721,7 @@
         <v>153</v>
       </c>
       <c r="T27" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P27,$Q27,$R27,$S27)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U27" s="231"/>
@@ -8791,7 +8791,7 @@
         <v>153</v>
       </c>
       <c r="T28" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P28,$Q28,$R28,$S28)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U28" s="231"/>
@@ -8861,7 +8861,7 @@
         <v>153</v>
       </c>
       <c r="T29" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P29,$Q29,$R29,$S29)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U29" s="231"/>
@@ -8932,7 +8932,7 @@
         <v>153</v>
       </c>
       <c r="T30" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P30,$Q30,$R30,$S30)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U30" s="231"/>
@@ -9002,7 +9002,7 @@
         <v>153</v>
       </c>
       <c r="T31" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U31" s="231"/>
@@ -9072,7 +9072,7 @@
         <v>153</v>
       </c>
       <c r="T32" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P32,$Q32,$R32,$S32)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U32" s="231"/>
@@ -9142,7 +9142,7 @@
         <v>153</v>
       </c>
       <c r="T33" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P33,$Q33,$R33,$S33)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U33" s="231"/>
@@ -9200,7 +9200,7 @@
         <v>SEKAMTNS2Y=ICAP</v>
       </c>
       <c r="P34" s="46">
-        <v>2.2499999999999999E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="Q34" s="46">
         <v>0</v>
@@ -9212,8 +9212,8 @@
         <v>0</v>
       </c>
       <c r="T34" s="46">
-        <f>_xll.qlMidEquivalent($P34,$Q34,$R34,$S34)</f>
-        <v>2.2499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.2499999999999999E-2</v>
       </c>
       <c r="U34" s="231"/>
       <c r="V34" s="233">
@@ -9221,11 +9221,11 @@
       </c>
       <c r="W34" s="231"/>
       <c r="X34" s="46">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="Y34" s="48">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+      <c r="Y34" s="48" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F34,X34/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z34" s="34"/>
     </row>
@@ -9282,7 +9282,7 @@
         <v>153</v>
       </c>
       <c r="T35" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U35" s="231"/>
@@ -9352,7 +9352,7 @@
         <v>153</v>
       </c>
       <c r="T36" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P36,$Q36,$R36,$S36)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U36" s="231"/>
@@ -9422,7 +9422,7 @@
         <v>153</v>
       </c>
       <c r="T37" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P37,$Q37,$R37,$S37)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U37" s="231"/>
@@ -9480,7 +9480,7 @@
         <v>SEKAMTNS3Y=ICAP</v>
       </c>
       <c r="P38" s="46">
-        <v>0.10249999999999999</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Q38" s="46">
         <v>0</v>
@@ -9492,8 +9492,8 @@
         <v>0</v>
       </c>
       <c r="T38" s="46">
-        <f>_xll.qlMidEquivalent($P38,$Q38,$R38,$S38)</f>
-        <v>0.10249999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.125E-2</v>
       </c>
       <c r="U38" s="231"/>
       <c r="V38" s="233">
@@ -9501,11 +9501,11 @@
       </c>
       <c r="W38" s="231"/>
       <c r="X38" s="46">
-        <v>0.10249999999999999</v>
+        <v>1.125E-2</v>
       </c>
       <c r="Y38" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F38,X38/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.125E-4</v>
       </c>
       <c r="Z38" s="34"/>
     </row>
@@ -9562,7 +9562,7 @@
         <v>153</v>
       </c>
       <c r="T39" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U39" s="231"/>
@@ -9588,7 +9588,7 @@
         <v>91</v>
       </c>
       <c r="E40" s="42" t="str">
-        <f t="shared" ref="E40:E61" si="2">Currency&amp;$C40&amp;$D40&amp;QuoteSuffix</f>
+        <f t="shared" ref="E40:E61" si="3">Currency&amp;$C40&amp;$D40&amp;QuoteSuffix</f>
         <v>SEKOIS42M_Quote</v>
       </c>
       <c r="F40" s="42" t="str">
@@ -9613,7 +9613,7 @@
         <v>164</v>
       </c>
       <c r="N40" s="228" t="str">
-        <f t="shared" ref="N40:N61" si="3">Currency&amp;L40&amp;M40&amp;K40</f>
+        <f t="shared" ref="N40:N61" si="4">Currency&amp;L40&amp;M40&amp;K40</f>
         <v>SEKAMTNS42M</v>
       </c>
       <c r="O40" s="228" t="str">
@@ -9632,7 +9632,7 @@
         <v>153</v>
       </c>
       <c r="T40" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P40,$Q40,$R40,$S40)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U40" s="231"/>
@@ -9658,7 +9658,7 @@
         <v>90</v>
       </c>
       <c r="E41" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS45M_Quote</v>
       </c>
       <c r="F41" s="42" t="str">
@@ -9683,7 +9683,7 @@
         <v>164</v>
       </c>
       <c r="N41" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS45M</v>
       </c>
       <c r="O41" s="228" t="str">
@@ -9702,7 +9702,7 @@
         <v>153</v>
       </c>
       <c r="T41" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P41,$Q41,$R41,$S41)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U41" s="231"/>
@@ -9728,7 +9728,7 @@
         <v>56</v>
       </c>
       <c r="E42" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS4Y_Quote</v>
       </c>
       <c r="F42" s="42" t="str">
@@ -9753,14 +9753,14 @@
         <v>164</v>
       </c>
       <c r="N42" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS4Y</v>
       </c>
       <c r="O42" s="228" t="str">
         <v>SEKAMTNS4Y=ICAP</v>
       </c>
       <c r="P42" s="46">
-        <v>0.20249999999999999</v>
+        <v>0.1125</v>
       </c>
       <c r="Q42" s="46">
         <v>0</v>
@@ -9772,8 +9772,8 @@
         <v>0</v>
       </c>
       <c r="T42" s="46">
-        <f>_xll.qlMidEquivalent($P42,$Q42,$R42,$S42)</f>
-        <v>0.20249999999999999</v>
+        <f t="shared" si="2"/>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="U42" s="231"/>
       <c r="V42" s="233">
@@ -9781,11 +9781,11 @@
       </c>
       <c r="W42" s="231"/>
       <c r="X42" s="46">
-        <v>0.20249999999999999</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="Y42" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F42,X42/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.6250000000000007E-4</v>
       </c>
       <c r="Z42" s="34"/>
     </row>
@@ -9798,7 +9798,7 @@
         <v>89</v>
       </c>
       <c r="E43" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS51M_Quote</v>
       </c>
       <c r="F43" s="42" t="str">
@@ -9823,7 +9823,7 @@
         <v>164</v>
       </c>
       <c r="N43" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS51M</v>
       </c>
       <c r="O43" s="228" t="str">
@@ -9842,7 +9842,7 @@
         <v>153</v>
       </c>
       <c r="T43" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U43" s="231"/>
@@ -9868,7 +9868,7 @@
         <v>88</v>
       </c>
       <c r="E44" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS54M_Quote</v>
       </c>
       <c r="F44" s="42" t="str">
@@ -9893,7 +9893,7 @@
         <v>164</v>
       </c>
       <c r="N44" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS54M</v>
       </c>
       <c r="O44" s="228" t="str">
@@ -9912,7 +9912,7 @@
         <v>153</v>
       </c>
       <c r="T44" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U44" s="231"/>
@@ -9938,7 +9938,7 @@
         <v>87</v>
       </c>
       <c r="E45" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS57M_Quote</v>
       </c>
       <c r="F45" s="42" t="str">
@@ -9963,7 +9963,7 @@
         <v>164</v>
       </c>
       <c r="N45" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS57M</v>
       </c>
       <c r="O45" s="228" t="str">
@@ -9982,7 +9982,7 @@
         <v>153</v>
       </c>
       <c r="T45" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U45" s="231"/>
@@ -10008,7 +10008,7 @@
         <v>55</v>
       </c>
       <c r="E46" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS5Y_Quote</v>
       </c>
       <c r="F46" s="42" t="str">
@@ -10033,14 +10033,14 @@
         <v>164</v>
       </c>
       <c r="N46" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS5Y</v>
       </c>
       <c r="O46" s="228" t="str">
         <v>SEKAMTNS5Y=ICAP</v>
       </c>
       <c r="P46" s="46">
-        <v>0.32750000000000001</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="Q46" s="46">
         <v>0</v>
@@ -10052,8 +10052,8 @@
         <v>0</v>
       </c>
       <c r="T46" s="46">
-        <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>0.32750000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.11750000000000001</v>
       </c>
       <c r="U46" s="231"/>
       <c r="V46" s="233">
@@ -10061,11 +10061,11 @@
       </c>
       <c r="W46" s="231"/>
       <c r="X46" s="46">
-        <v>0.32750000000000001</v>
+        <v>0.11750000000000001</v>
       </c>
       <c r="Y46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.175E-3</v>
       </c>
       <c r="Z46" s="34"/>
     </row>
@@ -10078,7 +10078,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS6Y_Quote</v>
       </c>
       <c r="F47" s="42" t="str">
@@ -10103,14 +10103,14 @@
         <v>164</v>
       </c>
       <c r="N47" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS6Y</v>
       </c>
       <c r="O47" s="228" t="str">
         <v>SEKAMTNS6Y=ICAP</v>
       </c>
       <c r="P47" s="46">
-        <v>0.45750000000000002</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="Q47" s="46">
         <v>0</v>
@@ -10122,8 +10122,8 @@
         <v>0</v>
       </c>
       <c r="T47" s="46">
-        <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>0.45750000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.18124999999999999</v>
       </c>
       <c r="U47" s="231"/>
       <c r="V47" s="233">
@@ -10131,11 +10131,11 @@
       </c>
       <c r="W47" s="231"/>
       <c r="X47" s="46">
-        <v>0.45750000000000002</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="Y47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.8124999999999999E-3</v>
       </c>
       <c r="Z47" s="34"/>
     </row>
@@ -10148,7 +10148,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS7Y_Quote</v>
       </c>
       <c r="F48" s="42" t="str">
@@ -10173,14 +10173,14 @@
         <v>164</v>
       </c>
       <c r="N48" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS7Y</v>
       </c>
       <c r="O48" s="228" t="str">
         <v>SEKAMTNS7Y=ICAP</v>
       </c>
       <c r="P48" s="46">
-        <v>0.57999999999999996</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="Q48" s="46">
         <v>0</v>
@@ -10192,8 +10192,8 @@
         <v>0</v>
       </c>
       <c r="T48" s="46">
-        <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.24249999999999999</v>
       </c>
       <c r="U48" s="231"/>
       <c r="V48" s="233">
@@ -10201,11 +10201,11 @@
       </c>
       <c r="W48" s="231"/>
       <c r="X48" s="46">
-        <v>0.57999999999999996</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="Y48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.4250000000000001E-3</v>
       </c>
       <c r="Z48" s="34"/>
     </row>
@@ -10218,7 +10218,7 @@
         <v>52</v>
       </c>
       <c r="E49" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS8Y_Quote</v>
       </c>
       <c r="F49" s="42" t="str">
@@ -10243,14 +10243,14 @@
         <v>164</v>
       </c>
       <c r="N49" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS8Y</v>
       </c>
       <c r="O49" s="228" t="str">
         <v>SEKAMTNS8Y=ICAP</v>
       </c>
       <c r="P49" s="46">
-        <v>0.6875</v>
+        <v>0.59749999999999992</v>
       </c>
       <c r="Q49" s="46">
         <v>0</v>
@@ -10262,8 +10262,8 @@
         <v>0</v>
       </c>
       <c r="T49" s="46">
-        <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>0.6875</v>
+        <f t="shared" si="2"/>
+        <v>0.29874999999999996</v>
       </c>
       <c r="U49" s="231"/>
       <c r="V49" s="233">
@@ -10271,11 +10271,11 @@
       </c>
       <c r="W49" s="231"/>
       <c r="X49" s="46">
-        <v>0.6875</v>
+        <v>0.29874999999999996</v>
       </c>
       <c r="Y49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>-2.9874999999999997E-3</v>
       </c>
       <c r="Z49" s="34"/>
     </row>
@@ -10288,7 +10288,7 @@
         <v>51</v>
       </c>
       <c r="E50" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS9Y_Quote</v>
       </c>
       <c r="F50" s="42" t="str">
@@ -10313,14 +10313,14 @@
         <v>164</v>
       </c>
       <c r="N50" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS9Y</v>
       </c>
       <c r="O50" s="228" t="str">
         <v>SEKAMTNS9Y=ICAP</v>
       </c>
       <c r="P50" s="46">
-        <v>0.78249999999999997</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="Q50" s="46">
         <v>0</v>
@@ -10332,8 +10332,8 @@
         <v>0</v>
       </c>
       <c r="T50" s="46">
-        <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>0.78249999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.34750000000000003</v>
       </c>
       <c r="U50" s="231"/>
       <c r="V50" s="233">
@@ -10341,11 +10341,11 @@
       </c>
       <c r="W50" s="231"/>
       <c r="X50" s="46">
-        <v>0.78249999999999997</v>
+        <v>0.34750000000000003</v>
       </c>
       <c r="Y50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.4750000000000002E-3</v>
       </c>
       <c r="Z50" s="34"/>
     </row>
@@ -10358,7 +10358,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS10Y_Quote</v>
       </c>
       <c r="F51" s="42" t="str">
@@ -10383,14 +10383,14 @@
         <v>164</v>
       </c>
       <c r="N51" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS10Y</v>
       </c>
       <c r="O51" s="228" t="str">
         <v>SEKAMTNS10Y=ICAP</v>
       </c>
       <c r="P51" s="46">
-        <v>0.86999999999999988</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="Q51" s="46">
         <v>0</v>
@@ -10402,8 +10402,8 @@
         <v>0</v>
       </c>
       <c r="T51" s="46">
-        <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>0.86999999999999988</v>
+        <f t="shared" si="2"/>
+        <v>0.39124999999999999</v>
       </c>
       <c r="U51" s="231"/>
       <c r="V51" s="233">
@@ -10411,11 +10411,11 @@
       </c>
       <c r="W51" s="231"/>
       <c r="X51" s="46">
-        <v>0.86999999999999988</v>
+        <v>0.39124999999999999</v>
       </c>
       <c r="Y51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>-3.9125000000000002E-3</v>
       </c>
       <c r="Z51" s="34"/>
     </row>
@@ -10428,7 +10428,7 @@
         <v>48</v>
       </c>
       <c r="E52" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS12Y_Quote</v>
       </c>
       <c r="F52" s="42" t="str">
@@ -10453,14 +10453,14 @@
         <v>164</v>
       </c>
       <c r="N52" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS12Y</v>
       </c>
       <c r="O52" s="228" t="str">
         <v>SEKAMTNS12Y=ICAP</v>
       </c>
       <c r="P52" s="46">
-        <v>1.02</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="Q52" s="46">
         <v>0</v>
@@ -10472,8 +10472,8 @@
         <v>0</v>
       </c>
       <c r="T52" s="46">
-        <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>1.02</v>
+        <f t="shared" si="2"/>
+        <v>0.46375</v>
       </c>
       <c r="U52" s="231"/>
       <c r="V52" s="233">
@@ -10481,11 +10481,11 @@
       </c>
       <c r="W52" s="231"/>
       <c r="X52" s="46">
-        <v>1.02</v>
+        <v>0.46375</v>
       </c>
       <c r="Y52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.6375000000000001E-3</v>
       </c>
       <c r="Z52" s="34"/>
     </row>
@@ -10498,7 +10498,7 @@
         <v>45</v>
       </c>
       <c r="E53" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS15Y_Quote</v>
       </c>
       <c r="F53" s="42" t="str">
@@ -10523,14 +10523,14 @@
         <v>164</v>
       </c>
       <c r="N53" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS15Y</v>
       </c>
       <c r="O53" s="228" t="str">
         <v>SEKAMTNS15Y=ICAP</v>
       </c>
       <c r="P53" s="46">
-        <v>1.1950000000000001</v>
+        <v>1.1025</v>
       </c>
       <c r="Q53" s="46">
         <v>0</v>
@@ -10542,8 +10542,8 @@
         <v>0</v>
       </c>
       <c r="T53" s="46">
-        <f>_xll.qlMidEquivalent($P53,$Q53,$R53,$S53)</f>
-        <v>1.1950000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.55125000000000002</v>
       </c>
       <c r="U53" s="231"/>
       <c r="V53" s="233">
@@ -10551,11 +10551,11 @@
       </c>
       <c r="W53" s="231"/>
       <c r="X53" s="46">
-        <v>1.1950000000000001</v>
+        <v>0.55125000000000002</v>
       </c>
       <c r="Y53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F53,X53/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5125E-3</v>
       </c>
       <c r="Z53" s="34"/>
     </row>
@@ -10568,7 +10568,7 @@
         <v>40</v>
       </c>
       <c r="E54" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS20Y_Quote</v>
       </c>
       <c r="F54" s="42" t="str">
@@ -10593,14 +10593,14 @@
         <v>164</v>
       </c>
       <c r="N54" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS20Y</v>
       </c>
       <c r="O54" s="228" t="str">
         <v>SEKAMTNS20Y=ICAP</v>
       </c>
       <c r="P54" s="46">
-        <v>1.3900000000000001</v>
+        <v>1.2925</v>
       </c>
       <c r="Q54" s="46">
         <v>0</v>
@@ -10612,8 +10612,8 @@
         <v>0</v>
       </c>
       <c r="T54" s="46">
-        <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>1.3900000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.64624999999999999</v>
       </c>
       <c r="U54" s="231"/>
       <c r="V54" s="233">
@@ -10621,11 +10621,11 @@
       </c>
       <c r="W54" s="231"/>
       <c r="X54" s="46">
-        <v>1.3900000000000001</v>
+        <v>0.64624999999999999</v>
       </c>
       <c r="Y54" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.4624999999999995E-3</v>
       </c>
       <c r="Z54" s="34"/>
     </row>
@@ -10638,7 +10638,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS25Y_Quote</v>
       </c>
       <c r="F55" s="42" t="str">
@@ -10663,14 +10663,14 @@
         <v>164</v>
       </c>
       <c r="N55" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS25Y</v>
       </c>
       <c r="O55" s="228" t="str">
         <v>SEKAMTNS25Y=ICAP</v>
       </c>
       <c r="P55" s="46">
-        <v>1.4675</v>
+        <v>1.3674999999999999</v>
       </c>
       <c r="Q55" s="46">
         <v>0</v>
@@ -10682,8 +10682,8 @@
         <v>0</v>
       </c>
       <c r="T55" s="46">
-        <f>_xll.qlMidEquivalent($P55,$Q55,$R55,$S55)</f>
-        <v>1.4675</v>
+        <f t="shared" si="2"/>
+        <v>0.68374999999999997</v>
       </c>
       <c r="U55" s="231"/>
       <c r="V55" s="233">
@@ -10691,11 +10691,11 @@
       </c>
       <c r="W55" s="231"/>
       <c r="X55" s="46">
-        <v>1.4675</v>
+        <v>0.68374999999999997</v>
       </c>
       <c r="Y55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F55,X55/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>-6.8374999999999998E-3</v>
       </c>
       <c r="Z55" s="34"/>
     </row>
@@ -10708,7 +10708,7 @@
         <v>33</v>
       </c>
       <c r="E56" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS27Y_Quote</v>
       </c>
       <c r="F56" s="42" t="str">
@@ -10733,7 +10733,7 @@
         <v>164</v>
       </c>
       <c r="N56" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS27Y</v>
       </c>
       <c r="O56" s="228" t="str">
@@ -10752,7 +10752,7 @@
         <v>153</v>
       </c>
       <c r="T56" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P56,$Q56,$R56,$S56)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U56" s="231"/>
@@ -10778,7 +10778,7 @@
         <v>30</v>
       </c>
       <c r="E57" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS30Y_Quote</v>
       </c>
       <c r="F57" s="42" t="str">
@@ -10803,14 +10803,14 @@
         <v>164</v>
       </c>
       <c r="N57" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS30Y</v>
       </c>
       <c r="O57" s="228" t="str">
         <v>SEKAMTNS30Y=ICAP</v>
       </c>
       <c r="P57" s="46">
-        <v>1.49</v>
+        <v>1.3900000000000001</v>
       </c>
       <c r="Q57" s="46">
         <v>0</v>
@@ -10822,8 +10822,8 @@
         <v>0</v>
       </c>
       <c r="T57" s="46">
-        <f>_xll.qlMidEquivalent($P57,$Q57,$R57,$S57)</f>
-        <v>1.49</v>
+        <f t="shared" si="2"/>
+        <v>0.69500000000000006</v>
       </c>
       <c r="U57" s="231"/>
       <c r="V57" s="233">
@@ -10831,11 +10831,11 @@
       </c>
       <c r="W57" s="231"/>
       <c r="X57" s="46">
-        <v>1.49</v>
+        <v>0.69500000000000006</v>
       </c>
       <c r="Y57" s="48">
         <f>_xll.qlSimpleQuoteSetValue(F57,X57/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>-6.9500000000000004E-3</v>
       </c>
       <c r="Z57" s="34"/>
     </row>
@@ -10848,7 +10848,7 @@
         <v>29</v>
       </c>
       <c r="E58" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS35Y_Quote</v>
       </c>
       <c r="F58" s="42" t="str">
@@ -10873,7 +10873,7 @@
         <v>164</v>
       </c>
       <c r="N58" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS35Y</v>
       </c>
       <c r="O58" s="228" t="str">
@@ -10892,7 +10892,7 @@
         <v>153</v>
       </c>
       <c r="T58" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P58,$Q58,$R58,$S58)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U58" s="231"/>
@@ -10918,7 +10918,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS40Y_Quote</v>
       </c>
       <c r="F59" s="42" t="str">
@@ -10943,7 +10943,7 @@
         <v>164</v>
       </c>
       <c r="N59" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS40Y</v>
       </c>
       <c r="O59" s="228" t="str">
@@ -10962,7 +10962,7 @@
         <v>153</v>
       </c>
       <c r="T59" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P59,$Q59,$R59,$S59)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U59" s="231"/>
@@ -10988,7 +10988,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS45Y_Quote</v>
       </c>
       <c r="F60" s="42" t="str">
@@ -11013,7 +11013,7 @@
         <v>164</v>
       </c>
       <c r="N60" s="228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS45Y</v>
       </c>
       <c r="O60" s="228" t="str">
@@ -11032,7 +11032,7 @@
         <v>153</v>
       </c>
       <c r="T60" s="46" t="e">
-        <f>_xll.qlMidEquivalent($P60,$Q60,$R60,$S60)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U60" s="231"/>
@@ -11058,7 +11058,7 @@
         <v>26</v>
       </c>
       <c r="E61" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKOIS50Y_Quote</v>
       </c>
       <c r="F61" s="49" t="str">
@@ -11083,7 +11083,7 @@
         <v>164</v>
       </c>
       <c r="N61" s="229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SEKAMTNS50Y</v>
       </c>
       <c r="O61" s="229" t="str">
@@ -11102,7 +11102,7 @@
         <v>153</v>
       </c>
       <c r="T61" s="53" t="e">
-        <f>_xll.qlMidEquivalent($P61,$Q61,$R61,$S61)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="U61" s="231"/>
@@ -11266,7 +11266,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O3 O4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O3:O4">
       <formula1>Contributors</formula1>
     </dataValidation>
   </dataValidations>
@@ -11281,7 +11281,7 @@
   <dimension ref="B1:AD97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11392,7 +11392,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="33">
         <f>_xll.ohTrigger(Z6:Z59)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="34"/>
     </row>
@@ -11419,7 +11419,7 @@
       <c r="O5" s="234"/>
       <c r="P5" s="235" t="str">
         <f>_xll.RData(P6:P59,Q5:T5,"RTFEED:IDN",ReutersRtMode,,Q6)</f>
-        <v>Updated at 16:13:39</v>
+        <v>Updated at 10:28:55</v>
       </c>
       <c r="Q5" s="190" t="s">
         <v>106</v>
@@ -11506,7 +11506,7 @@
         <v>153</v>
       </c>
       <c r="U6" s="39" t="e">
-        <f>_xll.qlMidEquivalent($Q6,$R6,$S6,$T6)</f>
+        <f>IF(ISERROR(AVERAGE(Q6,R6)),#NUM!,AVERAGE(Q6,R6))</f>
         <v>#NUM!</v>
       </c>
       <c r="V6" s="231"/>
@@ -11580,7 +11580,7 @@
         <v>153</v>
       </c>
       <c r="U7" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q7,$R7,$S7,$T7)</f>
+        <f t="shared" ref="U7:U59" si="2">IF(ISERROR(AVERAGE(Q7,R7)),#NUM!,AVERAGE(Q7,R7))</f>
         <v>#NUM!</v>
       </c>
       <c r="V7" s="231"/>
@@ -11653,7 +11653,7 @@
         <v>153</v>
       </c>
       <c r="U8" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q8,$R8,$S8,$T8)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V8" s="231"/>
@@ -11726,7 +11726,7 @@
         <v>153</v>
       </c>
       <c r="U9" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q9,$R9,$S9,$T9)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V9" s="231"/>
@@ -11800,7 +11800,7 @@
         <v>153</v>
       </c>
       <c r="U10" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q10,$R10,$S10,$T10)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V10" s="231"/>
@@ -11873,7 +11873,7 @@
         <v>153</v>
       </c>
       <c r="U11" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q11,$R11,$S11,$T11)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V11" s="231"/>
@@ -11946,7 +11946,7 @@
         <v>153</v>
       </c>
       <c r="U12" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q12,$R12,$S12,$T12)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V12" s="231"/>
@@ -12019,7 +12019,7 @@
         <v>153</v>
       </c>
       <c r="U13" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q13,$R13,$S13,$T13)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V13" s="231"/>
@@ -12092,7 +12092,7 @@
         <v>153</v>
       </c>
       <c r="U14" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q14,$R14,$S14,$T14)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V14" s="231"/>
@@ -12165,7 +12165,7 @@
         <v>153</v>
       </c>
       <c r="U15" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q15,$R15,$S15,$T15)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V15" s="231"/>
@@ -12239,7 +12239,7 @@
         <v>153</v>
       </c>
       <c r="U16" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q16,$R16,$S16,$T16)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V16" s="231"/>
@@ -12312,7 +12312,7 @@
         <v>153</v>
       </c>
       <c r="U17" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q17,$R17,$S17,$T17)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V17" s="231"/>
@@ -12386,7 +12386,7 @@
         <v>153</v>
       </c>
       <c r="U18" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q18,$R18,$S18,$T18)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V18" s="231"/>
@@ -12459,7 +12459,7 @@
         <v>153</v>
       </c>
       <c r="U19" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q19,$R19,$S19,$T19)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V19" s="231"/>
@@ -12520,10 +12520,10 @@
         <v>SEKAB3S1Y=ICAP</v>
       </c>
       <c r="Q20" s="46">
-        <v>0.1875</v>
+        <v>0.1125</v>
       </c>
       <c r="R20" s="46">
-        <v>0.23749999999999999</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="S20" s="46">
         <v>0</v>
@@ -12532,8 +12532,8 @@
         <v>0</v>
       </c>
       <c r="U20" s="46">
-        <f>_xll.qlMidEquivalent($Q20,$R20,$S20,$T20)</f>
-        <v>0.21249999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.13750000000000001</v>
       </c>
       <c r="V20" s="231"/>
       <c r="W20" s="233">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="X20" s="231"/>
       <c r="Y20" s="46">
-        <v>0.21249999999999999</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="Z20" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G20,Y20/100,Trigger)</f>
@@ -12605,7 +12605,7 @@
         <v>153</v>
       </c>
       <c r="U21" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q21,$R21,$S21,$T21)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V21" s="231"/>
@@ -12678,7 +12678,7 @@
         <v>153</v>
       </c>
       <c r="U22" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q22,$R22,$S22,$T22)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V22" s="231"/>
@@ -12751,7 +12751,7 @@
         <v>153</v>
       </c>
       <c r="U23" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q23,$R23,$S23,$T23)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V23" s="231"/>
@@ -12824,7 +12824,7 @@
         <v>153</v>
       </c>
       <c r="U24" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q24,$R24,$S24,$T24)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V24" s="231"/>
@@ -12897,7 +12897,7 @@
         <v>153</v>
       </c>
       <c r="U25" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q25,$R25,$S25,$T25)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V25" s="231"/>
@@ -12970,7 +12970,7 @@
         <v>153</v>
       </c>
       <c r="U26" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q26,$R26,$S26,$T26)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V26" s="231"/>
@@ -13043,7 +13043,7 @@
         <v>153</v>
       </c>
       <c r="U27" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q27,$R27,$S27,$T27)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V27" s="231"/>
@@ -13117,7 +13117,7 @@
         <v>153</v>
       </c>
       <c r="U28" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q28,$R28,$S28,$T28)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V28" s="231"/>
@@ -13190,7 +13190,7 @@
         <v>153</v>
       </c>
       <c r="U29" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q29,$R29,$S29,$T29)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V29" s="231"/>
@@ -13263,7 +13263,7 @@
         <v>153</v>
       </c>
       <c r="U30" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q30,$R30,$S30,$T30)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V30" s="231"/>
@@ -13336,7 +13336,7 @@
         <v>153</v>
       </c>
       <c r="U31" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q31,$R31,$S31,$T31)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V31" s="231"/>
@@ -13397,10 +13397,10 @@
         <v>SEKAB3S2Y=ICAP</v>
       </c>
       <c r="Q32" s="46">
-        <v>0.2</v>
+        <v>0.11750000000000001</v>
       </c>
       <c r="R32" s="46">
-        <v>0.25</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="S32" s="46">
         <v>0</v>
@@ -13409,8 +13409,8 @@
         <v>0</v>
       </c>
       <c r="U32" s="46">
-        <f>_xll.qlMidEquivalent($Q32,$R32,$S32,$T32)</f>
-        <v>0.22500000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.14250000000000002</v>
       </c>
       <c r="V32" s="231"/>
       <c r="W32" s="233">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="X32" s="231"/>
       <c r="Y32" s="46">
-        <v>0.22500000000000001</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="Z32" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G32,Y32/100,Trigger)</f>
@@ -13482,7 +13482,7 @@
         <v>153</v>
       </c>
       <c r="U33" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q33,$R33,$S33,$T33)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V33" s="231"/>
@@ -13555,7 +13555,7 @@
         <v>153</v>
       </c>
       <c r="U34" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q34,$R34,$S34,$T34)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V34" s="231"/>
@@ -13628,7 +13628,7 @@
         <v>153</v>
       </c>
       <c r="U35" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q35,$R35,$S35,$T35)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V35" s="231"/>
@@ -13689,10 +13689,10 @@
         <v>SEKAB3S3Y=ICAP</v>
       </c>
       <c r="Q36" s="46">
-        <v>0.28749999999999998</v>
+        <v>0.1875</v>
       </c>
       <c r="R36" s="46">
-        <v>0.33750000000000002</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="S36" s="46">
         <v>0</v>
@@ -13701,8 +13701,8 @@
         <v>0</v>
       </c>
       <c r="U36" s="46">
-        <f>_xll.qlMidEquivalent($Q36,$R36,$S36,$T36)</f>
-        <v>0.3125</v>
+        <f t="shared" si="2"/>
+        <v>0.21249999999999999</v>
       </c>
       <c r="V36" s="231"/>
       <c r="W36" s="233">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="X36" s="231"/>
       <c r="Y36" s="46">
-        <v>0.3125</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="Z36" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G36,Y36/100,Trigger)</f>
@@ -13774,7 +13774,7 @@
         <v>153</v>
       </c>
       <c r="U37" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q37,$R37,$S37,$T37)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V37" s="231"/>
@@ -13803,7 +13803,7 @@
         <v>158</v>
       </c>
       <c r="F38" s="42" t="str">
-        <f t="shared" ref="F38:F59" si="2">Currency&amp;$D38&amp;$E38&amp;$C38&amp;QuoteSuffix</f>
+        <f t="shared" ref="F38:F59" si="3">Currency&amp;$D38&amp;$E38&amp;$C38&amp;QuoteSuffix</f>
         <v>SEKAB3S42M_Quote</v>
       </c>
       <c r="G38" s="42" t="str">
@@ -13847,7 +13847,7 @@
         <v>153</v>
       </c>
       <c r="U38" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q38,$R38,$S38,$T38)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V38" s="231"/>
@@ -13876,7 +13876,7 @@
         <v>158</v>
       </c>
       <c r="F39" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S45M_Quote</v>
       </c>
       <c r="G39" s="42" t="str">
@@ -13920,7 +13920,7 @@
         <v>153</v>
       </c>
       <c r="U39" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q39,$R39,$S39,$T39)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V39" s="231"/>
@@ -13949,7 +13949,7 @@
         <v>158</v>
       </c>
       <c r="F40" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S4Y_Quote</v>
       </c>
       <c r="G40" s="42" t="str">
@@ -13981,10 +13981,10 @@
         <v>SEKAB3S4Y=ICAP</v>
       </c>
       <c r="Q40" s="46">
-        <v>0.40250000000000002</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="R40" s="46">
-        <v>0.45250000000000001</v>
+        <v>0.34249999999999997</v>
       </c>
       <c r="S40" s="46">
         <v>0</v>
@@ -13993,8 +13993,8 @@
         <v>0</v>
       </c>
       <c r="U40" s="46">
-        <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>0.42749999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.3175</v>
       </c>
       <c r="V40" s="231"/>
       <c r="W40" s="233">
@@ -14002,7 +14002,7 @@
       </c>
       <c r="X40" s="231"/>
       <c r="Y40" s="46">
-        <v>0.42749999999999999</v>
+        <v>0.3175</v>
       </c>
       <c r="Z40" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G40,Y40/100,Trigger)</f>
@@ -14022,7 +14022,7 @@
         <v>158</v>
       </c>
       <c r="F41" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S51M_Quote</v>
       </c>
       <c r="G41" s="42" t="str">
@@ -14066,7 +14066,7 @@
         <v>153</v>
       </c>
       <c r="U41" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q41,$R41,$S41,$T41)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V41" s="231"/>
@@ -14095,7 +14095,7 @@
         <v>158</v>
       </c>
       <c r="F42" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S54M_Quote</v>
       </c>
       <c r="G42" s="42" t="str">
@@ -14139,7 +14139,7 @@
         <v>153</v>
       </c>
       <c r="U42" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q42,$R42,$S42,$T42)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V42" s="231"/>
@@ -14168,7 +14168,7 @@
         <v>158</v>
       </c>
       <c r="F43" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S57M_Quote</v>
       </c>
       <c r="G43" s="42" t="str">
@@ -14212,7 +14212,7 @@
         <v>153</v>
       </c>
       <c r="U43" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q43,$R43,$S43,$T43)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V43" s="231"/>
@@ -14241,7 +14241,7 @@
         <v>158</v>
       </c>
       <c r="F44" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S5Y_Quote</v>
       </c>
       <c r="G44" s="42" t="str">
@@ -14273,10 +14273,10 @@
         <v>SEKAB3S5Y=ICAP</v>
       </c>
       <c r="Q44" s="46">
-        <v>0.54</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="R44" s="46">
-        <v>0.59000000000000008</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S44" s="46">
         <v>0</v>
@@ -14285,8 +14285,8 @@
         <v>0</v>
       </c>
       <c r="U44" s="46">
-        <f>_xll.qlMidEquivalent($Q44,$R44,$S44,$T44)</f>
-        <v>0.56500000000000006</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="V44" s="231"/>
       <c r="W44" s="233">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="X44" s="231"/>
       <c r="Y44" s="46">
-        <v>0.56500000000000006</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Z44" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G44,Y44/100,Trigger)</f>
@@ -14314,7 +14314,7 @@
         <v>158</v>
       </c>
       <c r="F45" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S6Y_Quote</v>
       </c>
       <c r="G45" s="42" t="str">
@@ -14346,10 +14346,10 @@
         <v>SEKAB3S6Y=ICAP</v>
       </c>
       <c r="Q45" s="46">
-        <v>0.67249999999999999</v>
+        <v>0.5575</v>
       </c>
       <c r="R45" s="46">
-        <v>0.72249999999999992</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="S45" s="46">
         <v>0</v>
@@ -14358,8 +14358,8 @@
         <v>0</v>
       </c>
       <c r="U45" s="46">
-        <f>_xll.qlMidEquivalent($Q45,$R45,$S45,$T45)</f>
-        <v>0.69750000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.58250000000000002</v>
       </c>
       <c r="V45" s="231"/>
       <c r="W45" s="233">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="X45" s="231"/>
       <c r="Y45" s="46">
-        <v>0.69750000000000001</v>
+        <v>0.58250000000000002</v>
       </c>
       <c r="Z45" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G45,Y45/100,Trigger)</f>
@@ -14387,7 +14387,7 @@
         <v>158</v>
       </c>
       <c r="F46" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S7Y_Quote</v>
       </c>
       <c r="G46" s="42" t="str">
@@ -14419,10 +14419,10 @@
         <v>SEKAB3S7Y=ICAP</v>
       </c>
       <c r="Q46" s="46">
-        <v>0.79749999999999999</v>
+        <v>0.68499999999999994</v>
       </c>
       <c r="R46" s="46">
-        <v>0.84749999999999992</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="S46" s="46">
         <v>0</v>
@@ -14431,8 +14431,8 @@
         <v>0</v>
       </c>
       <c r="U46" s="46">
-        <f>_xll.qlMidEquivalent($Q46,$R46,$S46,$T46)</f>
-        <v>0.82250000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.71</v>
       </c>
       <c r="V46" s="231"/>
       <c r="W46" s="233">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="X46" s="231"/>
       <c r="Y46" s="46">
-        <v>0.82250000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G46,Y46/100,Trigger)</f>
@@ -14460,7 +14460,7 @@
         <v>158</v>
       </c>
       <c r="F47" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S8Y_Quote</v>
       </c>
       <c r="G47" s="42" t="str">
@@ -14492,10 +14492,10 @@
         <v>SEKAB3S8Y=ICAP</v>
       </c>
       <c r="Q47" s="46">
-        <v>0.90500000000000003</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="R47" s="46">
-        <v>0.95500000000000007</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="S47" s="46">
         <v>0</v>
@@ -14504,8 +14504,8 @@
         <v>0</v>
       </c>
       <c r="U47" s="46">
-        <f>_xll.qlMidEquivalent($Q47,$R47,$S47,$T47)</f>
-        <v>0.93</v>
+        <f t="shared" si="2"/>
+        <v>0.82250000000000001</v>
       </c>
       <c r="V47" s="231"/>
       <c r="W47" s="233">
@@ -14513,11 +14513,11 @@
       </c>
       <c r="X47" s="231"/>
       <c r="Y47" s="46">
-        <v>0.93</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="Z47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G47,Y47/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="34"/>
     </row>
@@ -14533,7 +14533,7 @@
         <v>158</v>
       </c>
       <c r="F48" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S9Y_Quote</v>
       </c>
       <c r="G48" s="42" t="str">
@@ -14565,10 +14565,10 @@
         <v>SEKAB3S9Y=ICAP</v>
       </c>
       <c r="Q48" s="46">
-        <v>1</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="R48" s="46">
-        <v>1.05</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="S48" s="46">
         <v>0</v>
@@ -14577,8 +14577,8 @@
         <v>0</v>
       </c>
       <c r="U48" s="46">
-        <f>_xll.qlMidEquivalent($Q48,$R48,$S48,$T48)</f>
-        <v>1.0249999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.92249999999999999</v>
       </c>
       <c r="V48" s="231"/>
       <c r="W48" s="233">
@@ -14586,11 +14586,11 @@
       </c>
       <c r="X48" s="231"/>
       <c r="Y48" s="46">
-        <v>1.0249999999999999</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="Z48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G48,Y48/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="34"/>
     </row>
@@ -14606,7 +14606,7 @@
         <v>158</v>
       </c>
       <c r="F49" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S10Y_Quote</v>
       </c>
       <c r="G49" s="42" t="str">
@@ -14638,10 +14638,10 @@
         <v>SEKAB3S10Y=ICAP</v>
       </c>
       <c r="Q49" s="46">
-        <v>1.085</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="R49" s="46">
-        <v>1.135</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="S49" s="46">
         <v>0</v>
@@ -14650,8 +14650,8 @@
         <v>0</v>
       </c>
       <c r="U49" s="46">
-        <f>_xll.qlMidEquivalent($Q49,$R49,$S49,$T49)</f>
-        <v>1.1099999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.01</v>
       </c>
       <c r="V49" s="231"/>
       <c r="W49" s="233">
@@ -14659,11 +14659,11 @@
       </c>
       <c r="X49" s="231"/>
       <c r="Y49" s="46">
-        <v>1.1099999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="Z49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G49,Y49/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="34"/>
     </row>
@@ -14679,7 +14679,7 @@
         <v>158</v>
       </c>
       <c r="F50" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S12Y_Quote</v>
       </c>
       <c r="G50" s="42" t="str">
@@ -14711,10 +14711,10 @@
         <v>SEKAB3S12Y=ICAP</v>
       </c>
       <c r="Q50" s="46">
-        <v>1.23</v>
+        <v>1.1225000000000001</v>
       </c>
       <c r="R50" s="46">
-        <v>1.29</v>
+        <v>1.1825000000000001</v>
       </c>
       <c r="S50" s="46">
         <v>0</v>
@@ -14723,8 +14723,8 @@
         <v>0</v>
       </c>
       <c r="U50" s="46">
-        <f>_xll.qlMidEquivalent($Q50,$R50,$S50,$T50)</f>
-        <v>1.26</v>
+        <f t="shared" si="2"/>
+        <v>1.1525000000000001</v>
       </c>
       <c r="V50" s="231"/>
       <c r="W50" s="233">
@@ -14732,11 +14732,11 @@
       </c>
       <c r="X50" s="231"/>
       <c r="Y50" s="46">
-        <v>1.26</v>
+        <v>1.1525000000000001</v>
       </c>
       <c r="Z50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G50,Y50/100,Trigger)</f>
-        <v>2.4999999999998981E-5</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="34"/>
     </row>
@@ -14752,7 +14752,7 @@
         <v>158</v>
       </c>
       <c r="F51" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S15Y_Quote</v>
       </c>
       <c r="G51" s="42" t="str">
@@ -14784,10 +14784,10 @@
         <v>SEKAB3S15Y=ICAP</v>
       </c>
       <c r="Q51" s="46">
-        <v>1.4</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="R51" s="46">
-        <v>1.46</v>
+        <v>1.355</v>
       </c>
       <c r="S51" s="46">
         <v>0</v>
@@ -14796,8 +14796,8 @@
         <v>0</v>
       </c>
       <c r="U51" s="46">
-        <f>_xll.qlMidEquivalent($Q51,$R51,$S51,$T51)</f>
-        <v>1.43</v>
+        <f t="shared" si="2"/>
+        <v>1.325</v>
       </c>
       <c r="V51" s="231"/>
       <c r="W51" s="233">
@@ -14805,11 +14805,11 @@
       </c>
       <c r="X51" s="231"/>
       <c r="Y51" s="46">
-        <v>1.43</v>
+        <v>1.325</v>
       </c>
       <c r="Z51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G51,Y51/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="34"/>
     </row>
@@ -14825,7 +14825,7 @@
         <v>158</v>
       </c>
       <c r="F52" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S20Y_Quote</v>
       </c>
       <c r="G52" s="42" t="str">
@@ -14857,10 +14857,10 @@
         <v>SEKAB3S20Y=ICAP</v>
       </c>
       <c r="Q52" s="46">
-        <v>1.575</v>
+        <v>1.47</v>
       </c>
       <c r="R52" s="46">
-        <v>1.655</v>
+        <v>1.55</v>
       </c>
       <c r="S52" s="46">
         <v>0</v>
@@ -14869,8 +14869,8 @@
         <v>0</v>
       </c>
       <c r="U52" s="46">
-        <f>_xll.qlMidEquivalent($Q52,$R52,$S52,$T52)</f>
-        <v>1.615</v>
+        <f t="shared" si="2"/>
+        <v>1.51</v>
       </c>
       <c r="V52" s="231"/>
       <c r="W52" s="233">
@@ -14878,11 +14878,11 @@
       </c>
       <c r="X52" s="231"/>
       <c r="Y52" s="46">
-        <v>1.615</v>
+        <v>1.51</v>
       </c>
       <c r="Z52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G52,Y52/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="34"/>
     </row>
@@ -14898,7 +14898,7 @@
         <v>158</v>
       </c>
       <c r="F53" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S25Y_Quote</v>
       </c>
       <c r="G53" s="42" t="str">
@@ -14930,10 +14930,10 @@
         <v>SEKAB3S25Y=ICAP</v>
       </c>
       <c r="Q53" s="46">
-        <v>1.645</v>
+        <v>1.54</v>
       </c>
       <c r="R53" s="46">
-        <v>1.7250000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="S53" s="46">
         <v>0</v>
@@ -14942,8 +14942,8 @@
         <v>0</v>
       </c>
       <c r="U53" s="46">
-        <f>_xll.qlMidEquivalent($Q53,$R53,$S53,$T53)</f>
-        <v>1.6850000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.58</v>
       </c>
       <c r="V53" s="231"/>
       <c r="W53" s="233">
@@ -14951,11 +14951,11 @@
       </c>
       <c r="X53" s="231"/>
       <c r="Y53" s="46">
-        <v>1.6850000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="Z53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G53,Y53/100,Trigger)</f>
-        <v>2.5000000000000716E-5</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="34"/>
     </row>
@@ -14971,7 +14971,7 @@
         <v>158</v>
       </c>
       <c r="F54" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S27Y_Quote</v>
       </c>
       <c r="G54" s="42" t="str">
@@ -15015,7 +15015,7 @@
         <v>153</v>
       </c>
       <c r="U54" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q54,$R54,$S54,$T54)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V54" s="231"/>
@@ -15044,7 +15044,7 @@
         <v>158</v>
       </c>
       <c r="F55" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S30Y_Quote</v>
       </c>
       <c r="G55" s="42" t="str">
@@ -15076,10 +15076,10 @@
         <v>SEKAB3S30Y=ICAP</v>
       </c>
       <c r="Q55" s="46">
-        <v>1.655</v>
+        <v>1.55</v>
       </c>
       <c r="R55" s="46">
-        <v>1.7549999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="S55" s="46">
         <v>0</v>
@@ -15088,8 +15088,8 @@
         <v>0</v>
       </c>
       <c r="U55" s="46">
-        <f>_xll.qlMidEquivalent($Q55,$R55,$S55,$T55)</f>
-        <v>1.7050000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.6</v>
       </c>
       <c r="V55" s="231"/>
       <c r="W55" s="233">
@@ -15097,11 +15097,11 @@
       </c>
       <c r="X55" s="231"/>
       <c r="Y55" s="46">
-        <v>1.7050000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="Z55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G55,Y55/100,Trigger)</f>
-        <v>2.4999999999997247E-5</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="34"/>
     </row>
@@ -15117,7 +15117,7 @@
         <v>158</v>
       </c>
       <c r="F56" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S35Y_Quote</v>
       </c>
       <c r="G56" s="42" t="str">
@@ -15161,7 +15161,7 @@
         <v>153</v>
       </c>
       <c r="U56" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q56,$R56,$S56,$T56)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V56" s="231"/>
@@ -15190,7 +15190,7 @@
         <v>158</v>
       </c>
       <c r="F57" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S40Y_Quote</v>
       </c>
       <c r="G57" s="42" t="str">
@@ -15234,7 +15234,7 @@
         <v>153</v>
       </c>
       <c r="U57" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q57,$R57,$S57,$T57)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V57" s="231"/>
@@ -15263,7 +15263,7 @@
         <v>158</v>
       </c>
       <c r="F58" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S45Y_Quote</v>
       </c>
       <c r="G58" s="42" t="str">
@@ -15307,7 +15307,7 @@
         <v>153</v>
       </c>
       <c r="U58" s="46" t="e">
-        <f>_xll.qlMidEquivalent($Q58,$R58,$S58,$T58)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V58" s="231"/>
@@ -15336,7 +15336,7 @@
         <v>158</v>
       </c>
       <c r="F59" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SEKAB3S50Y_Quote</v>
       </c>
       <c r="G59" s="49" t="str">
@@ -15380,7 +15380,7 @@
         <v>153</v>
       </c>
       <c r="U59" s="53" t="e">
-        <f>_xll.qlMidEquivalent($Q59,$R59,$S59,$T59)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V59" s="231"/>
@@ -15671,7 +15671,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="33">
         <f>_xll.ohTrigger(Z6:Z59)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="34"/>
     </row>
@@ -15698,7 +15698,7 @@
       <c r="O5" s="234"/>
       <c r="P5" s="235" t="str">
         <f>_xll.RData(P6:P59,Q5:T5,"RTFEED:IDN",ReutersRtMode,,Q6)</f>
-        <v>Updated at 15:58:39</v>
+        <v>Updated at 10:28:55</v>
       </c>
       <c r="Q5" s="190" t="s">
         <v>106</v>
@@ -16799,7 +16799,7 @@
         <v>SEK3S6S1Y=ICAP</v>
       </c>
       <c r="Q20" s="46">
-        <v>9.7899999999999991</v>
+        <v>10.6</v>
       </c>
       <c r="R20" s="46">
         <v>0</v>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="U20" s="46">
         <f>_xll.qlMidEquivalent($Q20,$R20,$S20,$T20)</f>
-        <v>9.7899999999999991</v>
+        <v>10.6</v>
       </c>
       <c r="V20" s="231"/>
       <c r="W20" s="233">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="X20" s="231"/>
       <c r="Y20" s="46">
-        <v>9.7899999999999991</v>
+        <v>10.6</v>
       </c>
       <c r="Z20" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G20,Y20/10000,Trigger)</f>
@@ -17676,7 +17676,7 @@
         <v>SEK3S6S2Y=ICAP</v>
       </c>
       <c r="Q32" s="46">
-        <v>9.89</v>
+        <v>10.3</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="U32" s="46">
         <f>_xll.qlMidEquivalent($Q32,$R32,$S32,$T32)</f>
-        <v>9.89</v>
+        <v>10.3</v>
       </c>
       <c r="V32" s="231"/>
       <c r="W32" s="233">
@@ -17697,7 +17697,7 @@
       </c>
       <c r="X32" s="231"/>
       <c r="Y32" s="46">
-        <v>9.89</v>
+        <v>10.3</v>
       </c>
       <c r="Z32" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G32,Y32/10000,Trigger)</f>
@@ -17968,7 +17968,7 @@
         <v>SEK3S6S3Y=ICAP</v>
       </c>
       <c r="Q36" s="46">
-        <v>9.92</v>
+        <v>10.19</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="U36" s="46">
         <f>_xll.qlMidEquivalent($Q36,$R36,$S36,$T36)</f>
-        <v>9.92</v>
+        <v>10.19</v>
       </c>
       <c r="V36" s="231"/>
       <c r="W36" s="233">
@@ -17989,7 +17989,7 @@
       </c>
       <c r="X36" s="231"/>
       <c r="Y36" s="46">
-        <v>9.92</v>
+        <v>10.19</v>
       </c>
       <c r="Z36" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G36,Y36/10000,Trigger)</f>
@@ -18260,7 +18260,7 @@
         <v>SEK3S6S4Y=ICAP</v>
       </c>
       <c r="Q40" s="46">
-        <v>9.92</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="U40" s="46">
         <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>9.92</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="V40" s="231"/>
       <c r="W40" s="233">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="X40" s="231"/>
       <c r="Y40" s="46">
-        <v>9.92</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="Z40" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G40,Y40/10000,Trigger)</f>
@@ -18552,7 +18552,7 @@
         <v>SEK3S6S5Y=ICAP</v>
       </c>
       <c r="Q44" s="46">
-        <v>9.91</v>
+        <v>10.08</v>
       </c>
       <c r="R44" s="46">
         <v>0</v>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="U44" s="46">
         <f>_xll.qlMidEquivalent($Q44,$R44,$S44,$T44)</f>
-        <v>9.91</v>
+        <v>10.08</v>
       </c>
       <c r="V44" s="231"/>
       <c r="W44" s="233">
@@ -18573,11 +18573,11 @@
       </c>
       <c r="X44" s="231"/>
       <c r="Y44" s="46">
-        <v>9.91</v>
+        <v>10.08</v>
       </c>
       <c r="Z44" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G44,Y44/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="34"/>
     </row>
@@ -18625,7 +18625,7 @@
         <v>SEK3S6S6Y=ICAP</v>
       </c>
       <c r="Q45" s="46">
-        <v>9.89</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="R45" s="46">
         <v>0</v>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="U45" s="46">
         <f>_xll.qlMidEquivalent($Q45,$R45,$S45,$T45)</f>
-        <v>9.89</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="V45" s="231"/>
       <c r="W45" s="233">
@@ -18646,11 +18646,11 @@
       </c>
       <c r="X45" s="231"/>
       <c r="Y45" s="46">
-        <v>9.89</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="Z45" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G45,Y45/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="34"/>
     </row>
@@ -18698,7 +18698,7 @@
         <v>SEK3S6S7Y=ICAP</v>
       </c>
       <c r="Q46" s="46">
-        <v>9.8699999999999992</v>
+        <v>9.99</v>
       </c>
       <c r="R46" s="46">
         <v>0</v>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="U46" s="46">
         <f>_xll.qlMidEquivalent($Q46,$R46,$S46,$T46)</f>
-        <v>9.8699999999999992</v>
+        <v>9.99</v>
       </c>
       <c r="V46" s="231"/>
       <c r="W46" s="233">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="X46" s="231"/>
       <c r="Y46" s="46">
-        <v>9.8699999999999992</v>
+        <v>9.99</v>
       </c>
       <c r="Z46" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G46,Y46/10000,Trigger)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="34"/>
     </row>
@@ -18771,7 +18771,7 @@
         <v>SEK3S6S8Y=ICAP</v>
       </c>
       <c r="Q47" s="46">
-        <v>9.85</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="R47" s="46">
         <v>0</v>
@@ -18784,7 +18784,7 @@
       </c>
       <c r="U47" s="46">
         <f>_xll.qlMidEquivalent($Q47,$R47,$S47,$T47)</f>
-        <v>9.85</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="V47" s="231"/>
       <c r="W47" s="233">
@@ -18792,11 +18792,11 @@
       </c>
       <c r="X47" s="231"/>
       <c r="Y47" s="46">
-        <v>9.85</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="Z47" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G47,Y47/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="34"/>
     </row>
@@ -18844,7 +18844,7 @@
         <v>SEK3S6S9Y=ICAP</v>
       </c>
       <c r="Q48" s="46">
-        <v>9.83</v>
+        <v>9.92</v>
       </c>
       <c r="R48" s="46">
         <v>0</v>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="U48" s="46">
         <f>_xll.qlMidEquivalent($Q48,$R48,$S48,$T48)</f>
-        <v>9.83</v>
+        <v>9.92</v>
       </c>
       <c r="V48" s="231"/>
       <c r="W48" s="233">
@@ -18865,11 +18865,11 @@
       </c>
       <c r="X48" s="231"/>
       <c r="Y48" s="46">
-        <v>9.83</v>
+        <v>9.92</v>
       </c>
       <c r="Z48" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G48,Y48/10000,Trigger)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="34"/>
     </row>
@@ -18917,7 +18917,7 @@
         <v>SEK3S6S10Y=ICAP</v>
       </c>
       <c r="Q49" s="46">
-        <v>9.76</v>
+        <v>9.84</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -18930,7 +18930,7 @@
       </c>
       <c r="U49" s="46">
         <f>_xll.qlMidEquivalent($Q49,$R49,$S49,$T49)</f>
-        <v>9.76</v>
+        <v>9.84</v>
       </c>
       <c r="V49" s="231"/>
       <c r="W49" s="233">
@@ -18938,11 +18938,11 @@
       </c>
       <c r="X49" s="231"/>
       <c r="Y49" s="46">
-        <v>9.76</v>
+        <v>9.84</v>
       </c>
       <c r="Z49" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G49,Y49/10000,Trigger)</f>
-        <v>1.0000000000000243E-6</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="34"/>
     </row>
@@ -18990,7 +18990,7 @@
         <v>SEK3S6S12Y=ICAP</v>
       </c>
       <c r="Q50" s="46">
-        <v>9.4700000000000006</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="R50" s="46">
         <v>0</v>
@@ -19003,7 +19003,7 @@
       </c>
       <c r="U50" s="46">
         <f>_xll.qlMidEquivalent($Q50,$R50,$S50,$T50)</f>
-        <v>9.4700000000000006</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="V50" s="231"/>
       <c r="W50" s="233">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="X50" s="231"/>
       <c r="Y50" s="46">
-        <v>9.4700000000000006</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="Z50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G50,Y50/10000,Trigger)</f>
@@ -19063,7 +19063,7 @@
         <v>SEK3S6S15Y=ICAP</v>
       </c>
       <c r="Q51" s="46">
-        <v>8.77</v>
+        <v>8.82</v>
       </c>
       <c r="R51" s="46">
         <v>0</v>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="U51" s="46">
         <f>_xll.qlMidEquivalent($Q51,$R51,$S51,$T51)</f>
-        <v>8.77</v>
+        <v>8.82</v>
       </c>
       <c r="V51" s="231"/>
       <c r="W51" s="233">
@@ -19084,11 +19084,11 @@
       </c>
       <c r="X51" s="231"/>
       <c r="Y51" s="46">
-        <v>8.77</v>
+        <v>8.82</v>
       </c>
       <c r="Z51" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G51,Y51/10000,Trigger)</f>
-        <v>1.0000000000000243E-6</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="34"/>
     </row>
@@ -19136,7 +19136,7 @@
         <v>SEK3S6S20Y=ICAP</v>
       </c>
       <c r="Q52" s="46">
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="R52" s="46">
         <v>0</v>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="U52" s="46">
         <f>_xll.qlMidEquivalent($Q52,$R52,$S52,$T52)</f>
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="V52" s="231"/>
       <c r="W52" s="233">
@@ -19157,7 +19157,7 @@
       </c>
       <c r="X52" s="231"/>
       <c r="Y52" s="46">
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="Z52" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G52,Y52/10000,Trigger)</f>
@@ -19209,7 +19209,7 @@
         <v>SEK3S6S25Y=ICAP</v>
       </c>
       <c r="Q53" s="46">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
       <c r="R53" s="46">
         <v>0</v>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="U53" s="46">
         <f>_xll.qlMidEquivalent($Q53,$R53,$S53,$T53)</f>
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
       <c r="V53" s="231"/>
       <c r="W53" s="233">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="X53" s="231"/>
       <c r="Y53" s="46">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
       <c r="Z53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G53,Y53/10000,Trigger)</f>
@@ -19355,7 +19355,7 @@
         <v>SEK3S6S30Y=ICAP</v>
       </c>
       <c r="Q55" s="46">
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
       <c r="R55" s="46">
         <v>0</v>
@@ -19368,7 +19368,7 @@
       </c>
       <c r="U55" s="46">
         <f>_xll.qlMidEquivalent($Q55,$R55,$S55,$T55)</f>
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
       <c r="V55" s="231"/>
       <c r="W55" s="233">
@@ -19376,11 +19376,11 @@
       </c>
       <c r="X55" s="231"/>
       <c r="Y55" s="46">
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
       <c r="Z55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G55,Y55/10000,Trigger)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="34"/>
     </row>
@@ -19950,7 +19950,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="33">
         <f>_xll.ohTrigger(Z6:Z59)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="34"/>
     </row>
@@ -19977,7 +19977,7 @@
       <c r="O5" s="234"/>
       <c r="P5" s="235" t="str">
         <f>_xll.RData(P6:P59,Q5:T5,"RTFEED:IDN",ReutersRtMode,,Q6)</f>
-        <v>Updated at 15:18:22</v>
+        <v>Updated at 10:28:55</v>
       </c>
       <c r="Q5" s="190" t="s">
         <v>106</v>
@@ -20013,7 +20013,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="213" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="213" t="s">
         <v>158</v>
@@ -20038,7 +20038,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="213" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N6" s="213" t="s">
         <v>158</v>
@@ -20088,7 +20088,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="215" t="s">
         <v>158</v>
@@ -20113,7 +20113,7 @@
         <v>21</v>
       </c>
       <c r="M7" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N7" s="215" t="s">
         <v>158</v>
@@ -20161,7 +20161,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="215" t="s">
         <v>158</v>
@@ -20186,7 +20186,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N8" s="215" t="s">
         <v>158</v>
@@ -20234,7 +20234,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="215" t="s">
         <v>158</v>
@@ -20259,7 +20259,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N9" s="215" t="s">
         <v>158</v>
@@ -20308,7 +20308,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="215" t="s">
         <v>158</v>
@@ -20333,7 +20333,7 @@
         <v>18</v>
       </c>
       <c r="M10" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N10" s="215" t="s">
         <v>158</v>
@@ -20381,7 +20381,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="215" t="s">
         <v>158</v>
@@ -20406,7 +20406,7 @@
         <v>17</v>
       </c>
       <c r="M11" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N11" s="215" t="s">
         <v>158</v>
@@ -20454,7 +20454,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="215" t="s">
         <v>158</v>
@@ -20479,7 +20479,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N12" s="215" t="s">
         <v>158</v>
@@ -20527,7 +20527,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="215" t="s">
         <v>158</v>
@@ -20552,7 +20552,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N13" s="215" t="s">
         <v>158</v>
@@ -20600,7 +20600,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" s="215" t="s">
         <v>158</v>
@@ -20625,7 +20625,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N14" s="215" t="s">
         <v>158</v>
@@ -20673,7 +20673,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="215" t="s">
         <v>158</v>
@@ -20698,7 +20698,7 @@
         <v>13</v>
       </c>
       <c r="M15" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" s="215" t="s">
         <v>158</v>
@@ -20747,7 +20747,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="215" t="s">
         <v>158</v>
@@ -20772,7 +20772,7 @@
         <v>12</v>
       </c>
       <c r="M16" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N16" s="215" t="s">
         <v>158</v>
@@ -20820,7 +20820,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="215" t="s">
         <v>158</v>
@@ -20845,7 +20845,7 @@
         <v>11</v>
       </c>
       <c r="M17" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N17" s="215" t="s">
         <v>158</v>
@@ -20894,7 +20894,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="215" t="s">
         <v>158</v>
@@ -20919,7 +20919,7 @@
         <v>10</v>
       </c>
       <c r="M18" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N18" s="215" t="s">
         <v>158</v>
@@ -20967,7 +20967,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="215" t="s">
         <v>158</v>
@@ -20992,7 +20992,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N19" s="215" t="s">
         <v>158</v>
@@ -21040,7 +21040,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="215" t="s">
         <v>158</v>
@@ -21065,7 +21065,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N20" s="215" t="s">
         <v>158</v>
@@ -21113,7 +21113,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="215" t="s">
         <v>158</v>
@@ -21138,7 +21138,7 @@
         <v>103</v>
       </c>
       <c r="M21" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N21" s="215" t="s">
         <v>158</v>
@@ -21186,7 +21186,7 @@
         <v>102</v>
       </c>
       <c r="D22" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="215" t="s">
         <v>158</v>
@@ -21211,7 +21211,7 @@
         <v>102</v>
       </c>
       <c r="M22" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N22" s="215" t="s">
         <v>158</v>
@@ -21259,7 +21259,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="215" t="s">
         <v>158</v>
@@ -21284,7 +21284,7 @@
         <v>64</v>
       </c>
       <c r="M23" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N23" s="215" t="s">
         <v>158</v>
@@ -21332,7 +21332,7 @@
         <v>101</v>
       </c>
       <c r="D24" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="215" t="s">
         <v>158</v>
@@ -21357,7 +21357,7 @@
         <v>101</v>
       </c>
       <c r="M24" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N24" s="215" t="s">
         <v>158</v>
@@ -21405,7 +21405,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="215" t="s">
         <v>158</v>
@@ -21430,7 +21430,7 @@
         <v>100</v>
       </c>
       <c r="M25" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N25" s="215" t="s">
         <v>158</v>
@@ -21478,7 +21478,7 @@
         <v>63</v>
       </c>
       <c r="D26" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="215" t="s">
         <v>158</v>
@@ -21503,7 +21503,7 @@
         <v>63</v>
       </c>
       <c r="M26" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N26" s="215" t="s">
         <v>158</v>
@@ -21551,7 +21551,7 @@
         <v>99</v>
       </c>
       <c r="D27" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="215" t="s">
         <v>158</v>
@@ -21576,7 +21576,7 @@
         <v>99</v>
       </c>
       <c r="M27" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N27" s="215" t="s">
         <v>158</v>
@@ -21625,7 +21625,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="215" t="s">
         <v>158</v>
@@ -21650,7 +21650,7 @@
         <v>98</v>
       </c>
       <c r="M28" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N28" s="215" t="s">
         <v>158</v>
@@ -21698,7 +21698,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" s="215" t="s">
         <v>158</v>
@@ -21723,7 +21723,7 @@
         <v>62</v>
       </c>
       <c r="M29" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N29" s="215" t="s">
         <v>158</v>
@@ -21771,7 +21771,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" s="215" t="s">
         <v>158</v>
@@ -21796,7 +21796,7 @@
         <v>97</v>
       </c>
       <c r="M30" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N30" s="215" t="s">
         <v>158</v>
@@ -21844,7 +21844,7 @@
         <v>96</v>
       </c>
       <c r="D31" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E31" s="215" t="s">
         <v>158</v>
@@ -21869,7 +21869,7 @@
         <v>96</v>
       </c>
       <c r="M31" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N31" s="215" t="s">
         <v>158</v>
@@ -21917,7 +21917,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32" s="215" t="s">
         <v>158</v>
@@ -21942,7 +21942,7 @@
         <v>58</v>
       </c>
       <c r="M32" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N32" s="215" t="s">
         <v>158</v>
@@ -21955,7 +21955,7 @@
         <v>SEK1S3S2Y=ICAP</v>
       </c>
       <c r="Q32" s="46">
-        <v>9.27</v>
+        <v>9.26</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -21968,7 +21968,7 @@
       </c>
       <c r="U32" s="46">
         <f>_xll.qlMidEquivalent($Q32,$R32,$S32,$T32)</f>
-        <v>9.27</v>
+        <v>9.26</v>
       </c>
       <c r="V32" s="231"/>
       <c r="W32" s="233">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="X32" s="231"/>
       <c r="Y32" s="46">
-        <v>9.27</v>
+        <v>9.26</v>
       </c>
       <c r="Z32" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G32,Y32/10000,Trigger)</f>
@@ -21990,7 +21990,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" s="215" t="s">
         <v>158</v>
@@ -22015,7 +22015,7 @@
         <v>95</v>
       </c>
       <c r="M33" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N33" s="215" t="s">
         <v>158</v>
@@ -22063,7 +22063,7 @@
         <v>94</v>
       </c>
       <c r="D34" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="215" t="s">
         <v>158</v>
@@ -22088,7 +22088,7 @@
         <v>94</v>
       </c>
       <c r="M34" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N34" s="215" t="s">
         <v>158</v>
@@ -22136,7 +22136,7 @@
         <v>93</v>
       </c>
       <c r="D35" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E35" s="215" t="s">
         <v>158</v>
@@ -22161,7 +22161,7 @@
         <v>93</v>
       </c>
       <c r="M35" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N35" s="215" t="s">
         <v>158</v>
@@ -22209,7 +22209,7 @@
         <v>57</v>
       </c>
       <c r="D36" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E36" s="215" t="s">
         <v>158</v>
@@ -22234,7 +22234,7 @@
         <v>57</v>
       </c>
       <c r="M36" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N36" s="215" t="s">
         <v>158</v>
@@ -22282,7 +22282,7 @@
         <v>92</v>
       </c>
       <c r="D37" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E37" s="215" t="s">
         <v>158</v>
@@ -22307,7 +22307,7 @@
         <v>92</v>
       </c>
       <c r="M37" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N37" s="215" t="s">
         <v>158</v>
@@ -22355,7 +22355,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E38" s="215" t="s">
         <v>158</v>
@@ -22380,7 +22380,7 @@
         <v>91</v>
       </c>
       <c r="M38" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N38" s="215" t="s">
         <v>158</v>
@@ -22428,7 +22428,7 @@
         <v>90</v>
       </c>
       <c r="D39" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="215" t="s">
         <v>158</v>
@@ -22453,7 +22453,7 @@
         <v>90</v>
       </c>
       <c r="M39" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N39" s="215" t="s">
         <v>158</v>
@@ -22501,7 +22501,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40" s="215" t="s">
         <v>158</v>
@@ -22526,7 +22526,7 @@
         <v>56</v>
       </c>
       <c r="M40" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N40" s="215" t="s">
         <v>158</v>
@@ -22539,7 +22539,7 @@
         <v>SEK1S3S4Y=ICAP</v>
       </c>
       <c r="Q40" s="46">
-        <v>10.1</v>
+        <v>10.11</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -22552,7 +22552,7 @@
       </c>
       <c r="U40" s="46">
         <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>10.1</v>
+        <v>10.11</v>
       </c>
       <c r="V40" s="231"/>
       <c r="W40" s="233">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="X40" s="231"/>
       <c r="Y40" s="46">
-        <v>10.1</v>
+        <v>10.11</v>
       </c>
       <c r="Z40" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G40,Y40/10000,Trigger)</f>
@@ -22574,7 +22574,7 @@
         <v>89</v>
       </c>
       <c r="D41" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41" s="215" t="s">
         <v>158</v>
@@ -22599,7 +22599,7 @@
         <v>89</v>
       </c>
       <c r="M41" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N41" s="215" t="s">
         <v>158</v>
@@ -22647,7 +22647,7 @@
         <v>88</v>
       </c>
       <c r="D42" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="215" t="s">
         <v>158</v>
@@ -22672,7 +22672,7 @@
         <v>88</v>
       </c>
       <c r="M42" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N42" s="215" t="s">
         <v>158</v>
@@ -22720,7 +22720,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="215" t="s">
         <v>158</v>
@@ -22745,7 +22745,7 @@
         <v>87</v>
       </c>
       <c r="M43" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N43" s="215" t="s">
         <v>158</v>
@@ -22793,7 +22793,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E44" s="215" t="s">
         <v>158</v>
@@ -22818,7 +22818,7 @@
         <v>55</v>
       </c>
       <c r="M44" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N44" s="215" t="s">
         <v>158</v>
@@ -22831,7 +22831,7 @@
         <v>SEK1S3S5Y=ICAP</v>
       </c>
       <c r="Q44" s="46">
-        <v>10.15</v>
+        <v>10.16</v>
       </c>
       <c r="R44" s="46">
         <v>0</v>
@@ -22844,7 +22844,7 @@
       </c>
       <c r="U44" s="46">
         <f>_xll.qlMidEquivalent($Q44,$R44,$S44,$T44)</f>
-        <v>10.15</v>
+        <v>10.16</v>
       </c>
       <c r="V44" s="231"/>
       <c r="W44" s="233">
@@ -22852,7 +22852,7 @@
       </c>
       <c r="X44" s="231"/>
       <c r="Y44" s="46">
-        <v>10.15</v>
+        <v>10.16</v>
       </c>
       <c r="Z44" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G44,Y44/10000,Trigger)</f>
@@ -22866,7 +22866,7 @@
         <v>54</v>
       </c>
       <c r="D45" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" s="215" t="s">
         <v>158</v>
@@ -22891,7 +22891,7 @@
         <v>54</v>
       </c>
       <c r="M45" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N45" s="215" t="s">
         <v>158</v>
@@ -22904,7 +22904,7 @@
         <v>SEK1S3S6Y=ICAP</v>
       </c>
       <c r="Q45" s="46">
-        <v>10.17</v>
+        <v>10.18</v>
       </c>
       <c r="R45" s="46">
         <v>0</v>
@@ -22917,7 +22917,7 @@
       </c>
       <c r="U45" s="46">
         <f>_xll.qlMidEquivalent($Q45,$R45,$S45,$T45)</f>
-        <v>10.17</v>
+        <v>10.18</v>
       </c>
       <c r="V45" s="231"/>
       <c r="W45" s="233">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="X45" s="231"/>
       <c r="Y45" s="46">
-        <v>10.17</v>
+        <v>10.18</v>
       </c>
       <c r="Z45" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G45,Y45/10000,Trigger)</f>
@@ -22939,7 +22939,7 @@
         <v>53</v>
       </c>
       <c r="D46" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E46" s="215" t="s">
         <v>158</v>
@@ -22964,7 +22964,7 @@
         <v>53</v>
       </c>
       <c r="M46" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N46" s="215" t="s">
         <v>158</v>
@@ -23012,7 +23012,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E47" s="215" t="s">
         <v>158</v>
@@ -23037,7 +23037,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N47" s="215" t="s">
         <v>158</v>
@@ -23085,7 +23085,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E48" s="215" t="s">
         <v>158</v>
@@ -23110,7 +23110,7 @@
         <v>51</v>
       </c>
       <c r="M48" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N48" s="215" t="s">
         <v>158</v>
@@ -23158,7 +23158,7 @@
         <v>50</v>
       </c>
       <c r="D49" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E49" s="215" t="s">
         <v>158</v>
@@ -23183,7 +23183,7 @@
         <v>50</v>
       </c>
       <c r="M49" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N49" s="215" t="s">
         <v>158</v>
@@ -23231,7 +23231,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E50" s="215" t="s">
         <v>158</v>
@@ -23256,7 +23256,7 @@
         <v>48</v>
       </c>
       <c r="M50" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N50" s="215" t="s">
         <v>158</v>
@@ -23269,7 +23269,7 @@
         <v>SEK1S3S12Y=ICAP</v>
       </c>
       <c r="Q50" s="46">
-        <v>10.130000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="R50" s="46">
         <v>0</v>
@@ -23282,7 +23282,7 @@
       </c>
       <c r="U50" s="46">
         <f>_xll.qlMidEquivalent($Q50,$R50,$S50,$T50)</f>
-        <v>10.130000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="V50" s="231"/>
       <c r="W50" s="233">
@@ -23290,7 +23290,7 @@
       </c>
       <c r="X50" s="231"/>
       <c r="Y50" s="46">
-        <v>10.130000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="Z50" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G50,Y50/10000,Trigger)</f>
@@ -23304,7 +23304,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E51" s="215" t="s">
         <v>158</v>
@@ -23329,7 +23329,7 @@
         <v>45</v>
       </c>
       <c r="M51" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N51" s="215" t="s">
         <v>158</v>
@@ -23377,7 +23377,7 @@
         <v>40</v>
       </c>
       <c r="D52" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E52" s="215" t="s">
         <v>158</v>
@@ -23402,7 +23402,7 @@
         <v>40</v>
       </c>
       <c r="M52" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N52" s="215" t="s">
         <v>158</v>
@@ -23450,7 +23450,7 @@
         <v>35</v>
       </c>
       <c r="D53" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E53" s="215" t="s">
         <v>158</v>
@@ -23475,7 +23475,7 @@
         <v>35</v>
       </c>
       <c r="M53" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N53" s="215" t="s">
         <v>158</v>
@@ -23488,7 +23488,7 @@
         <v>SEK1S3S25Y=ICAP</v>
       </c>
       <c r="Q53" s="46">
-        <v>8.9600000000000009</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="R53" s="46">
         <v>0</v>
@@ -23501,7 +23501,7 @@
       </c>
       <c r="U53" s="46">
         <f>_xll.qlMidEquivalent($Q53,$R53,$S53,$T53)</f>
-        <v>8.9600000000000009</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="V53" s="231"/>
       <c r="W53" s="233">
@@ -23509,7 +23509,7 @@
       </c>
       <c r="X53" s="231"/>
       <c r="Y53" s="46">
-        <v>8.9600000000000009</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Z53" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G53,Y53/10000,Trigger)</f>
@@ -23523,7 +23523,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E54" s="215" t="s">
         <v>158</v>
@@ -23548,7 +23548,7 @@
         <v>33</v>
       </c>
       <c r="M54" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N54" s="215" t="s">
         <v>158</v>
@@ -23596,7 +23596,7 @@
         <v>30</v>
       </c>
       <c r="D55" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E55" s="215" t="s">
         <v>158</v>
@@ -23621,7 +23621,7 @@
         <v>30</v>
       </c>
       <c r="M55" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N55" s="215" t="s">
         <v>158</v>
@@ -23634,7 +23634,7 @@
         <v>SEK1S3S30Y=ICAP</v>
       </c>
       <c r="Q55" s="46">
-        <v>8.68</v>
+        <v>8.67</v>
       </c>
       <c r="R55" s="46">
         <v>0</v>
@@ -23647,7 +23647,7 @@
       </c>
       <c r="U55" s="46">
         <f>_xll.qlMidEquivalent($Q55,$R55,$S55,$T55)</f>
-        <v>8.68</v>
+        <v>8.67</v>
       </c>
       <c r="V55" s="231"/>
       <c r="W55" s="233">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="X55" s="231"/>
       <c r="Y55" s="46">
-        <v>8.68</v>
+        <v>8.67</v>
       </c>
       <c r="Z55" s="48">
         <f>_xll.qlSimpleQuoteSetValue(G55,Y55/10000,Trigger)</f>
@@ -23669,7 +23669,7 @@
         <v>29</v>
       </c>
       <c r="D56" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E56" s="215" t="s">
         <v>158</v>
@@ -23694,7 +23694,7 @@
         <v>29</v>
       </c>
       <c r="M56" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N56" s="215" t="s">
         <v>158</v>
@@ -23742,7 +23742,7 @@
         <v>28</v>
       </c>
       <c r="D57" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" s="215" t="s">
         <v>158</v>
@@ -23767,7 +23767,7 @@
         <v>28</v>
       </c>
       <c r="M57" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N57" s="215" t="s">
         <v>158</v>
@@ -23815,7 +23815,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E58" s="215" t="s">
         <v>158</v>
@@ -23840,7 +23840,7 @@
         <v>27</v>
       </c>
       <c r="M58" s="215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N58" s="215" t="s">
         <v>158</v>
@@ -23888,7 +23888,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="217" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" s="217" t="s">
         <v>158</v>
@@ -23913,7 +23913,7 @@
         <v>26</v>
       </c>
       <c r="M59" s="217" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N59" s="217" t="s">
         <v>158</v>
